--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E25DEA78-9EB0-43B2-AA3A-059DCD573D82}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50090292-4119-40B5-AAAB-B991EE0C23A2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -346,6 +346,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,22 +655,22 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="19" customWidth="1"/>
     <col min="3" max="3" width="10" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="20" customWidth="1"/>
     <col min="5" max="5" width="20" style="18" customWidth="1"/>
-    <col min="6" max="6" width="71.5546875" style="22" customWidth="1"/>
-    <col min="7" max="7" width="72.33203125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="71.5703125" style="22" customWidth="1"/>
+    <col min="7" max="7" width="72.28515625" style="22" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -677,7 +681,7 @@
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="6"/>
       <c r="C2"/>
@@ -688,7 +692,7 @@
       <c r="F2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -711,7 +715,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>45201</v>
       </c>
@@ -732,7 +736,13 @@
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>45202</v>
+      </c>
+      <c r="B5" s="19">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="C5" s="14"/>
       <c r="D5" s="20" t="str">
         <f t="shared" si="0"/>
@@ -743,7 +753,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="14"/>
       <c r="D6" s="20" t="str">
         <f>IF(OR(B6=0, C6=0),"", C6-B6)</f>
@@ -754,7 +764,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="14"/>
       <c r="D7" s="20" t="str">
         <f t="shared" ref="D7:D30" si="1">IF(OR(B7=0, C7=0),"", C7-B7)</f>
@@ -765,7 +775,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -775,7 +785,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -785,7 +795,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -795,7 +805,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -805,7 +815,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -815,7 +825,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -825,7 +835,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D14" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -835,7 +845,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D15" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -845,7 +855,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -855,7 +865,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -865,7 +875,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -875,7 +885,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -885,7 +895,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -895,7 +905,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -905,7 +915,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -915,7 +925,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -925,7 +935,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -935,7 +945,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -945,7 +955,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -955,7 +965,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -965,7 +975,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -975,7 +985,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -985,7 +995,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50090292-4119-40B5-AAAB-B991EE0C23A2}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15BC9804-574E-400A-B661-535BC9DA6A63}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Start Time:</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>What do I think I should do next session:</t>
+  </si>
+  <si>
+    <t>Spent a lot of time wrestling with my PC, Had to reinstall WSL. I also got more progress on the "generate component" function. All of that progress is untested.</t>
+  </si>
+  <si>
+    <t>Got component generation working!! I need to work on the system prompt, as well as renaming "effects" to "side effects" or "useEffect methods" or something like that.</t>
   </si>
 </sst>
 </file>
@@ -307,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -331,6 +337,18 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,10 +364,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -655,22 +669,22 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="19" customWidth="1"/>
     <col min="3" max="3" width="10" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="20" customWidth="1"/>
     <col min="5" max="5" width="20" style="18" customWidth="1"/>
-    <col min="6" max="6" width="71.5703125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="72.28515625" style="22" customWidth="1"/>
+    <col min="6" max="6" width="71.5546875" style="26" customWidth="1"/>
+    <col min="7" max="7" width="72.33203125" style="22" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -678,10 +692,10 @@
       <c r="C1"/>
       <c r="D1" s="8"/>
       <c r="E1"/>
-      <c r="F1"/>
+      <c r="F1" s="23"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="6"/>
       <c r="C2"/>
@@ -689,10 +703,10 @@
         <v>4</v>
       </c>
       <c r="E2"/>
-      <c r="F2"/>
+      <c r="F2" s="23"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -708,14 +722,14 @@
       <c r="E3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="24" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>45201</v>
       </c>
@@ -733,38 +747,54 @@
         <f>IF(D4="","",_xlfn.CONCAT(HOUR(SUM($D$4:D4))," hours ",MINUTE(SUM($D$4:D4))," minutes"))</f>
         <v>1 hours 40 minutes</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>45202</v>
       </c>
       <c r="B5" s="19">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="20" t="str">
+      <c r="C5" s="14">
+        <v>0.82847222222222217</v>
+      </c>
+      <c r="D5" s="20">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0.1201388888888888</v>
       </c>
       <c r="E5" s="18" t="str">
         <f>IF(D5="","",_xlfn.CONCAT(HOUR(SUM($D$4:D5))," hours ",MINUTE(SUM($D$4:D5))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="14"/>
-      <c r="D6" s="20" t="str">
+        <v>4 hours 33 minutes</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>45203</v>
+      </c>
+      <c r="B6" s="19">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="D6" s="20">
         <f>IF(OR(B6=0, C6=0),"", C6-B6)</f>
-        <v/>
+        <v>9.7222222222222154E-2</v>
       </c>
       <c r="E6" s="18" t="str">
         <f>IF(D6="","",_xlfn.CONCAT(HOUR(SUM($D$4:D6))," hours ",MINUTE(SUM($D$4:D6))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6 hours 53 minutes</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="14"/>
       <c r="D7" s="20" t="str">
         <f t="shared" ref="D7:D30" si="1">IF(OR(B7=0, C7=0),"", C7-B7)</f>
@@ -775,7 +805,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D8" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -785,7 +815,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D9" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -795,7 +825,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D10" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -805,7 +835,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D11" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -815,7 +845,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -825,7 +855,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D13" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -835,7 +865,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D14" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -845,7 +875,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D15" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -855,7 +885,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D16" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -865,7 +895,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D17" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -875,7 +905,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D18" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -885,7 +915,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D19" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -895,7 +925,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D20" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -905,7 +935,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D21" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -915,7 +945,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D22" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -925,7 +955,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D23" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -935,7 +965,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D24" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -945,7 +975,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D25" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -955,7 +985,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D26" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -965,7 +995,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D27" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -975,7 +1005,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D28" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -985,7 +1015,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D29" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -995,7 +1025,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D30" s="20" t="str">
         <f t="shared" si="1"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15BC9804-574E-400A-B661-535BC9DA6A63}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C10F9B09-334D-4F59-9F9D-07A87D8E519F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Start Time:</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Got component generation working!! I need to work on the system prompt, as well as renaming "effects" to "side effects" or "useEffect methods" or something like that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got some frontend work done. I started a gridpane component for the editor. </t>
+  </si>
+  <si>
+    <t>Make dragging the dividers change the size of the columns</t>
   </si>
 </sst>
 </file>
@@ -364,6 +370,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -669,7 +679,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -795,14 +805,28 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="14"/>
-      <c r="D7" s="20" t="str">
+      <c r="A7" s="16">
+        <v>45204</v>
+      </c>
+      <c r="B7" s="19">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.5180555555555556</v>
+      </c>
+      <c r="D7" s="20">
         <f t="shared" ref="D7:D30" si="1">IF(OR(B7=0, C7=0),"", C7-B7)</f>
-        <v/>
+        <v>0.12222222222222229</v>
       </c>
       <c r="E7" s="18" t="str">
         <f>IF(D7="","",_xlfn.CONCAT(HOUR(SUM($D$4:D7))," hours ",MINUTE(SUM($D$4:D7))," minutes"))</f>
-        <v/>
+        <v>9 hours 49 minutes</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C10F9B09-334D-4F59-9F9D-07A87D8E519F}"/>
+  <xr:revisionPtr revIDLastSave="429" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F791463E-0536-498A-A836-D0CDC051C249}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Start Time:</t>
   </si>
@@ -75,6 +97,51 @@
   </si>
   <si>
     <t>Make dragging the dividers change the size of the columns</t>
+  </si>
+  <si>
+    <t>Goal: 2+ hours weekdays 5+ hours weekends</t>
+  </si>
+  <si>
+    <t>Total Time:</t>
+  </si>
+  <si>
+    <t>Distance From Goal Time:</t>
+  </si>
+  <si>
+    <t>Running Goal:</t>
+  </si>
+  <si>
+    <t>2 hours</t>
+  </si>
+  <si>
+    <t>4 hours</t>
+  </si>
+  <si>
+    <t>5 hours</t>
+  </si>
+  <si>
+    <t>6 hours</t>
+  </si>
+  <si>
+    <t>Goal Time:</t>
+  </si>
+  <si>
+    <t>8 hours</t>
+  </si>
+  <si>
+    <t>10 hours</t>
+  </si>
+  <si>
+    <t>15 hours</t>
+  </si>
+  <si>
+    <t>20 hours</t>
+  </si>
+  <si>
+    <t>Got a lot of work on the GridPane component.</t>
+  </si>
+  <si>
+    <t>Refactor the ConversationWindow to have its state managed by the page. Also refactor it to have a toggle between 3.5 and 4.</t>
   </si>
 </sst>
 </file>
@@ -86,7 +153,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,8 +168,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +221,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB061FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4A7FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAB81FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -315,14 +433,435 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.79995117038483843"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.79995117038483843"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="0.79995117038483843"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -331,18 +870,14 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -355,12 +890,85 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCCCFF"/>
+      <color rgb="FFAB81FF"/>
+      <color rgb="FFC4A7FF"/>
+      <color rgb="FFB061FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -676,390 +1284,610 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="20" style="18" customWidth="1"/>
-    <col min="6" max="6" width="71.5546875" style="26" customWidth="1"/>
-    <col min="7" max="7" width="72.33203125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="10" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="20" style="15" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="37" customWidth="1"/>
+    <col min="11" max="11" width="32.7109375" style="29"/>
+    <col min="12" max="15" width="32.7109375" style="30"/>
+    <col min="16" max="16" width="32.7109375" style="55"/>
+    <col min="17" max="17" width="32.7109375" style="60"/>
+    <col min="18" max="18" width="32.7109375" style="31"/>
+    <col min="19" max="16384" width="32.7109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1"/>
-      <c r="D1" s="8"/>
-      <c r="E1"/>
-      <c r="F1" s="23"/>
-      <c r="G1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2"/>
-      <c r="D2" s="8" t="s">
+      <c r="C1" s="5"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="22"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2"/>
-      <c r="F2" s="23"/>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="22"/>
+      <c r="J2" s="32"/>
+    </row>
+    <row r="3" spans="1:18" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3"/>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="G3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+      <c r="I3"/>
+      <c r="J3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="34">
         <v>45201</v>
       </c>
-      <c r="B4" s="12">
+      <c r="L3" s="34">
+        <v>45202</v>
+      </c>
+      <c r="M3" s="34">
+        <v>45203</v>
+      </c>
+      <c r="N3" s="34">
+        <v>45204</v>
+      </c>
+      <c r="O3" s="34">
+        <v>45205</v>
+      </c>
+      <c r="P3" s="50">
+        <v>45206</v>
+      </c>
+      <c r="Q3" s="50">
+        <v>45207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4" s="26">
+        <v>45201</v>
+      </c>
+      <c r="C4" s="10">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C4" s="13">
+      <c r="D4" s="11">
         <v>0.52777777777777779</v>
       </c>
-      <c r="D4" s="20">
-        <f t="shared" ref="D4:D5" si="0">IF(OR(B4=0, C4=0),"", C4-B4)</f>
+      <c r="E4" s="17">
+        <f>IF(OR(C4=0, D4=0),"", D4-C4)</f>
         <v>6.9444444444444475E-2</v>
       </c>
-      <c r="E4" s="17" t="str">
-        <f>IF(D4="","",_xlfn.CONCAT(HOUR(SUM($D$4:D4))," hours ",MINUTE(SUM($D$4:D4))," minutes"))</f>
+      <c r="F4" s="14" t="str">
+        <f>IF(E4="","",_xlfn.CONCAT(HOUR(SUM($E$4:E4))," hours ",MINUTE(SUM($E$4:E4))," minutes"))</f>
         <v>1 hours 40 minutes</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="21"/>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="G4" s="20"/>
+      <c r="H4" s="24"/>
+      <c r="I4"/>
+      <c r="J4" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="39" t="str">
+        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, K$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>01 hours 40 minutes</v>
+      </c>
+      <c r="L4" s="39" t="str">
+        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, L$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>02 hours 53 minutes</v>
+      </c>
+      <c r="M4" s="39" t="str">
+        <f t="shared" ref="M4:Q4" si="0">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, M$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>02 hours 20 minutes</v>
+      </c>
+      <c r="N4" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>02 hours 56 minutes</v>
+      </c>
+      <c r="O4" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>03 hours 52 minutes</v>
+      </c>
+      <c r="P4" s="49" t="str">
+        <f t="shared" si="0"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="Q4" s="51" t="str">
+        <f t="shared" si="0"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="R4" s="38"/>
+    </row>
+    <row r="5" spans="1:18" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5" s="27">
         <v>45202</v>
       </c>
-      <c r="B5" s="19">
+      <c r="C5" s="16">
         <v>0.70833333333333337</v>
       </c>
-      <c r="C5" s="14">
+      <c r="D5" s="12">
         <v>0.82847222222222217</v>
       </c>
-      <c r="D5" s="20">
-        <f t="shared" si="0"/>
+      <c r="E5" s="17">
+        <f t="shared" ref="E5" si="1">IF(OR(C5=0, D5=0),"", D5-C5)</f>
         <v>0.1201388888888888</v>
       </c>
-      <c r="E5" s="18" t="str">
-        <f>IF(D5="","",_xlfn.CONCAT(HOUR(SUM($D$4:D5))," hours ",MINUTE(SUM($D$4:D5))," minutes"))</f>
+      <c r="F5" s="15" t="str">
+        <f>IF(E5="","",_xlfn.CONCAT(HOUR(SUM($E$4:E5))," hours ",MINUTE(SUM($E$4:E5))," minutes"))</f>
         <v>4 hours 33 minutes</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="H5" s="25"/>
+      <c r="I5"/>
+      <c r="J5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="54" t="str">
+        <f>IF(INT(LEFT(K$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(K$6,1)-SUM(LEFT(K$4, 2), (MID(K4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(K$6,1)-SUM(LEFT(K$4, 2), (MID(K4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>0 hours 20 minutes</v>
+      </c>
+      <c r="L5" s="43" t="str">
+        <f>IF(INT(LEFT(L$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(L$6,1)-SUM(LEFT(L$4, 2), (MID(L4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(L$6,1)-SUM(LEFT(L$4, 2), (MID(L4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>Goal Met!</v>
+      </c>
+      <c r="M5" s="52" t="str">
+        <f>IF(INT(LEFT(M$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(M$6,1)-SUM(LEFT(M$4, 2), (MID(M4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(M$6,1)-SUM(LEFT(M$4, 2), (MID(M4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>Goal Met!</v>
+      </c>
+      <c r="N5" s="43" t="str">
+        <f t="shared" ref="N5:Q5" si="2">IF(INT(LEFT(N$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>Goal Met!</v>
+      </c>
+      <c r="O5" s="43" t="str">
+        <f t="shared" si="2"/>
+        <v>Goal Met!</v>
+      </c>
+      <c r="P5" s="57" t="str">
+        <f t="shared" si="2"/>
+        <v>5 hours 0 minutes</v>
+      </c>
+      <c r="Q5" s="58" t="str">
+        <f t="shared" si="2"/>
+        <v>5 hours 0 minutes</v>
+      </c>
+      <c r="R5" s="44"/>
+    </row>
+    <row r="6" spans="1:18" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6"/>
+      <c r="B6" s="27">
         <v>45203</v>
       </c>
-      <c r="B6" s="19">
+      <c r="C6" s="16">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C6" s="14">
+      <c r="D6" s="12">
         <v>0.50694444444444442</v>
       </c>
-      <c r="D6" s="20">
-        <f>IF(OR(B6=0, C6=0),"", C6-B6)</f>
+      <c r="E6" s="17">
+        <f>IF(OR(C6=0, D6=0),"", D6-C6)</f>
         <v>9.7222222222222154E-2</v>
       </c>
-      <c r="E6" s="18" t="str">
-        <f>IF(D6="","",_xlfn.CONCAT(HOUR(SUM($D$4:D6))," hours ",MINUTE(SUM($D$4:D6))," minutes"))</f>
+      <c r="F6" s="15" t="str">
+        <f>IF(E6="","",_xlfn.CONCAT(HOUR(SUM($E$4:E6))," hours ",MINUTE(SUM($E$4:E6))," minutes"))</f>
         <v>6 hours 53 minutes</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="G6" s="21" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="H6" s="25"/>
+      <c r="I6"/>
+      <c r="J6" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="44"/>
+    </row>
+    <row r="7" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7" s="27">
         <v>45204</v>
       </c>
-      <c r="B7" s="19">
+      <c r="C7" s="16">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C7" s="14">
+      <c r="D7" s="12">
         <v>0.5180555555555556</v>
       </c>
-      <c r="D7" s="20">
-        <f t="shared" ref="D7:D30" si="1">IF(OR(B7=0, C7=0),"", C7-B7)</f>
+      <c r="E7" s="17">
+        <f t="shared" ref="E7:E30" si="3">IF(OR(C7=0, D7=0),"", D7-C7)</f>
         <v>0.12222222222222229</v>
       </c>
-      <c r="E7" s="18" t="str">
-        <f>IF(D7="","",_xlfn.CONCAT(HOUR(SUM($D$4:D7))," hours ",MINUTE(SUM($D$4:D7))," minutes"))</f>
+      <c r="F7" s="15" t="str">
+        <f>IF(E7="","",_xlfn.CONCAT(HOUR(SUM($E$4:E7))," hours ",MINUTE(SUM($E$4:E7))," minutes"))</f>
         <v>9 hours 49 minutes</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="G7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="H7" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D8" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E8" s="18" t="str">
-        <f>IF(D8="","",_xlfn.CONCAT(HOUR(SUM($D$4:D8))," hours ",MINUTE(SUM($D$4:D8))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D9" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E9" s="18" t="str">
-        <f>IF(D9="","",_xlfn.CONCAT(HOUR(SUM($D$4:D9))," hours ",MINUTE(SUM($D$4:D9))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D10" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E10" s="18" t="str">
-        <f>IF(D10="","",_xlfn.CONCAT(HOUR(SUM($D$4:D10))," hours ",MINUTE(SUM($D$4:D10))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D11" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E11" s="18" t="str">
-        <f>IF(D11="","",_xlfn.CONCAT(HOUR(SUM($D$4:D11))," hours ",MINUTE(SUM($D$4:D11))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D12" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E12" s="18" t="str">
-        <f>IF(D12="","",_xlfn.CONCAT(HOUR(SUM($D$4:D12))," hours ",MINUTE(SUM($D$4:D12))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D13" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E13" s="18" t="str">
-        <f>IF(D13="","",_xlfn.CONCAT(HOUR(SUM($D$4:D13))," hours ",MINUTE(SUM($D$4:D13))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D14" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E14" s="18" t="str">
-        <f>IF(D14="","",_xlfn.CONCAT(HOUR(SUM($D$4:D14))," hours ",MINUTE(SUM($D$4:D14))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D15" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E15" s="18" t="str">
-        <f>IF(D15="","",_xlfn.CONCAT(HOUR(SUM($D$4:D15))," hours ",MINUTE(SUM($D$4:D15))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D16" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E16" s="18" t="str">
-        <f>IF(D16="","",_xlfn.CONCAT(HOUR(SUM($D$4:D16))," hours ",MINUTE(SUM($D$4:D16))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D17" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E17" s="18" t="str">
-        <f>IF(D17="","",_xlfn.CONCAT(HOUR(SUM($D$4:D17))," hours ",MINUTE(SUM($D$4:D17))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E18" s="18" t="str">
-        <f>IF(D18="","",_xlfn.CONCAT(HOUR(SUM($D$4:D18))," hours ",MINUTE(SUM($D$4:D18))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E19" s="18" t="str">
-        <f>IF(D19="","",_xlfn.CONCAT(HOUR(SUM($D$4:D19))," hours ",MINUTE(SUM($D$4:D19))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E20" s="18" t="str">
-        <f>IF(D20="","",_xlfn.CONCAT(HOUR(SUM($D$4:D20))," hours ",MINUTE(SUM($D$4:D20))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D21" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E21" s="18" t="str">
-        <f>IF(D21="","",_xlfn.CONCAT(HOUR(SUM($D$4:D21))," hours ",MINUTE(SUM($D$4:D21))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D22" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E22" s="18" t="str">
-        <f>IF(D22="","",_xlfn.CONCAT(HOUR(SUM($D$4:D22))," hours ",MINUTE(SUM($D$4:D22))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D23" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E23" s="18" t="str">
-        <f>IF(D23="","",_xlfn.CONCAT(HOUR(SUM($D$4:D23))," hours ",MINUTE(SUM($D$4:D23))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D24" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E24" s="18" t="str">
-        <f>IF(D24="","",_xlfn.CONCAT(HOUR(SUM($D$4:D24))," hours ",MINUTE(SUM($D$4:D24))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D25" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E25" s="18" t="str">
-        <f>IF(D25="","",_xlfn.CONCAT(HOUR(SUM($D$4:D25))," hours ",MINUTE(SUM($D$4:D25))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D26" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E26" s="18" t="str">
-        <f>IF(D26="","",_xlfn.CONCAT(HOUR(SUM($D$4:D26))," hours ",MINUTE(SUM($D$4:D26))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D27" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E27" s="18" t="str">
-        <f>IF(D27="","",_xlfn.CONCAT(HOUR(SUM($D$4:D27))," hours ",MINUTE(SUM($D$4:D27))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D28" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E28" s="18" t="str">
-        <f>IF(D28="","",_xlfn.CONCAT(HOUR(SUM($D$4:D28))," hours ",MINUTE(SUM($D$4:D28))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D29" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E29" s="18" t="str">
-        <f>IF(D29="","",_xlfn.CONCAT(HOUR(SUM($D$4:D29))," hours ",MINUTE(SUM($D$4:D29))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D30" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E30" s="18" t="str">
-        <f>IF(D30="","",_xlfn.CONCAT(HOUR(SUM($D$4:D30))," hours ",MINUTE(SUM($D$4:D30))," minutes"))</f>
+      <c r="I7"/>
+      <c r="J7" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="61" t="str" cm="1">
+        <f t="array" ref="K7">INT((SUM(SUM(INT(LEFT($K$4:K$4, 2))), SUM(MID($K$4:K$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:K$4, 2))), SUM(MID($K$4:K$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>1 hours 40 minutes</v>
+      </c>
+      <c r="L7" s="43" t="str" cm="1">
+        <f t="array" ref="L7">INT((SUM(SUM(INT(LEFT($K$4:L$4, 2))), SUM(MID($K$4:L$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:L$4, 2))), SUM(MID($K$4:L$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>4 hours 33 minutes</v>
+      </c>
+      <c r="M7" s="43" t="str" cm="1">
+        <f t="array" ref="M7">INT((SUM(SUM(INT(LEFT($K$4:M$4, 2))), SUM(MID($K$4:M$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:M$4, 2))), SUM(MID($K$4:M$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>6 hours 53 minutes</v>
+      </c>
+      <c r="N7" s="43" t="str" cm="1">
+        <f t="array" ref="N7">INT((SUM(SUM(INT(LEFT($K$4:N$4, 2))), SUM(MID($K$4:N$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:N$4, 2))), SUM(MID($K$4:N$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>9 hours 49 minutes</v>
+      </c>
+      <c r="O7" s="62" t="str" cm="1">
+        <f t="array" ref="O7">INT((SUM(SUM(INT(LEFT($K$4:O$4, 2))), SUM(MID($K$4:O$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:O$4, 2))), SUM(MID($K$4:O$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>13 hours 41 minutes</v>
+      </c>
+      <c r="P7" s="63" t="str" cm="1">
+        <f t="array" ref="P7">INT((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>13 hours 41 minutes</v>
+      </c>
+      <c r="Q7" s="64" t="str" cm="1">
+        <f t="array" ref="Q7">INT((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>13 hours 41 minutes</v>
+      </c>
+      <c r="R7" s="48"/>
+    </row>
+    <row r="8" spans="1:18" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8"/>
+      <c r="B8" s="27">
+        <v>45205</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.52986111111111112</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="E8" s="17">
+        <f t="shared" si="3"/>
+        <v>0.16111111111111109</v>
+      </c>
+      <c r="F8" s="15" t="str">
+        <f>IF(E8="","",_xlfn.CONCAT(HOUR(SUM($E$4:E8))," hours ",MINUTE(SUM($E$4:E8))," minutes"))</f>
+        <v>13 hours 41 minutes</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="48"/>
+    </row>
+    <row r="9" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F9" s="15" t="str">
+        <f>IF(E9="","",_xlfn.CONCAT(HOUR(SUM($E$4:E9))," hours ",MINUTE(SUM($E$4:E9))," minutes"))</f>
+        <v/>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="25"/>
+      <c r="I9"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="45"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="59"/>
+      <c r="R9" s="40"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E10" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F10" s="15" t="str">
+        <f>IF(E10="","",_xlfn.CONCAT(HOUR(SUM($E$4:E10))," hours ",MINUTE(SUM($E$4:E10))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E11" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F11" s="15" t="str">
+        <f>IF(E11="","",_xlfn.CONCAT(HOUR(SUM($E$4:E11))," hours ",MINUTE(SUM($E$4:E11))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E12" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F12" s="15" t="str">
+        <f>IF(E12="","",_xlfn.CONCAT(HOUR(SUM($E$4:E12))," hours ",MINUTE(SUM($E$4:E12))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E13" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F13" s="15" t="str">
+        <f>IF(E13="","",_xlfn.CONCAT(HOUR(SUM($E$4:E13))," hours ",MINUTE(SUM($E$4:E13))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E14" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F14" s="15" t="str">
+        <f>IF(E14="","",_xlfn.CONCAT(HOUR(SUM($E$4:E14))," hours ",MINUTE(SUM($E$4:E14))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E15" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F15" s="15" t="str">
+        <f>IF(E15="","",_xlfn.CONCAT(HOUR(SUM($E$4:E15))," hours ",MINUTE(SUM($E$4:E15))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E16" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F16" s="15" t="str">
+        <f>IF(E16="","",_xlfn.CONCAT(HOUR(SUM($E$4:E16))," hours ",MINUTE(SUM($E$4:E16))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F17" s="15" t="str">
+        <f>IF(E17="","",_xlfn.CONCAT(HOUR(SUM($E$4:E17))," hours ",MINUTE(SUM($E$4:E17))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F18" s="15" t="str">
+        <f>IF(E18="","",_xlfn.CONCAT(HOUR(SUM($E$4:E18))," hours ",MINUTE(SUM($E$4:E18))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F19" s="15" t="str">
+        <f>IF(E19="","",_xlfn.CONCAT(HOUR(SUM($E$4:E19))," hours ",MINUTE(SUM($E$4:E19))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F20" s="15" t="str">
+        <f>IF(E20="","",_xlfn.CONCAT(HOUR(SUM($E$4:E20))," hours ",MINUTE(SUM($E$4:E20))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F21" s="15" t="str">
+        <f>IF(E21="","",_xlfn.CONCAT(HOUR(SUM($E$4:E21))," hours ",MINUTE(SUM($E$4:E21))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F22" s="15" t="str">
+        <f>IF(E22="","",_xlfn.CONCAT(HOUR(SUM($E$4:E22))," hours ",MINUTE(SUM($E$4:E22))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F23" s="15" t="str">
+        <f>IF(E23="","",_xlfn.CONCAT(HOUR(SUM($E$4:E23))," hours ",MINUTE(SUM($E$4:E23))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F24" s="15" t="str">
+        <f>IF(E24="","",_xlfn.CONCAT(HOUR(SUM($E$4:E24))," hours ",MINUTE(SUM($E$4:E24))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F25" s="15" t="str">
+        <f>IF(E25="","",_xlfn.CONCAT(HOUR(SUM($E$4:E25))," hours ",MINUTE(SUM($E$4:E25))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E26" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F26" s="15" t="str">
+        <f>IF(E26="","",_xlfn.CONCAT(HOUR(SUM($E$4:E26))," hours ",MINUTE(SUM($E$4:E26))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E27" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F27" s="15" t="str">
+        <f>IF(E27="","",_xlfn.CONCAT(HOUR(SUM($E$4:E27))," hours ",MINUTE(SUM($E$4:E27))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E28" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F28" s="15" t="str">
+        <f>IF(E28="","",_xlfn.CONCAT(HOUR(SUM($E$4:E28))," hours ",MINUTE(SUM($E$4:E28))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F29" s="15" t="str">
+        <f>IF(E29="","",_xlfn.CONCAT(HOUR(SUM($E$4:E29))," hours ",MINUTE(SUM($E$4:E29))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="17" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="F30" s="15" t="str">
+        <f>IF(E30="","",_xlfn.CONCAT(HOUR(SUM($E$4:E30))," hours ",MINUTE(SUM($E$4:E30))," minutes"))</f>
         <v/>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="429" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F791463E-0536-498A-A836-D0CDC051C249}"/>
+  <xr:revisionPtr revIDLastSave="437" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E51DA13-8BF7-40E3-953F-0CA04905B81E}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Start Time:</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>Refactor the ConversationWindow to have its state managed by the page. Also refactor it to have a toggle between 3.5 and 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Got themes set up, added GPT switch to conversation window, added styles accordingly, got a landing page and sign in/up started</t>
+  </si>
+  <si>
+    <t>Get conversation window talking to the backend. More work on the editor page</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1292,8 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1434,7 @@
       </c>
       <c r="P4" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>00 hours 00 minutes</v>
+        <v>04 hours 18 minutes</v>
       </c>
       <c r="Q4" s="51" t="str">
         <f t="shared" si="0"/>
@@ -1484,11 +1490,11 @@
         <v>Goal Met!</v>
       </c>
       <c r="P5" s="57" t="str">
-        <f t="shared" si="2"/>
-        <v>5 hours 0 minutes</v>
+        <f>IF(INT(LEFT(P$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(P$6,1)-SUM(LEFT(P$4, 2), (MID(P4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(P$6,1)-SUM(LEFT(P$4, 2), (MID(P4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>1 hours 42 minutes</v>
       </c>
       <c r="Q5" s="58" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(INT(LEFT(Q$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(Q$6,1)-SUM(LEFT(Q$4, 2), (MID(Q4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Q$6,1)-SUM(LEFT(Q$4, 2), (MID(Q4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
         <v>5 hours 0 minutes</v>
       </c>
       <c r="R5" s="44"/>
@@ -1594,11 +1600,11 @@
       </c>
       <c r="P7" s="63" t="str" cm="1">
         <f t="array" ref="P7">INT((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>13 hours 41 minutes</v>
+        <v>17 hours 59 minutes</v>
       </c>
       <c r="Q7" s="64" t="str" cm="1">
         <f t="array" ref="Q7">INT((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>13 hours 41 minutes</v>
+        <v>17 hours 59 minutes</v>
       </c>
       <c r="R7" s="48"/>
     </row>
@@ -1654,21 +1660,31 @@
       </c>
       <c r="R8" s="48"/>
     </row>
-    <row r="9" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="41" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A9"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="B9" s="27">
+        <v>45206</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.58819444444444446</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="E9" s="17">
+        <f t="shared" si="3"/>
+        <v>0.1791666666666667</v>
       </c>
       <c r="F9" s="15" t="str">
         <f>IF(E9="","",_xlfn.CONCAT(HOUR(SUM($E$4:E9))," hours ",MINUTE(SUM($E$4:E9))," minutes"))</f>
-        <v/>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="25"/>
+        <v>17 hours 59 minutes</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="I9"/>
       <c r="J9" s="37"/>
       <c r="K9" s="45"/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="437" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E51DA13-8BF7-40E3-953F-0CA04905B81E}"/>
+  <xr:revisionPtr revIDLastSave="444" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD83D0C-4D02-488E-B632-7DE9C55B0DF5}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Start Time:</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Get conversation window talking to the backend. More work on the editor page</t>
+  </si>
+  <si>
+    <t>Made progress towards chat component being tied to GPT</t>
+  </si>
+  <si>
+    <t>I didn't get the ConversationWindow tied to GPT yet. Do that</t>
   </si>
 </sst>
 </file>
@@ -1292,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,7 +1440,7 @@
       </c>
       <c r="P4" s="49" t="str">
         <f t="shared" si="0"/>
-        <v>04 hours 18 minutes</v>
+        <v>06 hours 28 minutes</v>
       </c>
       <c r="Q4" s="51" t="str">
         <f t="shared" si="0"/>
@@ -1482,7 +1488,7 @@
         <v>Goal Met!</v>
       </c>
       <c r="N5" s="43" t="str">
-        <f t="shared" ref="N5:Q5" si="2">IF(INT(LEFT(N$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <f t="shared" ref="N5:O5" si="2">IF(INT(LEFT(N$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
         <v>Goal Met!</v>
       </c>
       <c r="O5" s="43" t="str">
@@ -1491,7 +1497,7 @@
       </c>
       <c r="P5" s="57" t="str">
         <f>IF(INT(LEFT(P$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(P$6,1)-SUM(LEFT(P$4, 2), (MID(P4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(P$6,1)-SUM(LEFT(P$4, 2), (MID(P4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>1 hours 42 minutes</v>
+        <v>Goal Met!</v>
       </c>
       <c r="Q5" s="58" t="str">
         <f>IF(INT(LEFT(Q$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(Q$6,1)-SUM(LEFT(Q$4, 2), (MID(Q4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Q$6,1)-SUM(LEFT(Q$4, 2), (MID(Q4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
@@ -1600,11 +1606,11 @@
       </c>
       <c r="P7" s="63" t="str" cm="1">
         <f t="array" ref="P7">INT((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>17 hours 59 minutes</v>
+        <v>20 hours 9 minutes</v>
       </c>
       <c r="Q7" s="64" t="str" cm="1">
         <f t="array" ref="Q7">INT((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>17 hours 59 minutes</v>
+        <v>20 hours 9 minutes</v>
       </c>
       <c r="R7" s="48"/>
     </row>
@@ -1669,15 +1675,15 @@
         <v>0.58819444444444446</v>
       </c>
       <c r="D9" s="12">
-        <v>0.76736111111111116</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E9" s="17">
         <f t="shared" si="3"/>
-        <v>0.1791666666666667</v>
+        <v>0.18263888888888891</v>
       </c>
       <c r="F9" s="15" t="str">
         <f>IF(E9="","",_xlfn.CONCAT(HOUR(SUM($E$4:E9))," hours ",MINUTE(SUM($E$4:E9))," minutes"))</f>
-        <v>17 hours 59 minutes</v>
+        <v>18 hours 4 minutes</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>28</v>
@@ -1692,14 +1698,29 @@
       <c r="Q9" s="59"/>
       <c r="R9" s="40"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E10" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="27">
+        <v>45206</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E10" s="17">
+        <f t="shared" si="3"/>
+        <v>8.6805555555555469E-2</v>
       </c>
       <c r="F10" s="15" t="str">
         <f>IF(E10="","",_xlfn.CONCAT(HOUR(SUM($E$4:E10))," hours ",MINUTE(SUM($E$4:E10))," minutes"))</f>
-        <v/>
+        <v>20 hours 9 minutes</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="444" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DD83D0C-4D02-488E-B632-7DE9C55B0DF5}"/>
+  <xr:revisionPtr revIDLastSave="457" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20D1582-8908-4861-BCE0-72058B0F912A}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>Start Time:</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>I didn't get the ConversationWindow tied to GPT yet. Do that</t>
+  </si>
+  <si>
+    <t>Frontend conversationWindow hits GPT! Also the TextField is multiline now</t>
+  </si>
+  <si>
+    <t>I need to start work on the syntax code display. I don't want code to be shown the same as regular messages. Fix the fact that multiline messages don't actually appear multiline in messages</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1305,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1450,7 @@
       </c>
       <c r="Q4" s="51" t="str">
         <f t="shared" si="0"/>
-        <v>00 hours 00 minutes</v>
+        <v>01 hours 25 minutes</v>
       </c>
       <c r="R4" s="38"/>
     </row>
@@ -1501,7 +1507,7 @@
       </c>
       <c r="Q5" s="58" t="str">
         <f>IF(INT(LEFT(Q$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(Q$6,1)-SUM(LEFT(Q$4, 2), (MID(Q4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Q$6,1)-SUM(LEFT(Q$4, 2), (MID(Q4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>5 hours 0 minutes</v>
+        <v>4 hours 35 minutes</v>
       </c>
       <c r="R5" s="44"/>
     </row>
@@ -1610,7 +1616,7 @@
       </c>
       <c r="Q7" s="64" t="str" cm="1">
         <f t="array" ref="Q7">INT((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>20 hours 9 minutes</v>
+        <v>21 hours 34 minutes</v>
       </c>
       <c r="R7" s="48"/>
     </row>
@@ -1723,14 +1729,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E11" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="11" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="B11" s="27">
+        <v>45207</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.46875</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E11" s="17">
+        <f>IF(OR(C11=0, D11=0),"", D11-C11)</f>
+        <v>5.902777777777779E-2</v>
       </c>
       <c r="F11" s="15" t="str">
         <f>IF(E11="","",_xlfn.CONCAT(HOUR(SUM($E$4:E11))," hours ",MINUTE(SUM($E$4:E11))," minutes"))</f>
-        <v/>
+        <v>21 hours 34 minutes</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="457" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C20D1582-8908-4861-BCE0-72058B0F912A}"/>
+  <xr:revisionPtr revIDLastSave="461" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7786A61-8900-4608-AFA8-CCC394386D12}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1304,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1755,6 +1755,13 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="27">
+        <v>45207</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.84375</v>
+      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="461" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7786A61-8900-4608-AFA8-CCC394386D12}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB43DF4-9CFA-4575-BA1A-E23E9F5AC845}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Start Time:</t>
   </si>
@@ -160,6 +160,75 @@
   </si>
   <si>
     <t>I need to start work on the syntax code display. I don't want code to be shown the same as regular messages. Fix the fact that multiline messages don't actually appear multiline in messages</t>
+  </si>
+  <si>
+    <t>Got code snippets working in gpt messages</t>
+  </si>
+  <si>
+    <t>Next frontend task is the text editor. It's time to start slate stuff. Generally lots of frontend stuff needs doing. Maybe mock out layouts.</t>
+  </si>
+  <si>
+    <t>22 hours</t>
+  </si>
+  <si>
+    <t>24 hours</t>
+  </si>
+  <si>
+    <t>26 hours</t>
+  </si>
+  <si>
+    <t>28 hours</t>
+  </si>
+  <si>
+    <t>30 hours</t>
+  </si>
+  <si>
+    <t>35 hours</t>
+  </si>
+  <si>
+    <t>40 hours</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/@monaco-editor/react</t>
+  </si>
+  <si>
+    <t>Researching Web Containers and editors</t>
+  </si>
+  <si>
+    <t>Styled Monaco and researched a react preview solution. Pondered an easier solution than web containers, but I've decided against that for a better capstone</t>
+  </si>
+  <si>
+    <t>Setup Web containers: https://stackblitz.com/edit/stackblitz-webcontainer-api-starter-1ceghg?file=files.js https://webcontainers.io/tutorial/1-build-your-first-webcontainer-app</t>
+  </si>
+  <si>
+    <t>42 hours</t>
+  </si>
+  <si>
+    <t>44 hours</t>
+  </si>
+  <si>
+    <t>46 hours</t>
+  </si>
+  <si>
+    <t>48 hours</t>
+  </si>
+  <si>
+    <t>50 hours</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>55 hours</t>
+  </si>
+  <si>
+    <t>60 hours</t>
   </si>
 </sst>
 </file>
@@ -171,7 +240,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="166" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +272,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -270,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -482,7 +559,22 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color rgb="FFCCCCFF"/>
@@ -494,78 +586,48 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color rgb="FFCCCCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FFCCCCFF"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFCCCCFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      </left>
       <right style="thin">
         <color rgb="FFCCCCFF"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFCCCCFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFCCCCFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
       </left>
       <right style="thin">
         <color rgb="FFCCCCFF"/>
@@ -579,9 +641,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
       <right style="thin">
-        <color rgb="FFCCCCFF"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -591,25 +655,14 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFCCCCFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCFF"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color rgb="FFCCCCFF"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFCCCCFF"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,97 +675,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFCCCCFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCFF"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCFF"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCFF"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFCCCCFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFCCCCFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFCCCCFF"/>
-      </right>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -749,34 +711,6 @@
         <color theme="9" tint="0.79998168889431442"/>
       </right>
       <top style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCFF"/>
-      </left>
-      <right style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCFF"/>
-      </left>
-      <right style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -797,59 +731,31 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="0.79995117038483843"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </top>
-      <bottom style="thin">
-        <color theme="9" tint="0.79998168889431442"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.79995117038483843"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -873,11 +779,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCFF"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -923,58 +845,59 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1302,10 +1225,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,16 +1242,11 @@
     <col min="7" max="7" width="37.85546875" style="21" customWidth="1"/>
     <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="37" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="29"/>
-    <col min="12" max="15" width="32.7109375" style="30"/>
-    <col min="16" max="16" width="32.7109375" style="55"/>
-    <col min="17" max="17" width="32.7109375" style="60"/>
-    <col min="18" max="18" width="32.7109375" style="31"/>
-    <col min="19" max="16384" width="32.7109375" style="30"/>
+    <col min="10" max="10" width="14.5703125" style="53" customWidth="1"/>
+    <col min="11" max="16384" width="32.7109375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1338,9 +1256,9 @@
         <v>13</v>
       </c>
       <c r="H1" s="22"/>
-      <c r="J1" s="32"/>
-    </row>
-    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="E2" s="7" t="s">
@@ -1348,9 +1266,19 @@
       </c>
       <c r="G2" s="18"/>
       <c r="H2" s="22"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" spans="1:18" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="J2" s="29"/>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" s="54"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -1374,32 +1302,74 @@
         <v>8</v>
       </c>
       <c r="I3"/>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="31">
         <v>45201</v>
       </c>
-      <c r="L3" s="34">
+      <c r="L3" s="31">
         <v>45202</v>
       </c>
-      <c r="M3" s="34">
+      <c r="M3" s="31">
         <v>45203</v>
       </c>
-      <c r="N3" s="34">
+      <c r="N3" s="31">
         <v>45204</v>
       </c>
-      <c r="O3" s="34">
+      <c r="O3" s="31">
         <v>45205</v>
       </c>
-      <c r="P3" s="50">
+      <c r="P3" s="41">
         <v>45206</v>
       </c>
-      <c r="Q3" s="50">
+      <c r="Q3" s="41">
         <v>45207</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="31">
+        <v>45208</v>
+      </c>
+      <c r="S3" s="31">
+        <v>45209</v>
+      </c>
+      <c r="T3" s="31">
+        <v>45210</v>
+      </c>
+      <c r="U3" s="31">
+        <v>45211</v>
+      </c>
+      <c r="V3" s="31">
+        <v>45212</v>
+      </c>
+      <c r="W3" s="41">
+        <v>45213</v>
+      </c>
+      <c r="X3" s="41">
+        <v>45214</v>
+      </c>
+      <c r="Y3" s="31">
+        <v>45215</v>
+      </c>
+      <c r="Z3" s="31">
+        <v>45216</v>
+      </c>
+      <c r="AA3" s="31">
+        <v>45217</v>
+      </c>
+      <c r="AB3" s="31">
+        <v>45218</v>
+      </c>
+      <c r="AC3" s="31">
+        <v>45219</v>
+      </c>
+      <c r="AD3" s="41">
+        <v>45220</v>
+      </c>
+      <c r="AE3" s="41">
+        <v>45221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="26">
         <v>45201</v>
@@ -1421,40 +1391,95 @@
       <c r="G4" s="20"/>
       <c r="H4" s="24"/>
       <c r="I4"/>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="39" t="str">
+      <c r="K4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, K$3), "hh ""hours ""mm ""minutes""")</f>
         <v>01 hours 40 minutes</v>
       </c>
-      <c r="L4" s="39" t="str">
+      <c r="L4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, L$3), "hh ""hours ""mm ""minutes""")</f>
         <v>02 hours 53 minutes</v>
       </c>
-      <c r="M4" s="39" t="str">
+      <c r="M4" s="35" t="str">
         <f t="shared" ref="M4:Q4" si="0">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, M$3), "hh ""hours ""mm ""minutes""")</f>
         <v>02 hours 20 minutes</v>
       </c>
-      <c r="N4" s="39" t="str">
+      <c r="N4" s="35" t="str">
         <f t="shared" si="0"/>
         <v>02 hours 56 minutes</v>
       </c>
-      <c r="O4" s="39" t="str">
+      <c r="O4" s="35" t="str">
         <f t="shared" si="0"/>
         <v>03 hours 52 minutes</v>
       </c>
-      <c r="P4" s="49" t="str">
+      <c r="P4" s="40" t="str">
         <f t="shared" si="0"/>
         <v>06 hours 28 minutes</v>
       </c>
-      <c r="Q4" s="51" t="str">
+      <c r="Q4" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>01 hours 25 minutes</v>
-      </c>
-      <c r="R4" s="38"/>
-    </row>
-    <row r="5" spans="1:18" s="43" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>02 hours 38 minutes</v>
+      </c>
+      <c r="R4" s="35" t="str">
+        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, R$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>03 hours 33 minutes</v>
+      </c>
+      <c r="S4" s="35" t="str">
+        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, S$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="T4" s="35" t="str">
+        <f t="shared" ref="T4:X4" si="1">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, T$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="U4" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="V4" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="W4" s="40" t="str">
+        <f t="shared" si="1"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="X4" s="42" t="str">
+        <f t="shared" si="1"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="Y4" s="35" t="str">
+        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, Y$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="Z4" s="35" t="str">
+        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, Z$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AA4" s="35" t="str">
+        <f t="shared" ref="AA4:AE4" si="2">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AA$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AB4" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AC4" s="35" t="str">
+        <f t="shared" si="2"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AD4" s="40" t="str">
+        <f t="shared" si="2"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AE4" s="42" t="str">
+        <f t="shared" si="2"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="27">
         <v>45202</v>
@@ -1466,7 +1491,7 @@
         <v>0.82847222222222217</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5" si="1">IF(OR(C5=0, D5=0),"", D5-C5)</f>
+        <f t="shared" ref="E5" si="3">IF(OR(C5=0, D5=0),"", D5-C5)</f>
         <v>0.1201388888888888</v>
       </c>
       <c r="F5" s="15" t="str">
@@ -1478,40 +1503,95 @@
       </c>
       <c r="H5" s="25"/>
       <c r="I5"/>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="54" t="str">
+      <c r="K5" s="45" t="str">
         <f>IF(INT(LEFT(K$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(K$6,1)-SUM(LEFT(K$4, 2), (MID(K4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(K$6,1)-SUM(LEFT(K$4, 2), (MID(K4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
         <v>0 hours 20 minutes</v>
       </c>
-      <c r="L5" s="43" t="str">
+      <c r="L5" s="37" t="str">
         <f>IF(INT(LEFT(L$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(L$6,1)-SUM(LEFT(L$4, 2), (MID(L4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(L$6,1)-SUM(LEFT(L$4, 2), (MID(L4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
         <v>Goal Met!</v>
       </c>
-      <c r="M5" s="52" t="str">
+      <c r="M5" s="43" t="str">
         <f>IF(INT(LEFT(M$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(M$6,1)-SUM(LEFT(M$4, 2), (MID(M4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(M$6,1)-SUM(LEFT(M$4, 2), (MID(M4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
         <v>Goal Met!</v>
       </c>
-      <c r="N5" s="43" t="str">
-        <f t="shared" ref="N5:O5" si="2">IF(INT(LEFT(N$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+      <c r="N5" s="37" t="str">
+        <f t="shared" ref="N5:O5" si="4">IF(INT(LEFT(N$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
         <v>Goal Met!</v>
       </c>
-      <c r="O5" s="43" t="str">
-        <f t="shared" si="2"/>
+      <c r="O5" s="37" t="str">
+        <f t="shared" si="4"/>
         <v>Goal Met!</v>
       </c>
-      <c r="P5" s="57" t="str">
+      <c r="P5" s="46" t="str">
         <f>IF(INT(LEFT(P$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(P$6,1)-SUM(LEFT(P$4, 2), (MID(P4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(P$6,1)-SUM(LEFT(P$4, 2), (MID(P4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
         <v>Goal Met!</v>
       </c>
-      <c r="Q5" s="58" t="str">
+      <c r="Q5" s="47" t="str">
         <f>IF(INT(LEFT(Q$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(Q$6,1)-SUM(LEFT(Q$4, 2), (MID(Q4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Q$6,1)-SUM(LEFT(Q$4, 2), (MID(Q4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>4 hours 35 minutes</v>
-      </c>
-      <c r="R5" s="44"/>
-    </row>
-    <row r="6" spans="1:18" s="43" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>2 hours 22 minutes</v>
+      </c>
+      <c r="R5" s="45" t="str">
+        <f>IF(INT(LEFT(R$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(R$6,1)-SUM(LEFT(R$4, 2), (MID(R4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(R$6,1)-SUM(LEFT(R$4, 2), (MID(R4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>Goal Met!</v>
+      </c>
+      <c r="S5" s="37" t="str">
+        <f>IF(INT(LEFT(S$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(S$6,1)-SUM(LEFT(S$4, 2), (MID(S4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(S$6,1)-SUM(LEFT(S$4, 2), (MID(S4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="T5" s="43" t="str">
+        <f>IF(INT(LEFT(T$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(T$6,1)-SUM(LEFT(T$4, 2), (MID(T4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(T$6,1)-SUM(LEFT(T$4, 2), (MID(T4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="U5" s="37" t="str">
+        <f t="shared" ref="U5:V5" si="5">IF(INT(LEFT(U$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="V5" s="37" t="str">
+        <f t="shared" si="5"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="W5" s="46" t="str">
+        <f>IF(INT(LEFT(W$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(W$6,1)-SUM(LEFT(W$4, 2), (MID(W4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(W$6,1)-SUM(LEFT(W$4, 2), (MID(W4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>5 hours 0 minutes</v>
+      </c>
+      <c r="X5" s="47" t="str">
+        <f>IF(INT(LEFT(X$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(X$6,1)-SUM(LEFT(X$4, 2), (MID(X4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(X$6,1)-SUM(LEFT(X$4, 2), (MID(X4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>5 hours 0 minutes</v>
+      </c>
+      <c r="Y5" s="45" t="str">
+        <f>IF(INT(LEFT(Y$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(Y$6,1)-SUM(LEFT(Y$4, 2), (MID(Y4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Y$6,1)-SUM(LEFT(Y$4, 2), (MID(Y4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="Z5" s="37" t="str">
+        <f>IF(INT(LEFT(Z$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(Z$6,1)-SUM(LEFT(Z$4, 2), (MID(Z4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Z$6,1)-SUM(LEFT(Z$4, 2), (MID(Z4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AA5" s="43" t="str">
+        <f>IF(INT(LEFT(AA$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AA$6,1)-SUM(LEFT(AA$4, 2), (MID(AA4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AA$6,1)-SUM(LEFT(AA$4, 2), (MID(AA4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AB5" s="37" t="str">
+        <f t="shared" ref="AB5:AC5" si="6">IF(INT(LEFT(AB$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AB$6,1)-SUM(LEFT(AB$4, 2), (MID(AB4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AB$6,1)-SUM(LEFT(AB$4, 2), (MID(AB4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AC5" s="37" t="str">
+        <f t="shared" si="6"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AD5" s="46" t="str">
+        <f>IF(INT(LEFT(AD$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AD$6,1)-SUM(LEFT(AD$4, 2), (MID(AD4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AD$6,1)-SUM(LEFT(AD$4, 2), (MID(AD4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>5 hours 0 minutes</v>
+      </c>
+      <c r="AE5" s="47" t="str">
+        <f>IF(INT(LEFT(AE$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AE$6,1)-SUM(LEFT(AE$4, 2), (MID(AE4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AE$6,1)-SUM(LEFT(AE$4, 2), (MID(AE4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>5 hours 0 minutes</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="27">
         <v>45203</v>
@@ -1535,33 +1615,74 @@
       </c>
       <c r="H6" s="25"/>
       <c r="I6"/>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="K6" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="M6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="N6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="43" t="s">
+      <c r="O6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="57" t="s">
+      <c r="P6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="58" t="s">
+      <c r="Q6" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="44"/>
-    </row>
-    <row r="7" spans="1:18" s="47" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="S6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="V6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="W6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="27">
         <v>45204</v>
@@ -1573,7 +1694,7 @@
         <v>0.5180555555555556</v>
       </c>
       <c r="E7" s="17">
-        <f t="shared" ref="E7:E30" si="3">IF(OR(C7=0, D7=0),"", D7-C7)</f>
+        <f t="shared" ref="E7:E30" si="7">IF(OR(C7=0, D7=0),"", D7-C7)</f>
         <v>0.12222222222222229</v>
       </c>
       <c r="F7" s="15" t="str">
@@ -1587,40 +1708,95 @@
         <v>12</v>
       </c>
       <c r="I7"/>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="61" t="str" cm="1">
+      <c r="K7" s="48" t="str" cm="1">
         <f t="array" ref="K7">INT((SUM(SUM(INT(LEFT($K$4:K$4, 2))), SUM(MID($K$4:K$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:K$4, 2))), SUM(MID($K$4:K$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
         <v>1 hours 40 minutes</v>
       </c>
-      <c r="L7" s="43" t="str" cm="1">
+      <c r="L7" s="37" t="str" cm="1">
         <f t="array" ref="L7">INT((SUM(SUM(INT(LEFT($K$4:L$4, 2))), SUM(MID($K$4:L$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:L$4, 2))), SUM(MID($K$4:L$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
         <v>4 hours 33 minutes</v>
       </c>
-      <c r="M7" s="43" t="str" cm="1">
+      <c r="M7" s="37" t="str" cm="1">
         <f t="array" ref="M7">INT((SUM(SUM(INT(LEFT($K$4:M$4, 2))), SUM(MID($K$4:M$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:M$4, 2))), SUM(MID($K$4:M$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
         <v>6 hours 53 minutes</v>
       </c>
-      <c r="N7" s="43" t="str" cm="1">
+      <c r="N7" s="37" t="str" cm="1">
         <f t="array" ref="N7">INT((SUM(SUM(INT(LEFT($K$4:N$4, 2))), SUM(MID($K$4:N$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:N$4, 2))), SUM(MID($K$4:N$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
         <v>9 hours 49 minutes</v>
       </c>
-      <c r="O7" s="62" t="str" cm="1">
+      <c r="O7" s="49" t="str" cm="1">
         <f t="array" ref="O7">INT((SUM(SUM(INT(LEFT($K$4:O$4, 2))), SUM(MID($K$4:O$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:O$4, 2))), SUM(MID($K$4:O$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
         <v>13 hours 41 minutes</v>
       </c>
-      <c r="P7" s="63" t="str" cm="1">
+      <c r="P7" s="50" t="str" cm="1">
         <f t="array" ref="P7">INT((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
         <v>20 hours 9 minutes</v>
       </c>
-      <c r="Q7" s="64" t="str" cm="1">
+      <c r="Q7" s="51" t="str" cm="1">
         <f t="array" ref="Q7">INT((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>21 hours 34 minutes</v>
-      </c>
-      <c r="R7" s="48"/>
-    </row>
-    <row r="8" spans="1:18" s="47" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>22 hours 47 minutes</v>
+      </c>
+      <c r="R7" s="48" t="str" cm="1">
+        <f t="array" ref="R7">INT((SUM(SUM(INT(LEFT($K$4:R$4, 2))), SUM(MID($K$4:R$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:R$4, 2))), SUM(MID($K$4:R$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="S7" s="37" t="str" cm="1">
+        <f t="array" ref="S7">INT((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="T7" s="37" t="str" cm="1">
+        <f t="array" ref="T7">INT((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="U7" s="37" t="str" cm="1">
+        <f t="array" ref="U7">INT((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="V7" s="49" t="str" cm="1">
+        <f t="array" ref="V7">INT((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="W7" s="50" t="str" cm="1">
+        <f t="array" ref="W7">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="X7" s="51" t="str" cm="1">
+        <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="Y7" s="48" t="str" cm="1">
+        <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="Z7" s="37" t="str" cm="1">
+        <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="AA7" s="37" t="str" cm="1">
+        <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="AB7" s="37" t="str" cm="1">
+        <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="AC7" s="49" t="str" cm="1">
+        <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="AD7" s="50" t="str" cm="1">
+        <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="AE7" s="51" t="str" cm="1">
+        <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="27">
         <v>45205</v>
@@ -1632,7 +1808,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="E8" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.16111111111111109</v>
       </c>
       <c r="F8" s="15" t="str">
@@ -1646,34 +1822,74 @@
         <v>27</v>
       </c>
       <c r="I8"/>
-      <c r="J8" s="37" t="s">
+      <c r="J8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="46" t="s">
+      <c r="K8" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="47" t="s">
+      <c r="L8" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="47" t="s">
+      <c r="O8" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P8" s="63" t="s">
+      <c r="P8" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="Q8" s="64" t="s">
+      <c r="Q8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="R8" s="48"/>
-    </row>
-    <row r="9" spans="1:18" s="41" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9"/>
+      <c r="R8" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="W8" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="X8" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA8" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB8" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD8" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE8" s="51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>45206</v>
       </c>
@@ -1684,7 +1900,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.18263888888888891</v>
       </c>
       <c r="F9" s="15" t="str">
@@ -1697,14 +1913,8 @@
       <c r="H9" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I9"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="45"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="59"/>
-      <c r="R9" s="40"/>
-    </row>
-    <row r="10" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>45206</v>
       </c>
@@ -1715,7 +1925,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.6805555555555469E-2</v>
       </c>
       <c r="F10" s="15" t="str">
@@ -1729,7 +1939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>45207</v>
       </c>
@@ -1754,46 +1964,84 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>45207</v>
       </c>
       <c r="C12" s="16">
         <v>0.84375</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="D12" s="12">
+        <v>0.89444444444444438</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="7"/>
+        <v>5.0694444444444375E-2</v>
       </c>
       <c r="F12" s="15" t="str">
         <f>IF(E12="","",_xlfn.CONCAT(HOUR(SUM($E$4:E12))," hours ",MINUTE(SUM($E$4:E12))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E13" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>22 hours 47 minutes</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="27">
+        <v>45208</v>
+      </c>
+      <c r="C13" s="16">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="7"/>
+        <v>1.736111111111116E-2</v>
       </c>
       <c r="F13" s="15" t="str">
         <f>IF(E13="","",_xlfn.CONCAT(HOUR(SUM($E$4:E13))," hours ",MINUTE(SUM($E$4:E13))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E14" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <v>23 hours 12 minutes</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="90" x14ac:dyDescent="0.25">
+      <c r="B14" s="27">
+        <v>45208</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" si="7"/>
+        <v>0.13055555555555554</v>
       </c>
       <c r="F14" s="15" t="str">
         <f>IF(E14="","",_xlfn.CONCAT(HOUR(SUM($E$4:E14))," hours ",MINUTE(SUM($E$4:E14))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>2 hours 20 minutes</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E15" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F15" s="15" t="str">
@@ -1801,9 +2049,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E16" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F16" s="15" t="str">
@@ -1813,7 +2061,7 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F17" s="15" t="str">
@@ -1823,7 +2071,7 @@
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F18" s="15" t="str">
@@ -1833,7 +2081,7 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F19" s="15" t="str">
@@ -1843,7 +2091,7 @@
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F20" s="15" t="str">
@@ -1853,7 +2101,7 @@
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F21" s="15" t="str">
@@ -1863,7 +2111,7 @@
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F22" s="15" t="str">
@@ -1873,7 +2121,7 @@
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F23" s="15" t="str">
@@ -1883,7 +2131,7 @@
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F24" s="15" t="str">
@@ -1893,7 +2141,7 @@
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F25" s="15" t="str">
@@ -1903,7 +2151,7 @@
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F26" s="15" t="str">
@@ -1913,7 +2161,7 @@
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F27" s="15" t="str">
@@ -1923,7 +2171,7 @@
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E28" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F28" s="15" t="str">
@@ -1933,7 +2181,7 @@
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E29" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F29" s="15" t="str">
@@ -1943,7 +2191,7 @@
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E30" s="17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F30" s="15" t="str">
@@ -1953,8 +2201,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H13" r:id="rId1" xr:uid="{40BF5D3F-6F40-4D36-A2D2-A18CA464B327}"/>
+  </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="525" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AB43DF4-9CFA-4575-BA1A-E23E9F5AC845}"/>
+  <xr:revisionPtr revIDLastSave="532" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7572A0CD-FA64-4AD0-84B2-67127FECE5AC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>Start Time:</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>60 hours</t>
+  </si>
+  <si>
+    <t>Web containers work as a proof of conept!</t>
+  </si>
+  <si>
+    <t>Now is the heavy meat and potatoes of getting project file structure going. The startup process for a web container is going to be copying all the files over, installing the dependencies, then starting the server. (we are not using npx create-react-app)</t>
   </si>
 </sst>
 </file>
@@ -799,7 +805,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -885,15 +891,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1227,8 +1229,8 @@
   </sheetPr>
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,27 +1245,30 @@
     <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="14.5703125" style="53" customWidth="1"/>
-    <col min="11" max="16384" width="32.7109375" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" customFormat="1" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="5"/>
+      <c r="D1"/>
       <c r="E1" s="7"/>
+      <c r="F1"/>
       <c r="G1" s="28" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="22"/>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
+      <c r="D2"/>
       <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F2"/>
       <c r="G2" s="18"/>
       <c r="H2" s="22"/>
       <c r="J2" s="29"/>
@@ -1273,7 +1278,6 @@
       <c r="R2" t="s">
         <v>53</v>
       </c>
-      <c r="W2" s="54"/>
       <c r="Y2" t="s">
         <v>54</v>
       </c>
@@ -1428,7 +1432,7 @@
       </c>
       <c r="S4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, S$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>00 hours 00 minutes</v>
+        <v>03 hours 15 minutes</v>
       </c>
       <c r="T4" s="35" t="str">
         <f t="shared" ref="T4:X4" si="1">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, T$3), "hh ""hours ""mm ""minutes""")</f>
@@ -1540,7 +1544,7 @@
       </c>
       <c r="S5" s="37" t="str">
         <f>IF(INT(LEFT(S$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(S$6,1)-SUM(LEFT(S$4, 2), (MID(S4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(S$6,1)-SUM(LEFT(S$4, 2), (MID(S4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
+        <v>Goal Met!</v>
       </c>
       <c r="T5" s="43" t="str">
         <f>IF(INT(LEFT(T$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(T$6,1)-SUM(LEFT(T$4, 2), (MID(T4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(T$6,1)-SUM(LEFT(T$4, 2), (MID(T4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
@@ -1745,55 +1749,55 @@
       </c>
       <c r="S7" s="37" t="str" cm="1">
         <f t="array" ref="S7">INT((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="T7" s="37" t="str" cm="1">
         <f t="array" ref="T7">INT((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="U7" s="37" t="str" cm="1">
         <f t="array" ref="U7">INT((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="V7" s="49" t="str" cm="1">
         <f t="array" ref="V7">INT((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="W7" s="50" t="str" cm="1">
         <f t="array" ref="W7">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="X7" s="51" t="str" cm="1">
         <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="Y7" s="48" t="str" cm="1">
         <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
+        <v>29 hours 35 minutes</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1822,7 +1826,7 @@
         <v>27</v>
       </c>
       <c r="I8"/>
-      <c r="J8" s="55" t="s">
+      <c r="J8" s="54" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="38" t="s">
@@ -2035,18 +2039,33 @@
       <c r="G14" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="E15" s="17" t="str">
+    <row r="15" spans="1:31" ht="120" x14ac:dyDescent="0.25">
+      <c r="B15" s="27">
+        <v>45209</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="E15" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0.13541666666666669</v>
       </c>
       <c r="F15" s="15" t="str">
         <f>IF(E15="","",_xlfn.CONCAT(HOUR(SUM($E$4:E15))," hours ",MINUTE(SUM($E$4:E15))," minutes"))</f>
-        <v/>
+        <v>5 hours 35 minutes</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
@@ -2091,7 +2110,7 @@
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR(C20=0, D20=0),"", D20-C20)</f>
         <v/>
       </c>
       <c r="F20" s="15" t="str">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="532" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7572A0CD-FA64-4AD0-84B2-67127FECE5AC}"/>
+  <xr:revisionPtr revIDLastSave="537" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAAE7DB4-B98A-41C1-BCA1-A04D61402306}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Start Time:</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Now is the heavy meat and potatoes of getting project file structure going. The startup process for a web container is going to be copying all the files over, installing the dependencies, then starting the server. (we are not using npx create-react-app)</t>
+  </si>
+  <si>
+    <t>Made tab bars for editor and snippet, polished other bits of code</t>
   </si>
 </sst>
 </file>
@@ -1229,8 +1232,8 @@
   </sheetPr>
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,7 +1435,7 @@
       </c>
       <c r="S4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, S$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>03 hours 15 minutes</v>
+        <v>05 hours 45 minutes</v>
       </c>
       <c r="T4" s="35" t="str">
         <f t="shared" ref="T4:X4" si="1">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, T$3), "hh ""hours ""mm ""minutes""")</f>
@@ -1749,55 +1752,55 @@
       </c>
       <c r="S7" s="37" t="str" cm="1">
         <f t="array" ref="S7">INT((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="T7" s="37" t="str" cm="1">
         <f t="array" ref="T7">INT((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="U7" s="37" t="str" cm="1">
         <f t="array" ref="U7">INT((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="V7" s="49" t="str" cm="1">
         <f t="array" ref="V7">INT((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="W7" s="50" t="str" cm="1">
         <f t="array" ref="W7">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="X7" s="51" t="str" cm="1">
         <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="Y7" s="48" t="str" cm="1">
         <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>29 hours 35 minutes</v>
+        <v>32 hours 5.00000000000023 minutes</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2068,14 +2071,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="E16" s="17" t="str">
+    <row r="16" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="27">
+        <v>45209</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="E16" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0.10416666666666663</v>
       </c>
       <c r="F16" s="15" t="str">
         <f>IF(E16="","",_xlfn.CONCAT(HOUR(SUM($E$4:E16))," hours ",MINUTE(SUM($E$4:E16))," minutes"))</f>
-        <v/>
+        <v>8 hours 5 minutes</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="537" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAAE7DB4-B98A-41C1-BCA1-A04D61402306}"/>
+  <xr:revisionPtr revIDLastSave="542" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{415F881F-E4C6-4021-A285-25A2EDAB793C}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>Start Time:</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>Made tab bars for editor and snippet, polished other bits of code</t>
+  </si>
+  <si>
+    <t>Refactored the view panels to not be bad. Now the editor development can really start. I also sketched out what the pages might look like</t>
   </si>
 </sst>
 </file>
@@ -1232,25 +1235,25 @@
   </sheetPr>
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="16" customWidth="1"/>
     <col min="4" max="4" width="10" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="17" customWidth="1"/>
     <col min="6" max="6" width="20" style="15" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="37.88671875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1264,7 +1267,7 @@
       <c r="H1" s="22"/>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2"/>
@@ -1285,7 +1288,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -1376,7 +1379,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4" s="26">
         <v>45201</v>
@@ -1435,11 +1438,11 @@
       </c>
       <c r="S4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, S$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>05 hours 45 minutes</v>
+        <v>05 hours 50 minutes</v>
       </c>
       <c r="T4" s="35" t="str">
         <f t="shared" ref="T4:X4" si="1">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, T$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 15 minutes</v>
       </c>
       <c r="U4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -1486,7 +1489,7 @@
         <v>00 hours 00 minutes</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" s="27">
         <v>45202</v>
@@ -1551,7 +1554,7 @@
       </c>
       <c r="T5" s="43" t="str">
         <f>IF(INT(LEFT(T$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(T$6,1)-SUM(LEFT(T$4, 2), (MID(T4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(T$6,1)-SUM(LEFT(T$4, 2), (MID(T4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
+        <v>Goal Met!</v>
       </c>
       <c r="U5" s="37" t="str">
         <f t="shared" ref="U5:V5" si="5">IF(INT(LEFT(U$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
@@ -1598,7 +1601,7 @@
         <v>5 hours 0 minutes</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="27">
         <v>45203</v>
@@ -1689,7 +1692,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="27">
         <v>45204</v>
@@ -1752,58 +1755,58 @@
       </c>
       <c r="S7" s="37" t="str" cm="1">
         <f t="array" ref="S7">INT((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>32 hours 9.99999999999977 minutes</v>
       </c>
       <c r="T7" s="37" t="str" cm="1">
         <f t="array" ref="T7">INT((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>34 hours 25 minutes</v>
       </c>
       <c r="U7" s="37" t="str" cm="1">
         <f t="array" ref="U7">INT((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>34 hours 25 minutes</v>
       </c>
       <c r="V7" s="49" t="str" cm="1">
         <f t="array" ref="V7">INT((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>34 hours 25 minutes</v>
       </c>
       <c r="W7" s="50" t="str" cm="1">
         <f t="array" ref="W7">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>34 hours 25 minutes</v>
       </c>
       <c r="X7" s="51" t="str" cm="1">
         <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>34 hours 25 minutes</v>
       </c>
       <c r="Y7" s="48" t="str" cm="1">
         <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>34 hours 25 minutes</v>
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>34 hours 25 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>34 hours 25 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>34 hours 25 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>34 hours 25 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
+        <v>34 hours 25 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 5.00000000000023 minutes</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>34 hours 25 minutes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="39" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" s="27">
         <v>45205</v>
@@ -1896,7 +1899,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="27">
         <v>45206</v>
       </c>
@@ -1921,7 +1924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="27">
         <v>45206</v>
       </c>
@@ -1946,7 +1949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="72" x14ac:dyDescent="0.3">
       <c r="B11" s="27">
         <v>45207</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="27">
         <v>45207</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="27">
         <v>45208</v>
       </c>
@@ -2021,7 +2024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" s="27">
         <v>45208</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B15" s="27">
         <v>45209</v>
       </c>
@@ -2071,7 +2074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -2079,31 +2082,43 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="D16" s="12">
-        <v>0.80555555555555547</v>
+        <v>0.80902777777777779</v>
       </c>
       <c r="E16" s="17">
         <f t="shared" si="7"/>
-        <v>0.10416666666666663</v>
+        <v>0.10763888888888895</v>
       </c>
       <c r="F16" s="15" t="str">
         <f>IF(E16="","",_xlfn.CONCAT(HOUR(SUM($E$4:E16))," hours ",MINUTE(SUM($E$4:E16))," minutes"))</f>
-        <v>8 hours 5 minutes</v>
+        <v>8 hours 10 minutes</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="17" t="str">
+    <row r="17" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="27">
+        <v>45210</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="D17" s="12">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E17" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>9.3750000000000056E-2</v>
       </c>
       <c r="F17" s="15" t="str">
         <f>IF(E17="","",_xlfn.CONCAT(HOUR(SUM($E$4:E17))," hours ",MINUTE(SUM($E$4:E17))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+        <v>10 hours 25 minutes</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E18" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2113,7 +2128,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E19" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2123,7 +2138,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E20" s="17" t="str">
         <f>IF(OR(C20=0, D20=0),"", D20-C20)</f>
         <v/>
@@ -2133,7 +2148,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E21" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2143,7 +2158,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E22" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2153,7 +2168,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E23" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2163,7 +2178,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E24" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2173,7 +2188,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E25" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2183,7 +2198,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E26" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2193,7 +2208,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E27" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2203,7 +2218,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E28" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2213,7 +2228,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E29" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2223,7 +2238,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E30" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b25eddf427344b8b/School Docs/Capstone/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="542" documentId="8_{6716760C-A5C1-4437-961B-D6AD7649868D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{415F881F-E4C6-4021-A285-25A2EDAB793C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA614B85-D0ED-4F4A-99D3-1496FFAFDBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Start Time:</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>Refactored the view panels to not be bad. Now the editor development can really start. I also sketched out what the pages might look like</t>
+  </si>
+  <si>
+    <t>It's weird to think this is a shared document. Not through excel, but github lol</t>
+  </si>
+  <si>
+    <t>Finished up the view panels, started on the sidebar, started laying out the editor page</t>
+  </si>
+  <si>
+    <t>Next items on the horizon are: file heirarchy viewer, theme switcher, settings, terminal, top bar, moving most state into a context, as well as starting on a lot of backend type shit</t>
   </si>
 </sst>
 </file>
@@ -927,10 +936,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1235,25 +1240,25 @@
   </sheetPr>
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="16" customWidth="1"/>
     <col min="4" max="4" width="10" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="17" customWidth="1"/>
     <col min="6" max="6" width="20" style="15" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:31" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1272,7 @@
       <c r="H1" s="22"/>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2"/>
@@ -1288,7 +1293,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -1379,7 +1384,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="26">
         <v>45201</v>
@@ -1442,7 +1447,7 @@
       </c>
       <c r="T4" s="35" t="str">
         <f t="shared" ref="T4:X4" si="1">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, T$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>02 hours 15 minutes</v>
+        <v>04 hours 23 minutes</v>
       </c>
       <c r="U4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -1489,7 +1494,7 @@
         <v>00 hours 00 minutes</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="27">
         <v>45202</v>
@@ -1601,7 +1606,7 @@
         <v>5 hours 0 minutes</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="27">
         <v>45203</v>
@@ -1692,7 +1697,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="27">
         <v>45204</v>
@@ -1759,54 +1764,54 @@
       </c>
       <c r="T7" s="37" t="str" cm="1">
         <f t="array" ref="T7">INT((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
+        <v>36 hours 33 minutes</v>
       </c>
       <c r="U7" s="37" t="str" cm="1">
         <f t="array" ref="U7">INT((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
+        <v>36 hours 33 minutes</v>
       </c>
       <c r="V7" s="49" t="str" cm="1">
         <f t="array" ref="V7">INT((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
+        <v>36 hours 33 minutes</v>
       </c>
       <c r="W7" s="50" t="str" cm="1">
         <f t="array" ref="W7">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
+        <v>36 hours 33 minutes</v>
       </c>
       <c r="X7" s="51" t="str" cm="1">
         <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
+        <v>36 hours 33 minutes</v>
       </c>
       <c r="Y7" s="48" t="str" cm="1">
         <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
+        <v>36 hours 33 minutes</v>
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
+        <v>36 hours 33 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
+        <v>36 hours 33 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
+        <v>36 hours 33 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
+        <v>36 hours 33 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
+        <v>36 hours 33 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>34 hours 25 minutes</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" s="39" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>36 hours 33 minutes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="27">
         <v>45205</v>
@@ -1899,7 +1904,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>45206</v>
       </c>
@@ -1924,7 +1929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>45206</v>
       </c>
@@ -1949,7 +1954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>45207</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>45207</v>
       </c>
@@ -1999,7 +2004,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>45208</v>
       </c>
@@ -2024,7 +2029,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>45208</v>
       </c>
@@ -2049,7 +2054,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" ht="120" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>45209</v>
       </c>
@@ -2074,7 +2079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -2096,7 +2101,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <v>45210</v>
       </c>
@@ -2117,18 +2122,36 @@
       <c r="G17" s="21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="E18" s="17" t="str">
+      <c r="J17" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B18" s="27">
+        <v>45210</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.86458333333333337</v>
+      </c>
+      <c r="E18" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>8.8888888888888906E-2</v>
       </c>
       <c r="F18" s="15" t="str">
         <f>IF(E18="","",_xlfn.CONCAT(HOUR(SUM($E$4:E18))," hours ",MINUTE(SUM($E$4:E18))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+        <v>12 hours 33 minutes</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E19" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2138,7 +2161,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E20" s="17" t="str">
         <f>IF(OR(C20=0, D20=0),"", D20-C20)</f>
         <v/>
@@ -2148,7 +2171,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E21" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2158,7 +2181,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E22" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2168,7 +2191,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E23" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2178,7 +2201,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E24" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2188,7 +2211,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E25" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2198,7 +2221,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E26" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2208,7 +2231,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E27" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2218,7 +2241,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E28" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2228,7 +2251,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2238,7 +2261,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E30" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA614B85-D0ED-4F4A-99D3-1496FFAFDBA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8047A6AF-AF90-44E5-9AA5-3D31BFFA654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="66">
   <si>
     <t>Start Time:</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Next items on the horizon are: file heirarchy viewer, theme switcher, settings, terminal, top bar, moving most state into a context, as well as starting on a lot of backend type shit</t>
+  </si>
+  <si>
+    <t>Moved a lot of state to an editor context (I think all?), I also made a loading display for the react preview, and I moved the editor to /editor instead of /demo</t>
+  </si>
+  <si>
+    <t>Next is changing the react preview to mount a basic create-react-app file template instead of npm i. Along with that I should figure out how to use pnpm instead of npm</t>
   </si>
 </sst>
 </file>
@@ -1241,24 +1247,24 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="16" customWidth="1"/>
     <col min="4" max="4" width="10" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.453125" style="17" customWidth="1"/>
     <col min="6" max="6" width="20" style="15" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="37.81640625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.81640625" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" ht="36" x14ac:dyDescent="0.8">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1278,7 @@
       <c r="H1" s="22"/>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2"/>
@@ -1293,7 +1299,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" s="31" customFormat="1" ht="26" x14ac:dyDescent="0.35">
       <c r="A3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -1384,7 +1390,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4"/>
       <c r="B4" s="26">
         <v>45201</v>
@@ -1451,7 +1457,7 @@
       </c>
       <c r="U4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>01 hours 50 minutes</v>
       </c>
       <c r="V4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -1494,7 +1500,7 @@
         <v>00 hours 00 minutes</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" s="37" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5" s="27">
         <v>45202</v>
@@ -1563,7 +1569,7 @@
       </c>
       <c r="U5" s="37" t="str">
         <f t="shared" ref="U5:V5" si="5">IF(INT(LEFT(U$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
+        <v>0 hours 9.99999999999999 minutes</v>
       </c>
       <c r="V5" s="37" t="str">
         <f t="shared" si="5"/>
@@ -1606,7 +1612,7 @@
         <v>5 hours 0 minutes</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="37" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="27">
         <v>45203</v>
@@ -1697,7 +1703,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="27">
         <v>45204</v>
@@ -1768,50 +1774,50 @@
       </c>
       <c r="U7" s="37" t="str" cm="1">
         <f t="array" ref="U7">INT((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
+        <v>38 hours 23 minutes</v>
       </c>
       <c r="V7" s="49" t="str" cm="1">
         <f t="array" ref="V7">INT((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
+        <v>38 hours 23 minutes</v>
       </c>
       <c r="W7" s="50" t="str" cm="1">
         <f t="array" ref="W7">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
+        <v>38 hours 23 minutes</v>
       </c>
       <c r="X7" s="51" t="str" cm="1">
         <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
+        <v>38 hours 23 minutes</v>
       </c>
       <c r="Y7" s="48" t="str" cm="1">
         <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
+        <v>38 hours 23 minutes</v>
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
+        <v>38 hours 23 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
+        <v>38 hours 23 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
+        <v>38 hours 23 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
+        <v>38 hours 23 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
+        <v>38 hours 23 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>38 hours 23 minutes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="39" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="27">
         <v>45205</v>
@@ -1904,7 +1910,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="58" x14ac:dyDescent="0.35">
       <c r="B9" s="27">
         <v>45206</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="27">
         <v>45206</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B11" s="27">
         <v>45207</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" ht="58" x14ac:dyDescent="0.35">
       <c r="B12" s="27">
         <v>45207</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="B13" s="27">
         <v>45208</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" ht="87" x14ac:dyDescent="0.35">
       <c r="B14" s="27">
         <v>45208</v>
       </c>
@@ -2054,7 +2060,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B15" s="27">
         <v>45209</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="87" x14ac:dyDescent="0.35">
       <c r="B17" s="27">
         <v>45210</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B18" s="27">
         <v>45210</v>
       </c>
@@ -2151,17 +2157,32 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E19" s="17" t="str">
+    <row r="19" spans="2:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="27">
+        <v>45211</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E19" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>7.6388888888888784E-2</v>
       </c>
       <c r="F19" s="15" t="str">
         <f>IF(E19="","",_xlfn.CONCAT(HOUR(SUM($E$4:E19))," hours ",MINUTE(SUM($E$4:E19))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+        <v>14 hours 23 minutes</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E20" s="17" t="str">
         <f>IF(OR(C20=0, D20=0),"", D20-C20)</f>
         <v/>
@@ -2171,7 +2192,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E21" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2181,7 +2202,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E22" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2191,7 +2212,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E23" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2201,7 +2222,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E24" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2211,7 +2232,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E25" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2221,7 +2242,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E26" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2231,7 +2252,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E27" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2241,7 +2262,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E28" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2251,7 +2272,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E29" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2261,7 +2282,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E30" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8047A6AF-AF90-44E5-9AA5-3D31BFFA654D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BBFE1E-E491-4708-99A9-240E4C511940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
   <si>
     <t>Start Time:</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>Next is changing the react preview to mount a basic create-react-app file template instead of npm i. Along with that I should figure out how to use pnpm instead of npm</t>
+  </si>
+  <si>
+    <t>I got the web containers mounting a react template that is stored as json instead of using npx create-react-app. I don't know if it's faster, but it is more controllable.</t>
+  </si>
+  <si>
+    <t>Next task is the file heirarchy viewer/selector. First view, then select opens it on the code editor</t>
   </si>
 </sst>
 </file>
@@ -1247,24 +1253,24 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="16" customWidth="1"/>
     <col min="4" max="4" width="10" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="17" customWidth="1"/>
     <col min="6" max="6" width="20" style="15" customWidth="1"/>
-    <col min="7" max="7" width="37.81640625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="35.81640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="36" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:31" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1284,7 @@
       <c r="H1" s="22"/>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2"/>
@@ -1299,7 +1305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="31" customFormat="1" ht="26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:31" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -1390,7 +1396,7 @@
         <v>45221</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="26">
         <v>45201</v>
@@ -1457,7 +1463,7 @@
       </c>
       <c r="U4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>01 hours 50 minutes</v>
+        <v>03 hours 35 minutes</v>
       </c>
       <c r="V4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -1500,7 +1506,7 @@
         <v>00 hours 00 minutes</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="37" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:31" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="27">
         <v>45202</v>
@@ -1569,7 +1575,7 @@
       </c>
       <c r="U5" s="37" t="str">
         <f t="shared" ref="U5:V5" si="5">IF(INT(LEFT(U$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>0 hours 9.99999999999999 minutes</v>
+        <v>Goal Met!</v>
       </c>
       <c r="V5" s="37" t="str">
         <f t="shared" si="5"/>
@@ -1612,7 +1618,7 @@
         <v>5 hours 0 minutes</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="37" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:31" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="27">
         <v>45203</v>
@@ -1703,7 +1709,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="27">
         <v>45204</v>
@@ -1774,50 +1780,50 @@
       </c>
       <c r="U7" s="37" t="str" cm="1">
         <f t="array" ref="U7">INT((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>38 hours 23 minutes</v>
+        <v>40 hours 8 minutes</v>
       </c>
       <c r="V7" s="49" t="str" cm="1">
         <f t="array" ref="V7">INT((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>38 hours 23 minutes</v>
+        <v>40 hours 8 minutes</v>
       </c>
       <c r="W7" s="50" t="str" cm="1">
         <f t="array" ref="W7">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>38 hours 23 minutes</v>
+        <v>40 hours 8 minutes</v>
       </c>
       <c r="X7" s="51" t="str" cm="1">
         <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>38 hours 23 minutes</v>
+        <v>40 hours 8 minutes</v>
       </c>
       <c r="Y7" s="48" t="str" cm="1">
         <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>38 hours 23 minutes</v>
+        <v>40 hours 8 minutes</v>
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>38 hours 23 minutes</v>
+        <v>40 hours 8 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>38 hours 23 minutes</v>
+        <v>40 hours 8 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>38 hours 23 minutes</v>
+        <v>40 hours 8 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>38 hours 23 minutes</v>
+        <v>40 hours 8 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>38 hours 23 minutes</v>
+        <v>40 hours 8 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>38 hours 23 minutes</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" s="39" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+        <v>40 hours 8 minutes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="27">
         <v>45205</v>
@@ -1910,7 +1916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="58" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>45206</v>
       </c>
@@ -1935,7 +1941,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>45206</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:31" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>45207</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="58" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:31" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>45207</v>
       </c>
@@ -2010,7 +2016,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>45208</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="87" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:31" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>45208</v>
       </c>
@@ -2060,7 +2066,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:31" ht="120" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>45209</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -2107,7 +2113,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="87" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <v>45210</v>
       </c>
@@ -2132,7 +2138,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <v>45210</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>45211</v>
       </c>
@@ -2182,17 +2188,32 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E20" s="17" t="str">
+    <row r="20" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B20" s="27">
+        <v>45211</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E20" s="17">
         <f>IF(OR(C20=0, D20=0),"", D20-C20)</f>
-        <v/>
+        <v>7.2916666666666741E-2</v>
       </c>
       <c r="F20" s="15" t="str">
         <f>IF(E20="","",_xlfn.CONCAT(HOUR(SUM($E$4:E20))," hours ",MINUTE(SUM($E$4:E20))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+        <v>16 hours 8 minutes</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E21" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2202,7 +2223,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E22" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2212,7 +2233,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E23" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2222,7 +2243,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E24" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2232,7 +2253,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E25" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2242,7 +2263,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E26" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2252,7 +2273,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E27" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2262,7 +2283,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E28" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2272,7 +2293,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2282,7 +2303,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E30" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BBFE1E-E491-4708-99A9-240E4C511940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1725381C-454D-4F6C-9039-009BEB39DEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>Start Time:</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Next task is the file heirarchy viewer/selector. First view, then select opens it on the code editor</t>
+  </si>
+  <si>
+    <t>Got live editing working instead of doing what I said I needed to do next! Also did some theme tweaking</t>
   </si>
 </sst>
 </file>
@@ -1252,8 +1255,8 @@
   </sheetPr>
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1470,7 @@
       </c>
       <c r="V4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 40 minutes</v>
       </c>
       <c r="W4" s="40" t="str">
         <f t="shared" si="1"/>
@@ -1579,7 +1582,7 @@
       </c>
       <c r="V5" s="37" t="str">
         <f t="shared" si="5"/>
-        <v>2 hours 0 minutes</v>
+        <v>Goal Met!</v>
       </c>
       <c r="W5" s="46" t="str">
         <f>IF(INT(LEFT(W$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(W$6,1)-SUM(LEFT(W$4, 2), (MID(W4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(W$6,1)-SUM(LEFT(W$4, 2), (MID(W4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
@@ -1784,43 +1787,43 @@
       </c>
       <c r="V7" s="49" t="str" cm="1">
         <f t="array" ref="V7">INT((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>40 hours 8 minutes</v>
+        <v>42 hours 48 minutes</v>
       </c>
       <c r="W7" s="50" t="str" cm="1">
         <f t="array" ref="W7">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>40 hours 8 minutes</v>
+        <v>42 hours 48 minutes</v>
       </c>
       <c r="X7" s="51" t="str" cm="1">
         <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>40 hours 8 minutes</v>
+        <v>42 hours 48 minutes</v>
       </c>
       <c r="Y7" s="48" t="str" cm="1">
         <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>40 hours 8 minutes</v>
+        <v>42 hours 48 minutes</v>
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>40 hours 8 minutes</v>
+        <v>42 hours 48 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>40 hours 8 minutes</v>
+        <v>42 hours 48 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>40 hours 8 minutes</v>
+        <v>42 hours 48 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>40 hours 8 minutes</v>
+        <v>42 hours 48 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>40 hours 8 minutes</v>
+        <v>42 hours 48 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>40 hours 8 minutes</v>
+        <v>42 hours 48 minutes</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2213,14 +2216,26 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="17" t="str">
+    <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="27">
+        <v>45212</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.56597222222222221</v>
+      </c>
+      <c r="E21" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0.1111111111111111</v>
       </c>
       <c r="F21" s="15" t="str">
         <f>IF(E21="","",_xlfn.CONCAT(HOUR(SUM($E$4:E21))," hours ",MINUTE(SUM($E$4:E21))," minutes"))</f>
-        <v/>
+        <v>18 hours 48 minutes</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1725381C-454D-4F6C-9039-009BEB39DEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168EF22-BEF8-47B0-9D2B-10E048E22738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>Start Time:</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>Got live editing working instead of doing what I said I needed to do next! Also did some theme tweaking</t>
+  </si>
+  <si>
+    <t>Got a lot of progress done on the file viewer/selector</t>
+  </si>
+  <si>
+    <t>Next is making it actually open a file, also the terminal</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1262,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1476,7 @@
       </c>
       <c r="V4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>02 hours 40 minutes</v>
+        <v>04 hours 35 minutes</v>
       </c>
       <c r="W4" s="40" t="str">
         <f t="shared" si="1"/>
@@ -1787,43 +1793,43 @@
       </c>
       <c r="V7" s="49" t="str" cm="1">
         <f t="array" ref="V7">INT((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>42 hours 48 minutes</v>
+        <v>44 hours 43 minutes</v>
       </c>
       <c r="W7" s="50" t="str" cm="1">
         <f t="array" ref="W7">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>42 hours 48 minutes</v>
+        <v>44 hours 43 minutes</v>
       </c>
       <c r="X7" s="51" t="str" cm="1">
         <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>42 hours 48 minutes</v>
+        <v>44 hours 43 minutes</v>
       </c>
       <c r="Y7" s="48" t="str" cm="1">
         <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>42 hours 48 minutes</v>
+        <v>44 hours 43 minutes</v>
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>42 hours 48 minutes</v>
+        <v>44 hours 43 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>42 hours 48 minutes</v>
+        <v>44 hours 43 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>42 hours 48 minutes</v>
+        <v>44 hours 43 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>42 hours 48 minutes</v>
+        <v>44 hours 43 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>42 hours 48 minutes</v>
+        <v>44 hours 43 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>42 hours 48 minutes</v>
+        <v>44 hours 43 minutes</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2238,14 +2244,29 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E22" s="17" t="str">
+    <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="27">
+        <v>45212</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="E22" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>7.986111111111116E-2</v>
       </c>
       <c r="F22" s="15" t="str">
         <f>IF(E22="","",_xlfn.CONCAT(HOUR(SUM($E$4:E22))," hours ",MINUTE(SUM($E$4:E22))," minutes"))</f>
-        <v/>
+        <v>20 hours 43 minutes</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168EF22-BEF8-47B0-9D2B-10E048E22738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69931AF9-738F-46A5-B063-780B48CC44FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="73">
   <si>
     <t>Start Time:</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>Next is making it actually open a file, also the terminal</t>
+  </si>
+  <si>
+    <t>Got the file explorer opening files! I also got it so files generated by npm i are shown to the user. Also you can select a specific file using tabs in the code editor</t>
+  </si>
+  <si>
+    <t>Next up is the terminal. Also I need to deal with technical debt soon if not now</t>
   </si>
 </sst>
 </file>
@@ -1261,8 +1267,8 @@
   </sheetPr>
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,7 +1486,7 @@
       </c>
       <c r="W4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>07 hours 00 minutes</v>
       </c>
       <c r="X4" s="42" t="str">
         <f t="shared" si="1"/>
@@ -1592,7 +1598,7 @@
       </c>
       <c r="W5" s="46" t="str">
         <f>IF(INT(LEFT(W$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(W$6,1)-SUM(LEFT(W$4, 2), (MID(W4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(W$6,1)-SUM(LEFT(W$4, 2), (MID(W4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>5 hours 0 minutes</v>
+        <v>Goal Met!</v>
       </c>
       <c r="X5" s="47" t="str">
         <f>IF(INT(LEFT(X$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(X$6,1)-SUM(LEFT(X$4, 2), (MID(X4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(X$6,1)-SUM(LEFT(X$4, 2), (MID(X4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
@@ -1797,39 +1803,39 @@
       </c>
       <c r="W7" s="50" t="str" cm="1">
         <f t="array" ref="W7">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>44 hours 43 minutes</v>
+        <v>51 hours 43 minutes</v>
       </c>
       <c r="X7" s="51" t="str" cm="1">
         <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>44 hours 43 minutes</v>
+        <v>51 hours 43 minutes</v>
       </c>
       <c r="Y7" s="48" t="str" cm="1">
         <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>44 hours 43 minutes</v>
+        <v>51 hours 43 minutes</v>
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>44 hours 43 minutes</v>
+        <v>51 hours 43 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>44 hours 43 minutes</v>
+        <v>51 hours 43 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>44 hours 43 minutes</v>
+        <v>51 hours 43 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>44 hours 43 minutes</v>
+        <v>51 hours 43 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>44 hours 43 minutes</v>
+        <v>51 hours 43 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>44 hours 43 minutes</v>
+        <v>51 hours 43 minutes</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2269,14 +2275,29 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E23" s="17" t="str">
+    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B23" s="27">
+        <v>45213</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.53125</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="E23" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0.29166666666666663</v>
       </c>
       <c r="F23" s="15" t="str">
         <f>IF(E23="","",_xlfn.CONCAT(HOUR(SUM($E$4:E23))," hours ",MINUTE(SUM($E$4:E23))," minutes"))</f>
-        <v/>
+        <v>3 hours 43 minutes</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69931AF9-738F-46A5-B063-780B48CC44FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB66FFE-E781-437F-B6FD-4BD1A29620C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
   <si>
     <t>Start Time:</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Next up is the terminal. Also I need to deal with technical debt soon if not now</t>
+  </si>
+  <si>
+    <t>Got the terminal working! It shows dependencies getting downloaded, then becomes available to the user! The fileviewer doesn't automatically update, but it does have a refresh button</t>
+  </si>
+  <si>
+    <t>Auto fileviewer refresh is on the horizon, but not something I want to immediately tackle. Next will be fixing technical debt</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1274,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1490,7 +1496,7 @@
       </c>
       <c r="X4" s="42" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>03 hours 25 minutes</v>
       </c>
       <c r="Y4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, Y$3), "hh ""hours ""mm ""minutes""")</f>
@@ -1602,7 +1608,7 @@
       </c>
       <c r="X5" s="47" t="str">
         <f>IF(INT(LEFT(X$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(X$6,1)-SUM(LEFT(X$4, 2), (MID(X4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(X$6,1)-SUM(LEFT(X$4, 2), (MID(X4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>5 hours 0 minutes</v>
+        <v>2 hours 35 minutes</v>
       </c>
       <c r="Y5" s="45" t="str">
         <f>IF(INT(LEFT(Y$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(Y$6,1)-SUM(LEFT(Y$4, 2), (MID(Y4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Y$6,1)-SUM(LEFT(Y$4, 2), (MID(Y4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
@@ -1807,35 +1813,35 @@
       </c>
       <c r="X7" s="51" t="str" cm="1">
         <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>51 hours 43 minutes</v>
+        <v>55 hours 8 minutes</v>
       </c>
       <c r="Y7" s="48" t="str" cm="1">
         <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>51 hours 43 minutes</v>
+        <v>55 hours 8 minutes</v>
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>51 hours 43 minutes</v>
+        <v>55 hours 8 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>51 hours 43 minutes</v>
+        <v>55 hours 8 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>51 hours 43 minutes</v>
+        <v>55 hours 8 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>51 hours 43 minutes</v>
+        <v>55 hours 8 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>51 hours 43 minutes</v>
+        <v>55 hours 8 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>51 hours 43 minutes</v>
+        <v>55 hours 8 minutes</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2300,14 +2306,29 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E24" s="17" t="str">
+    <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="B24" s="27">
+        <v>45214</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D24" s="12">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E24" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0.14236111111111105</v>
       </c>
       <c r="F24" s="15" t="str">
         <f>IF(E24="","",_xlfn.CONCAT(HOUR(SUM($E$4:E24))," hours ",MINUTE(SUM($E$4:E24))," minutes"))</f>
-        <v/>
+        <v>7 hours 8 minutes</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB66FFE-E781-437F-B6FD-4BD1A29620C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB0B762-6183-44C6-A92C-943B1E59694D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>Start Time:</t>
   </si>
@@ -204,9 +204,6 @@
     <t>42 hours</t>
   </si>
   <si>
-    <t>44 hours</t>
-  </si>
-  <si>
     <t>46 hours</t>
   </si>
   <si>
@@ -225,9 +222,6 @@
     <t>Week 3</t>
   </si>
   <si>
-    <t>55 hours</t>
-  </si>
-  <si>
     <t>60 hours</t>
   </si>
   <si>
@@ -283,6 +277,15 @@
   </si>
   <si>
     <t>Auto fileviewer refresh is on the horizon, but not something I want to immediately tackle. Next will be fixing technical debt</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>53 hours</t>
+  </si>
+  <si>
+    <t>58 hours</t>
   </si>
 </sst>
 </file>
@@ -1273,8 +1276,8 @@
   </sheetPr>
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,13 +1320,13 @@
       <c r="H2" s="22"/>
       <c r="J2" s="29"/>
       <c r="K2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" t="s">
         <v>52</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Y2" t="s">
         <v>53</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:31" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1616,7 +1619,7 @@
       </c>
       <c r="Z5" s="37" t="str">
         <f>IF(INT(LEFT(Z$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(Z$6,1)-SUM(LEFT(Z$4, 2), (MID(Z4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Z$6,1)-SUM(LEFT(Z$4, 2), (MID(Z4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
+        <v>4 hours 0 minutes</v>
       </c>
       <c r="AA5" s="43" t="str">
         <f>IF(INT(LEFT(AA$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AA$6,1)-SUM(LEFT(AA$4, 2), (MID(AA4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AA$6,1)-SUM(LEFT(AA$4, 2), (MID(AA4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
@@ -1628,7 +1631,7 @@
       </c>
       <c r="AC5" s="37" t="str">
         <f t="shared" si="6"/>
-        <v>2 hours 0 minutes</v>
+        <v>3 hours 0 minutes</v>
       </c>
       <c r="AD5" s="46" t="str">
         <f>IF(INT(LEFT(AD$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AD$6,1)-SUM(LEFT(AD$4, 2), (MID(AD4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AD$6,1)-SUM(LEFT(AD$4, 2), (MID(AD4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
@@ -1636,7 +1639,7 @@
       </c>
       <c r="AE5" s="47" t="str">
         <f>IF(INT(LEFT(AE$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AE$6,1)-SUM(LEFT(AE$4, 2), (MID(AE4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AE$6,1)-SUM(LEFT(AE$4, 2), (MID(AE4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>5 hours 0 minutes</v>
+        <v>2 hours 0 minutes</v>
       </c>
     </row>
     <row r="6" spans="1:31" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -1712,7 +1715,7 @@
         <v>17</v>
       </c>
       <c r="Z6" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AA6" s="37" t="s">
         <v>17</v>
@@ -1721,13 +1724,13 @@
         <v>17</v>
       </c>
       <c r="AC6" s="37" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="AD6" s="46" t="s">
         <v>19</v>
       </c>
       <c r="AE6" s="47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1928,13 +1931,13 @@
         <v>50</v>
       </c>
       <c r="AC8" s="39" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="AD8" s="50" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AE8" s="51" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="60" x14ac:dyDescent="0.25">
@@ -2106,10 +2109,10 @@
         <v>5 hours 35 minutes</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H15" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="30" x14ac:dyDescent="0.25">
@@ -2131,7 +2134,7 @@
         <v>8 hours 10 minutes</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="90" x14ac:dyDescent="0.25">
@@ -2153,10 +2156,10 @@
         <v>10 hours 25 minutes</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J17" s="53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -2178,10 +2181,10 @@
         <v>12 hours 33 minutes</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H18" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -2203,10 +2206,10 @@
         <v>14 hours 23 minutes</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -2228,10 +2231,10 @@
         <v>16 hours 8 minutes</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H20" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -2253,7 +2256,7 @@
         <v>18 hours 48 minutes</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -2275,10 +2278,10 @@
         <v>20 hours 43 minutes</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
@@ -2300,10 +2303,10 @@
         <v>3 hours 43 minutes</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H23" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -2325,13 +2328,19 @@
         <v>7 hours 8 minutes</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H24" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="27">
+        <v>45215</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.80555555555555547</v>
+      </c>
       <c r="E25" s="17" t="str">
         <f t="shared" si="7"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB0B762-6183-44C6-A92C-943B1E59694D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6C57D2-E8C2-409B-BB74-4E3CA1FE0A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
   <si>
     <t>Start Time:</t>
   </si>
@@ -286,6 +286,12 @@
   </si>
   <si>
     <t>58 hours</t>
+  </si>
+  <si>
+    <t>I think the next thing on the quest to refactor is addressing all clouds/thought bubbles 💭</t>
+  </si>
+  <si>
+    <t>Refactored the state of the application to be less of a massive headache. Implemented custom hooks to grab select groups of values from the context. I also moved fragile code to a context.</t>
   </si>
 </sst>
 </file>
@@ -1276,8 +1282,8 @@
   </sheetPr>
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1509,7 @@
       </c>
       <c r="Y4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, Y$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>00 hours 00 minutes</v>
+        <v>03 hours 50 minutes</v>
       </c>
       <c r="Z4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, Z$3), "hh ""hours ""mm ""minutes""")</f>
@@ -1615,7 +1621,7 @@
       </c>
       <c r="Y5" s="45" t="str">
         <f>IF(INT(LEFT(Y$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(Y$6,1)-SUM(LEFT(Y$4, 2), (MID(Y4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Y$6,1)-SUM(LEFT(Y$4, 2), (MID(Y4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
+        <v>Goal Met!</v>
       </c>
       <c r="Z5" s="37" t="str">
         <f>IF(INT(LEFT(Z$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(Z$6,1)-SUM(LEFT(Z$4, 2), (MID(Z4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Z$6,1)-SUM(LEFT(Z$4, 2), (MID(Z4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
@@ -1820,31 +1826,31 @@
       </c>
       <c r="Y7" s="48" t="str" cm="1">
         <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>55 hours 8 minutes</v>
+        <v>58 hours 58 minutes</v>
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>55 hours 8 minutes</v>
+        <v>58 hours 58 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>55 hours 8 minutes</v>
+        <v>58 hours 58 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>55 hours 8 minutes</v>
+        <v>58 hours 58 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>55 hours 8 minutes</v>
+        <v>58 hours 58 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>55 hours 8 minutes</v>
+        <v>58 hours 58 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>55 hours 8 minutes</v>
+        <v>58 hours 58 minutes</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2334,20 +2340,29 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <v>45215</v>
       </c>
       <c r="C25" s="16">
         <v>0.80555555555555547</v>
       </c>
-      <c r="E25" s="17" t="str">
+      <c r="D25" s="12">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="E25" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>0.15972222222222232</v>
       </c>
       <c r="F25" s="15" t="str">
         <f>IF(E25="","",_xlfn.CONCAT(HOUR(SUM($E$4:E25))," hours ",MINUTE(SUM($E$4:E25))," minutes"))</f>
-        <v/>
+        <v>10 hours 58 minutes</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6C57D2-E8C2-409B-BB74-4E3CA1FE0A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A3AC0-6E23-4803-AC21-1E33F40D058C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="82">
   <si>
     <t>Start Time:</t>
   </si>
@@ -292,6 +292,18 @@
   </si>
   <si>
     <t>Refactored the state of the application to be less of a massive headache. Implemented custom hooks to grab select groups of values from the context. I also moved fragile code to a context.</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Addressed many 💭 comments and general polish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So much polish, I seperated a bunch of inline styles into variables outside the return statement, I did the same thing with a bunch of inline methods as well. I also created a few stories. </t>
+  </si>
+  <si>
+    <t>I think the next big task is setting up the database to store projects and profiles, The next little thing is the "diff" button and more AI features. I think the plan is diff button, big DB stuff, then back to AI features like refactor</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1294,8 @@
   </sheetPr>
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,7 +1525,7 @@
       </c>
       <c r="Z4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, Z$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>00 hours 00 minutes</v>
+        <v>04 hours 05 minutes</v>
       </c>
       <c r="AA4" s="35" t="str">
         <f t="shared" ref="AA4:AE4" si="2">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AA$3), "hh ""hours ""mm ""minutes""")</f>
@@ -1625,7 +1637,7 @@
       </c>
       <c r="Z5" s="37" t="str">
         <f>IF(INT(LEFT(Z$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(Z$6,1)-SUM(LEFT(Z$4, 2), (MID(Z4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Z$6,1)-SUM(LEFT(Z$4, 2), (MID(Z4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>4 hours 0 minutes</v>
+        <v>Goal Met!</v>
       </c>
       <c r="AA5" s="43" t="str">
         <f>IF(INT(LEFT(AA$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AA$6,1)-SUM(LEFT(AA$4, 2), (MID(AA4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AA$6,1)-SUM(LEFT(AA$4, 2), (MID(AA4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
@@ -1764,7 +1776,9 @@
       <c r="H7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I7"/>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
       <c r="J7" s="34" t="s">
         <v>3</v>
       </c>
@@ -1830,27 +1844,27 @@
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>58 hours 58 minutes</v>
+        <v>63 hours 3 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>58 hours 58 minutes</v>
+        <v>63 hours 3 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>58 hours 58 minutes</v>
+        <v>63 hours 3 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>58 hours 58 minutes</v>
+        <v>63 hours 3 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>58 hours 58 minutes</v>
+        <v>63 hours 3 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>58 hours 58 minutes</v>
+        <v>63 hours 3 minutes</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1878,7 +1892,9 @@
       <c r="H8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="I8"/>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
       <c r="J8" s="54" t="s">
         <v>16</v>
       </c>
@@ -1970,6 +1986,9 @@
       <c r="H9" s="25" t="s">
         <v>29</v>
       </c>
+      <c r="I9" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
@@ -1995,6 +2014,9 @@
       <c r="H10" s="25" t="s">
         <v>31</v>
       </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:31" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
@@ -2340,7 +2362,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <v>45215</v>
       </c>
@@ -2365,24 +2387,51 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E26" s="17" t="str">
+    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="27">
+        <v>45216</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0.46875</v>
+      </c>
+      <c r="D26" s="12">
+        <v>0.55902777777777779</v>
+      </c>
+      <c r="E26" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>9.027777777777779E-2</v>
       </c>
       <c r="F26" s="15" t="str">
         <f>IF(E26="","",_xlfn.CONCAT(HOUR(SUM($E$4:E26))," hours ",MINUTE(SUM($E$4:E26))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E27" s="17" t="str">
+        <v>13 hours 8 minutes</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="B27" s="27">
+        <v>45216</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.57986111111111105</v>
+      </c>
+      <c r="D27" s="12">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="E27" s="17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>7.986111111111116E-2</v>
       </c>
       <c r="F27" s="15" t="str">
         <f>IF(E27="","",_xlfn.CONCAT(HOUR(SUM($E$4:E27))," hours ",MINUTE(SUM($E$4:E27))," minutes"))</f>
-        <v/>
+        <v>15 hours 3 minutes</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" s="25" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12A3AC0-6E23-4803-AC21-1E33F40D058C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E616D-16BC-4D8A-992C-D2FA2659AE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
   <si>
     <t>Start Time:</t>
   </si>
@@ -304,6 +304,45 @@
   </si>
   <si>
     <t>I think the next big task is setting up the database to store projects and profiles, The next little thing is the "diff" button and more AI features. I think the plan is diff button, big DB stuff, then back to AI features like refactor</t>
+  </si>
+  <si>
+    <t>62 hours</t>
+  </si>
+  <si>
+    <t>66 hours</t>
+  </si>
+  <si>
+    <t>68 hours</t>
+  </si>
+  <si>
+    <t>70 hours</t>
+  </si>
+  <si>
+    <t>73 hours</t>
+  </si>
+  <si>
+    <t>78 hours</t>
+  </si>
+  <si>
+    <t>80 hours</t>
+  </si>
+  <si>
+    <t>Need to do backend stuff</t>
+  </si>
+  <si>
+    <t>Need to do auto refresh</t>
+  </si>
+  <si>
+    <t>Addressed many</t>
+  </si>
+  <si>
+    <t>https://next-auth.js.org/configuration/providers/oauth</t>
+  </si>
+  <si>
+    <t>Got Oauth started</t>
+  </si>
+  <si>
+    <t>Next session it's time to make the database side of accounts, this include credential sign ins and connecting Oauth accounts</t>
   </si>
 </sst>
 </file>
@@ -874,7 +913,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -964,6 +1003,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1292,10 +1334,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AE30"/>
+  <dimension ref="A1:EU30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1354,7 @@
     <col min="10" max="10" width="14.5703125" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:151" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1368,7 @@
       <c r="H1" s="22"/>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2"/>
@@ -1347,7 +1389,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:151" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -1437,8 +1479,170 @@
       <c r="AE3" s="41">
         <v>45221</v>
       </c>
+      <c r="AF3" s="31">
+        <v>45222</v>
+      </c>
+      <c r="AG3" s="31">
+        <v>45223</v>
+      </c>
+      <c r="AH3" s="31">
+        <v>45224</v>
+      </c>
+      <c r="AI3" s="31">
+        <v>45225</v>
+      </c>
+      <c r="AJ3" s="31">
+        <v>45226</v>
+      </c>
+      <c r="AK3" s="41">
+        <v>45227</v>
+      </c>
+      <c r="AL3" s="41">
+        <v>45228</v>
+      </c>
+      <c r="AM3" s="31">
+        <v>45229</v>
+      </c>
+      <c r="AN3" s="31">
+        <v>45230</v>
+      </c>
+      <c r="AO3" s="31">
+        <v>45231</v>
+      </c>
+      <c r="AP3" s="31">
+        <v>45232</v>
+      </c>
+      <c r="AQ3" s="31">
+        <v>45233</v>
+      </c>
+      <c r="AR3" s="41">
+        <v>45234</v>
+      </c>
+      <c r="AS3" s="41">
+        <v>45235</v>
+      </c>
+      <c r="AT3" s="31">
+        <v>45236</v>
+      </c>
+      <c r="AU3" s="31">
+        <v>45237</v>
+      </c>
+      <c r="AV3" s="31">
+        <v>45238</v>
+      </c>
+      <c r="AW3" s="31">
+        <v>45239</v>
+      </c>
+      <c r="AX3" s="31">
+        <v>45240</v>
+      </c>
+      <c r="AY3" s="41">
+        <v>45241</v>
+      </c>
+      <c r="AZ3" s="41">
+        <v>45242</v>
+      </c>
+      <c r="BA3" s="31">
+        <v>45243</v>
+      </c>
+      <c r="BB3" s="31">
+        <v>45244</v>
+      </c>
+      <c r="BC3" s="31">
+        <v>45245</v>
+      </c>
+      <c r="BD3" s="31">
+        <v>45246</v>
+      </c>
+      <c r="BE3" s="31">
+        <v>45247</v>
+      </c>
+      <c r="BF3" s="41">
+        <v>45248</v>
+      </c>
+      <c r="BG3" s="41">
+        <v>45249</v>
+      </c>
+      <c r="BH3" s="31">
+        <v>45250</v>
+      </c>
+      <c r="BI3" s="31">
+        <v>45251</v>
+      </c>
+      <c r="BJ3" s="31">
+        <v>45252</v>
+      </c>
+      <c r="BK3" s="31">
+        <v>45253</v>
+      </c>
+      <c r="BL3" s="31">
+        <v>45254</v>
+      </c>
+      <c r="BM3" s="41">
+        <v>45255</v>
+      </c>
+      <c r="BN3" s="41">
+        <v>45256</v>
+      </c>
+      <c r="BO3" s="31">
+        <v>45257</v>
+      </c>
+      <c r="BP3" s="31">
+        <v>45258</v>
+      </c>
+      <c r="BQ3" s="31">
+        <v>45259</v>
+      </c>
+      <c r="BR3" s="31">
+        <v>45260</v>
+      </c>
+      <c r="BS3" s="31">
+        <v>45261</v>
+      </c>
+      <c r="BT3" s="41">
+        <v>45262</v>
+      </c>
+      <c r="BU3" s="41">
+        <v>45263</v>
+      </c>
+      <c r="BV3" s="31">
+        <v>45264</v>
+      </c>
+      <c r="BW3" s="31">
+        <v>45265</v>
+      </c>
+      <c r="BX3" s="31">
+        <v>45266</v>
+      </c>
+      <c r="BY3" s="31">
+        <v>45267</v>
+      </c>
+      <c r="BZ3" s="31">
+        <v>45268</v>
+      </c>
+      <c r="CA3" s="41"/>
+      <c r="CB3" s="41"/>
+      <c r="CH3" s="41"/>
+      <c r="CI3" s="41"/>
+      <c r="CO3" s="41"/>
+      <c r="CP3" s="41"/>
+      <c r="CV3" s="41"/>
+      <c r="CW3" s="41"/>
+      <c r="DC3" s="41"/>
+      <c r="DD3" s="41"/>
+      <c r="DK3" s="41"/>
+      <c r="DL3" s="41"/>
+      <c r="DR3" s="41"/>
+      <c r="DS3" s="41"/>
+      <c r="DY3" s="41"/>
+      <c r="EE3" s="41"/>
+      <c r="EF3" s="41"/>
+      <c r="EL3" s="41"/>
+      <c r="EM3" s="41"/>
+      <c r="ES3" s="41"/>
+      <c r="ET3" s="41"/>
     </row>
-    <row r="4" spans="1:31" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:151" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="26">
         <v>45201</v>
@@ -1525,11 +1729,11 @@
       </c>
       <c r="Z4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, Z$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>04 hours 05 minutes</v>
+        <v>04 hours 10 minutes</v>
       </c>
       <c r="AA4" s="35" t="str">
         <f t="shared" ref="AA4:AE4" si="2">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AA$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 40 minutes</v>
       </c>
       <c r="AB4" s="35" t="str">
         <f t="shared" si="2"/>
@@ -1547,8 +1751,217 @@
         <f t="shared" si="2"/>
         <v>00 hours 00 minutes</v>
       </c>
+      <c r="AF4" s="35" t="str">
+        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AF$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AG4" s="35" t="str">
+        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AG$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AH4" s="35" t="str">
+        <f t="shared" ref="AH4:BZ4" si="3">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AH$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AI4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AJ4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AK4" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AL4" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AM4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AN4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AO4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AP4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AQ4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AR4" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AS4" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AT4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AU4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AV4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AW4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AX4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AY4" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AZ4" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BA4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BB4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BC4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BD4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BE4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BF4" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BG4" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BH4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BI4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BJ4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BK4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BL4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BM4" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BN4" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BO4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BP4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BQ4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BR4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BS4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BT4" s="40" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BU4" s="42" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BV4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BW4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BX4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BY4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="BZ4" s="35" t="str">
+        <f t="shared" si="3"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="42"/>
+      <c r="CH4" s="40"/>
+      <c r="CI4" s="42"/>
+      <c r="CO4" s="40"/>
+      <c r="CP4" s="42"/>
+      <c r="CV4" s="40"/>
+      <c r="CW4" s="42"/>
+      <c r="DC4" s="40"/>
+      <c r="DD4" s="42"/>
+      <c r="DK4" s="40"/>
+      <c r="DL4" s="42"/>
+      <c r="DR4" s="40"/>
+      <c r="DS4" s="42"/>
+      <c r="DY4" s="40"/>
+      <c r="EE4" s="40"/>
+      <c r="EF4" s="42"/>
+      <c r="EL4" s="40"/>
+      <c r="EM4" s="42"/>
+      <c r="ES4" s="40"/>
+      <c r="ET4" s="42"/>
     </row>
-    <row r="5" spans="1:31" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:151" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="27">
         <v>45202</v>
@@ -1560,7 +1973,7 @@
         <v>0.82847222222222217</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5" si="3">IF(OR(C5=0, D5=0),"", D5-C5)</f>
+        <f t="shared" ref="E5" si="4">IF(OR(C5=0, D5=0),"", D5-C5)</f>
         <v>0.1201388888888888</v>
       </c>
       <c r="F5" s="15" t="str">
@@ -1588,11 +2001,11 @@
         <v>Goal Met!</v>
       </c>
       <c r="N5" s="37" t="str">
-        <f t="shared" ref="N5:O5" si="4">IF(INT(LEFT(N$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <f t="shared" ref="N5:O5" si="5">IF(INT(LEFT(N$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
         <v>Goal Met!</v>
       </c>
       <c r="O5" s="37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>Goal Met!</v>
       </c>
       <c r="P5" s="46" t="str">
@@ -1616,11 +2029,11 @@
         <v>Goal Met!</v>
       </c>
       <c r="U5" s="37" t="str">
-        <f t="shared" ref="U5:V5" si="5">IF(INT(LEFT(U$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <f t="shared" ref="U5:V5" si="6">IF(INT(LEFT(U$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
         <v>Goal Met!</v>
       </c>
       <c r="V5" s="37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>Goal Met!</v>
       </c>
       <c r="W5" s="46" t="str">
@@ -1641,14 +2054,14 @@
       </c>
       <c r="AA5" s="43" t="str">
         <f>IF(INT(LEFT(AA$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AA$6,1)-SUM(LEFT(AA$4, 2), (MID(AA4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AA$6,1)-SUM(LEFT(AA$4, 2), (MID(AA4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>Goal Met!</v>
+      </c>
+      <c r="AB5" s="37" t="str">
+        <f t="shared" ref="AB5:AC5" si="7">IF(INT(LEFT(AB$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AB$6,1)-SUM(LEFT(AB$4, 2), (MID(AB4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AB$6,1)-SUM(LEFT(AB$4, 2), (MID(AB4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
         <v>2 hours 0 minutes</v>
       </c>
-      <c r="AB5" s="37" t="str">
-        <f t="shared" ref="AB5:AC5" si="6">IF(INT(LEFT(AB$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AB$6,1)-SUM(LEFT(AB$4, 2), (MID(AB4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AB$6,1)-SUM(LEFT(AB$4, 2), (MID(AB4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
       <c r="AC5" s="37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3 hours 0 minutes</v>
       </c>
       <c r="AD5" s="46" t="str">
@@ -1659,8 +2072,239 @@
         <f>IF(INT(LEFT(AE$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AE$6,1)-SUM(LEFT(AE$4, 2), (MID(AE4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AE$6,1)-SUM(LEFT(AE$4, 2), (MID(AE4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
         <v>2 hours 0 minutes</v>
       </c>
+      <c r="AF5" s="45" t="str">
+        <f>IF(INT(LEFT(AF$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AF$6,1)-SUM(LEFT(AF$4, 2), (MID(AF4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AF$6,1)-SUM(LEFT(AF$4, 2), (MID(AF4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AG5" s="37" t="str">
+        <f>IF(INT(LEFT(AG$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AG$6,1)-SUM(LEFT(AG$4, 2), (MID(AG4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AG$6,1)-SUM(LEFT(AG$4, 2), (MID(AG4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>4 hours 0 minutes</v>
+      </c>
+      <c r="AH5" s="43" t="str">
+        <f>IF(INT(LEFT(AH$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AH$6,1)-SUM(LEFT(AH$4, 2), (MID(AH4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AH$6,1)-SUM(LEFT(AH$4, 2), (MID(AH4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AI5" s="37" t="str">
+        <f t="shared" ref="AI5:AJ5" si="8">IF(INT(LEFT(AI$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AI$6,1)-SUM(LEFT(AI$4, 2), (MID(AI4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AI$6,1)-SUM(LEFT(AI$4, 2), (MID(AI4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AJ5" s="37" t="str">
+        <f t="shared" si="8"/>
+        <v>3 hours 0 minutes</v>
+      </c>
+      <c r="AK5" s="46" t="str">
+        <f>IF(INT(LEFT(AK$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AK$6,1)-SUM(LEFT(AK$4, 2), (MID(AK4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AK$6,1)-SUM(LEFT(AK$4, 2), (MID(AK4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>5 hours 0 minutes</v>
+      </c>
+      <c r="AL5" s="47" t="str">
+        <f>IF(INT(LEFT(AL$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AL$6,1)-SUM(LEFT(AL$4, 2), (MID(AL4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AL$6,1)-SUM(LEFT(AL$4, 2), (MID(AL4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AM5" s="45" t="str">
+        <f t="shared" ref="AM5:AQ5" si="9">IF(INT(LEFT(AM$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AM$6,1)-SUM(LEFT(AM$4, 2), (MID(AM4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AM$6,1)-SUM(LEFT(AM$4, 2), (MID(AM4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AN5" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>4 hours 0 minutes</v>
+      </c>
+      <c r="AO5" s="43" t="str">
+        <f t="shared" si="9"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AP5" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AQ5" s="37" t="str">
+        <f t="shared" si="9"/>
+        <v>3 hours 0 minutes</v>
+      </c>
+      <c r="AR5" s="46" t="str">
+        <f t="shared" ref="AR5:AS5" si="10">IF(INT(LEFT(AR$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AR$6,1)-SUM(LEFT(AR$4, 2), (MID(AR4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AR$6,1)-SUM(LEFT(AR$4, 2), (MID(AR4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>5 hours 0 minutes</v>
+      </c>
+      <c r="AS5" s="47" t="str">
+        <f t="shared" si="10"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AT5" s="45" t="str">
+        <f t="shared" ref="AT5:AX5" si="11">IF(INT(LEFT(AT$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AT$6,1)-SUM(LEFT(AT$4, 2), (MID(AT4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AT$6,1)-SUM(LEFT(AT$4, 2), (MID(AT4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AU5" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>4 hours 0 minutes</v>
+      </c>
+      <c r="AV5" s="43" t="str">
+        <f t="shared" si="11"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AW5" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="AX5" s="37" t="str">
+        <f t="shared" si="11"/>
+        <v>3 hours 0 minutes</v>
+      </c>
+      <c r="AY5" s="46" t="str">
+        <f t="shared" ref="AY5:AZ5" si="12">IF(INT(LEFT(AY$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AY$6,1)-SUM(LEFT(AY$4, 2), (MID(AY4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AY$6,1)-SUM(LEFT(AY$4, 2), (MID(AY4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>5 hours 0 minutes</v>
+      </c>
+      <c r="AZ5" s="47" t="str">
+        <f t="shared" si="12"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BA5" s="45" t="str">
+        <f t="shared" ref="BA5:BE5" si="13">IF(INT(LEFT(BA$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(BA$6,1)-SUM(LEFT(BA$4, 2), (MID(BA4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BA$6,1)-SUM(LEFT(BA$4, 2), (MID(BA4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BB5" s="37" t="str">
+        <f t="shared" si="13"/>
+        <v>4 hours 0 minutes</v>
+      </c>
+      <c r="BC5" s="43" t="str">
+        <f t="shared" si="13"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BD5" s="37" t="str">
+        <f t="shared" si="13"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BE5" s="37" t="str">
+        <f t="shared" si="13"/>
+        <v>3 hours 0 minutes</v>
+      </c>
+      <c r="BF5" s="46" t="str">
+        <f t="shared" ref="BF5:BG5" si="14">IF(INT(LEFT(BF$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(BF$6,1)-SUM(LEFT(BF$4, 2), (MID(BF4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BF$6,1)-SUM(LEFT(BF$4, 2), (MID(BF4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>5 hours 0 minutes</v>
+      </c>
+      <c r="BG5" s="47" t="str">
+        <f t="shared" si="14"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BH5" s="45" t="str">
+        <f t="shared" ref="BH5:BL5" si="15">IF(INT(LEFT(BH$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(BH$6,1)-SUM(LEFT(BH$4, 2), (MID(BH4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BH$6,1)-SUM(LEFT(BH$4, 2), (MID(BH4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BI5" s="37" t="str">
+        <f t="shared" si="15"/>
+        <v>4 hours 0 minutes</v>
+      </c>
+      <c r="BJ5" s="43" t="str">
+        <f t="shared" si="15"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BK5" s="37" t="str">
+        <f t="shared" si="15"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BL5" s="37" t="str">
+        <f t="shared" si="15"/>
+        <v>3 hours 0 minutes</v>
+      </c>
+      <c r="BM5" s="46" t="str">
+        <f t="shared" ref="BM5:BN5" si="16">IF(INT(LEFT(BM$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(BM$6,1)-SUM(LEFT(BM$4, 2), (MID(BM4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BM$6,1)-SUM(LEFT(BM$4, 2), (MID(BM4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>5 hours 0 minutes</v>
+      </c>
+      <c r="BN5" s="47" t="str">
+        <f t="shared" si="16"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BO5" s="45" t="str">
+        <f t="shared" ref="BO5:BS5" si="17">IF(INT(LEFT(BO$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(BO$6,1)-SUM(LEFT(BO$4, 2), (MID(BO4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BO$6,1)-SUM(LEFT(BO$4, 2), (MID(BO4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BP5" s="37" t="str">
+        <f t="shared" si="17"/>
+        <v>4 hours 0 minutes</v>
+      </c>
+      <c r="BQ5" s="43" t="str">
+        <f t="shared" si="17"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BR5" s="37" t="str">
+        <f t="shared" si="17"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BS5" s="37" t="str">
+        <f t="shared" si="17"/>
+        <v>3 hours 0 minutes</v>
+      </c>
+      <c r="BT5" s="46" t="str">
+        <f t="shared" ref="BT5:BU5" si="18">IF(INT(LEFT(BT$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(BT$6,1)-SUM(LEFT(BT$4, 2), (MID(BT4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BT$6,1)-SUM(LEFT(BT$4, 2), (MID(BT4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>5 hours 0 minutes</v>
+      </c>
+      <c r="BU5" s="47" t="str">
+        <f t="shared" si="18"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BV5" s="45" t="str">
+        <f t="shared" ref="BV5:BZ5" si="19">IF(INT(LEFT(BV$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(BV$6,1)-SUM(LEFT(BV$4, 2), (MID(BV4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BV$6,1)-SUM(LEFT(BV$4, 2), (MID(BV4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BW5" s="37" t="str">
+        <f t="shared" si="19"/>
+        <v>4 hours 0 minutes</v>
+      </c>
+      <c r="BX5" s="43" t="str">
+        <f t="shared" si="19"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BY5" s="37" t="str">
+        <f t="shared" si="19"/>
+        <v>2 hours 0 minutes</v>
+      </c>
+      <c r="BZ5" s="37" t="str">
+        <f t="shared" si="19"/>
+        <v>3 hours 0 minutes</v>
+      </c>
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="47"/>
+      <c r="CC5" s="45"/>
+      <c r="CE5" s="43"/>
+      <c r="CH5" s="46"/>
+      <c r="CI5" s="47"/>
+      <c r="CJ5" s="45"/>
+      <c r="CL5" s="43"/>
+      <c r="CO5" s="46"/>
+      <c r="CP5" s="47"/>
+      <c r="CQ5" s="45"/>
+      <c r="CS5" s="43"/>
+      <c r="CV5" s="46"/>
+      <c r="CW5" s="47"/>
+      <c r="CX5" s="45"/>
+      <c r="CZ5" s="43"/>
+      <c r="DC5" s="46"/>
+      <c r="DD5" s="47"/>
+      <c r="DE5" s="45"/>
+      <c r="DF5" s="45"/>
+      <c r="DH5" s="43"/>
+      <c r="DK5" s="46"/>
+      <c r="DL5" s="47"/>
+      <c r="DM5" s="45"/>
+      <c r="DO5" s="43"/>
+      <c r="DR5" s="46"/>
+      <c r="DS5" s="47"/>
+      <c r="DT5" s="45"/>
+      <c r="DV5" s="43"/>
+      <c r="DY5" s="46"/>
+      <c r="DZ5" s="45"/>
+      <c r="EB5" s="43"/>
+      <c r="EE5" s="46"/>
+      <c r="EF5" s="47"/>
+      <c r="EG5" s="45"/>
+      <c r="EI5" s="43"/>
+      <c r="EL5" s="46"/>
+      <c r="EM5" s="47"/>
+      <c r="EN5" s="45"/>
+      <c r="EP5" s="43"/>
+      <c r="ES5" s="46"/>
+      <c r="ET5" s="47"/>
+      <c r="EU5" s="45"/>
     </row>
-    <row r="6" spans="1:31" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:151" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="27">
         <v>45203</v>
@@ -1750,8 +2394,182 @@
       <c r="AE6" s="47" t="s">
         <v>17</v>
       </c>
+      <c r="AF6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AK6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL6" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS6" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="AU6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="AY6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="AZ6" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="BA6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BD6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG6" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="BH6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="BI6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BK6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BL6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="BN6" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="BO6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="BP6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BR6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BS6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="BT6" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="BU6" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV6" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="BW6" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="BX6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BY6" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BZ6" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="CA6" s="46"/>
+      <c r="CB6" s="47"/>
+      <c r="CC6" s="36"/>
+      <c r="CH6" s="46"/>
+      <c r="CI6" s="47"/>
+      <c r="CJ6" s="36"/>
+      <c r="CO6" s="46"/>
+      <c r="CP6" s="47"/>
+      <c r="CQ6" s="36"/>
+      <c r="CV6" s="46"/>
+      <c r="CW6" s="47"/>
+      <c r="CX6" s="36"/>
+      <c r="DC6" s="46"/>
+      <c r="DD6" s="47"/>
+      <c r="DE6" s="36"/>
+      <c r="DF6" s="36"/>
+      <c r="DK6" s="46"/>
+      <c r="DL6" s="47"/>
+      <c r="DM6" s="36"/>
+      <c r="DR6" s="46"/>
+      <c r="DS6" s="47"/>
+      <c r="DT6" s="36"/>
+      <c r="DY6" s="46"/>
+      <c r="DZ6" s="36"/>
+      <c r="EE6" s="46"/>
+      <c r="EF6" s="47"/>
+      <c r="EG6" s="36"/>
+      <c r="EL6" s="46"/>
+      <c r="EM6" s="47"/>
+      <c r="EN6" s="36"/>
+      <c r="ES6" s="46"/>
+      <c r="ET6" s="47"/>
+      <c r="EU6" s="36"/>
     </row>
-    <row r="7" spans="1:31" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:151" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="27">
         <v>45204</v>
@@ -1763,7 +2581,7 @@
         <v>0.5180555555555556</v>
       </c>
       <c r="E7" s="17">
-        <f t="shared" ref="E7:E30" si="7">IF(OR(C7=0, D7=0),"", D7-C7)</f>
+        <f t="shared" ref="E7:E30" si="20">IF(OR(C7=0, D7=0),"", D7-C7)</f>
         <v>0.12222222222222229</v>
       </c>
       <c r="F7" s="15" t="str">
@@ -1844,30 +2662,291 @@
       </c>
       <c r="Z7" s="37" t="str" cm="1">
         <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>63 hours 3 minutes</v>
+        <v>63 hours 8 minutes</v>
       </c>
       <c r="AA7" s="37" t="str" cm="1">
         <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>63 hours 3 minutes</v>
+        <v>65 hours 48 minutes</v>
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>63 hours 3 minutes</v>
+        <v>65 hours 48 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>63 hours 3 minutes</v>
+        <v>65 hours 48 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>63 hours 3 minutes</v>
+        <v>65 hours 48 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>63 hours 3 minutes</v>
-      </c>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AF7" s="48" t="str" cm="1">
+        <f t="array" ref="AF7">INT((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AG7" s="37" t="str" cm="1">
+        <f t="array" ref="AG7">INT((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AH7" s="37" t="str" cm="1">
+        <f t="array" ref="AH7">INT((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AI7" s="37" t="str" cm="1">
+        <f t="array" ref="AI7">INT((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AJ7" s="49" t="str" cm="1">
+        <f t="array" ref="AJ7">INT((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AK7" s="50" t="str" cm="1">
+        <f t="array" ref="AK7">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AL7" s="51" t="str" cm="1">
+        <f t="array" ref="AL7">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AM7" s="48" t="str" cm="1">
+        <f t="array" ref="AM7">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AN7" s="37" t="str" cm="1">
+        <f t="array" ref="AN7">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AO7" s="37" t="str" cm="1">
+        <f t="array" ref="AO7">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AP7" s="37" t="str" cm="1">
+        <f t="array" ref="AP7">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AQ7" s="49" t="str" cm="1">
+        <f t="array" ref="AQ7">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AR7" s="50" t="str" cm="1">
+        <f t="array" ref="AR7">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AS7" s="51" t="str" cm="1">
+        <f t="array" ref="AS7">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AT7" s="48" t="str" cm="1">
+        <f t="array" ref="AT7">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AU7" s="37" t="str" cm="1">
+        <f t="array" ref="AU7">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AV7" s="37" t="str" cm="1">
+        <f t="array" ref="AV7">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AW7" s="37" t="str" cm="1">
+        <f t="array" ref="AW7">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AX7" s="49" t="str" cm="1">
+        <f t="array" ref="AX7">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AY7" s="50" t="str" cm="1">
+        <f t="array" ref="AY7">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AZ7" s="51" t="str" cm="1">
+        <f t="array" ref="AZ7">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BA7" s="48" t="str" cm="1">
+        <f t="array" ref="BA7">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BB7" s="37" t="str" cm="1">
+        <f t="array" ref="BB7">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BC7" s="37" t="str" cm="1">
+        <f t="array" ref="BC7">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BD7" s="37" t="str" cm="1">
+        <f t="array" ref="BD7">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BE7" s="49" t="str" cm="1">
+        <f t="array" ref="BE7">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BF7" s="50" t="str" cm="1">
+        <f t="array" ref="BF7">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BG7" s="51" t="str" cm="1">
+        <f t="array" ref="BG7">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BH7" s="48" t="str" cm="1">
+        <f t="array" ref="BH7">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BI7" s="37" t="str" cm="1">
+        <f t="array" ref="BI7">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BJ7" s="37" t="str" cm="1">
+        <f t="array" ref="BJ7">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BK7" s="37" t="str" cm="1">
+        <f t="array" ref="BK7">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BL7" s="49" t="str" cm="1">
+        <f t="array" ref="BL7">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BM7" s="50" t="str" cm="1">
+        <f t="array" ref="BM7">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BN7" s="51" t="str" cm="1">
+        <f t="array" ref="BN7">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BO7" s="48" t="str" cm="1">
+        <f t="array" ref="BO7">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BP7" s="37" t="str" cm="1">
+        <f t="array" ref="BP7">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BQ7" s="37" t="str" cm="1">
+        <f t="array" ref="BQ7">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BR7" s="37" t="str" cm="1">
+        <f t="array" ref="BR7">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BS7" s="49" t="str" cm="1">
+        <f t="array" ref="BS7">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BT7" s="50" t="str" cm="1">
+        <f t="array" ref="BT7">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BU7" s="51" t="str" cm="1">
+        <f t="array" ref="BU7">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BV7" s="48" t="str" cm="1">
+        <f t="array" ref="BV7">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BW7" s="37" t="str" cm="1">
+        <f t="array" ref="BW7">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BX7" s="37" t="str" cm="1">
+        <f t="array" ref="BX7">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BY7" s="37" t="str" cm="1">
+        <f t="array" ref="BY7">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="BZ7" s="49" t="str" cm="1">
+        <f t="array" ref="BZ7">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="CA7" s="50"/>
+      <c r="CB7" s="51"/>
+      <c r="CC7" s="48"/>
+      <c r="CD7" s="37"/>
+      <c r="CE7" s="37"/>
+      <c r="CF7" s="37"/>
+      <c r="CG7" s="49"/>
+      <c r="CH7" s="50"/>
+      <c r="CI7" s="51"/>
+      <c r="CJ7" s="48"/>
+      <c r="CK7" s="37"/>
+      <c r="CL7" s="37"/>
+      <c r="CM7" s="37"/>
+      <c r="CN7" s="49"/>
+      <c r="CO7" s="50"/>
+      <c r="CP7" s="51"/>
+      <c r="CQ7" s="48"/>
+      <c r="CR7" s="37"/>
+      <c r="CS7" s="37"/>
+      <c r="CT7" s="37"/>
+      <c r="CU7" s="49"/>
+      <c r="CV7" s="50"/>
+      <c r="CW7" s="51"/>
+      <c r="CX7" s="48"/>
+      <c r="CY7" s="37"/>
+      <c r="CZ7" s="37"/>
+      <c r="DA7" s="37"/>
+      <c r="DB7" s="49"/>
+      <c r="DC7" s="50"/>
+      <c r="DD7" s="51"/>
+      <c r="DE7" s="48"/>
+      <c r="DF7" s="48"/>
+      <c r="DG7" s="37"/>
+      <c r="DH7" s="37"/>
+      <c r="DI7" s="37"/>
+      <c r="DJ7" s="49"/>
+      <c r="DK7" s="50"/>
+      <c r="DL7" s="51"/>
+      <c r="DM7" s="48"/>
+      <c r="DN7" s="37"/>
+      <c r="DO7" s="37"/>
+      <c r="DP7" s="37"/>
+      <c r="DQ7" s="49"/>
+      <c r="DR7" s="50"/>
+      <c r="DS7" s="51"/>
+      <c r="DT7" s="48"/>
+      <c r="DU7" s="37"/>
+      <c r="DV7" s="37"/>
+      <c r="DW7" s="37"/>
+      <c r="DX7" s="49"/>
+      <c r="DY7" s="50"/>
+      <c r="DZ7" s="48"/>
+      <c r="EA7" s="37"/>
+      <c r="EB7" s="37"/>
+      <c r="EC7" s="37"/>
+      <c r="ED7" s="49"/>
+      <c r="EE7" s="50"/>
+      <c r="EF7" s="51"/>
+      <c r="EG7" s="48"/>
+      <c r="EH7" s="37"/>
+      <c r="EI7" s="37"/>
+      <c r="EJ7" s="37"/>
+      <c r="EK7" s="49"/>
+      <c r="EL7" s="50"/>
+      <c r="EM7" s="51"/>
+      <c r="EN7" s="48"/>
+      <c r="EO7" s="37"/>
+      <c r="EP7" s="37"/>
+      <c r="EQ7" s="37"/>
+      <c r="ER7" s="49"/>
+      <c r="ES7" s="50"/>
+      <c r="ET7" s="51"/>
+      <c r="EU7" s="48"/>
     </row>
-    <row r="8" spans="1:31" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:151" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8"/>
       <c r="B8" s="27">
         <v>45205</v>
@@ -1879,7 +2958,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="E8" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.16111111111111109</v>
       </c>
       <c r="F8" s="15" t="str">
@@ -1961,8 +3040,29 @@
       <c r="AE8" s="51" t="s">
         <v>54</v>
       </c>
+      <c r="AF8" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG8" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH8" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ8" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK8" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL8" s="39" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:151" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>45206</v>
       </c>
@@ -1973,7 +3073,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.18263888888888891</v>
       </c>
       <c r="F9" s="15" t="str">
@@ -1990,7 +3090,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:151" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>45206</v>
       </c>
@@ -2001,7 +3101,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>8.6805555555555469E-2</v>
       </c>
       <c r="F10" s="15" t="str">
@@ -2018,7 +3118,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:151" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>45207</v>
       </c>
@@ -2042,8 +3142,11 @@
       <c r="H11" s="25" t="s">
         <v>33</v>
       </c>
+      <c r="I11" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:151" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>45207</v>
       </c>
@@ -2054,7 +3157,7 @@
         <v>0.89444444444444438</v>
       </c>
       <c r="E12" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>5.0694444444444375E-2</v>
       </c>
       <c r="F12" s="15" t="str">
@@ -2067,8 +3170,11 @@
       <c r="H12" s="25" t="s">
         <v>35</v>
       </c>
+      <c r="I12" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:151" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>45208</v>
       </c>
@@ -2079,7 +3185,7 @@
         <v>0.62847222222222221</v>
       </c>
       <c r="E13" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>1.736111111111116E-2</v>
       </c>
       <c r="F13" s="15" t="str">
@@ -2092,8 +3198,11 @@
       <c r="H13" s="52" t="s">
         <v>43</v>
       </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:151" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>45208</v>
       </c>
@@ -2104,7 +3213,7 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="E14" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.13055555555555554</v>
       </c>
       <c r="F14" s="15" t="str">
@@ -2117,8 +3226,11 @@
       <c r="H14" s="25" t="s">
         <v>46</v>
       </c>
+      <c r="I14" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:151" ht="120" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>45209</v>
       </c>
@@ -2129,7 +3241,7 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.13541666666666669</v>
       </c>
       <c r="F15" s="15" t="str">
@@ -2142,8 +3254,11 @@
       <c r="H15" s="25" t="s">
         <v>56</v>
       </c>
+      <c r="I15" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -2154,7 +3269,7 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.10763888888888895</v>
       </c>
       <c r="F16" s="15" t="str">
@@ -2176,7 +3291,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="E17" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.3750000000000056E-2</v>
       </c>
       <c r="F17" s="15" t="str">
@@ -2201,7 +3316,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="E18" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>8.8888888888888906E-2</v>
       </c>
       <c r="F18" s="15" t="str">
@@ -2213,6 +3328,9 @@
       </c>
       <c r="H18" s="25" t="s">
         <v>61</v>
+      </c>
+      <c r="I18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -2226,7 +3344,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="E19" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>7.6388888888888784E-2</v>
       </c>
       <c r="F19" s="15" t="str">
@@ -2238,6 +3356,9 @@
       </c>
       <c r="H19" s="25" t="s">
         <v>63</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -2264,6 +3385,9 @@
       <c r="H20" s="25" t="s">
         <v>65</v>
       </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
@@ -2276,7 +3400,7 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="E21" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="F21" s="15" t="str">
@@ -2298,7 +3422,7 @@
         <v>0.90277777777777779</v>
       </c>
       <c r="E22" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>7.986111111111116E-2</v>
       </c>
       <c r="F22" s="15" t="str">
@@ -2310,6 +3434,9 @@
       </c>
       <c r="H22" s="25" t="s">
         <v>68</v>
+      </c>
+      <c r="I22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
@@ -2323,7 +3450,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E23" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F23" s="15" t="str">
@@ -2335,6 +3462,9 @@
       </c>
       <c r="H23" s="25" t="s">
         <v>70</v>
+      </c>
+      <c r="I23" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -2348,7 +3478,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="E24" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.14236111111111105</v>
       </c>
       <c r="F24" s="15" t="str">
@@ -2360,6 +3490,9 @@
       </c>
       <c r="H24" s="25" t="s">
         <v>72</v>
+      </c>
+      <c r="I24" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -2373,7 +3506,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="E25" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>0.15972222222222232</v>
       </c>
       <c r="F25" s="15" t="str">
@@ -2385,6 +3518,9 @@
       </c>
       <c r="H25" s="25" t="s">
         <v>76</v>
+      </c>
+      <c r="I25" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -2398,7 +3534,7 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="E26" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v>9.027777777777779E-2</v>
       </c>
       <c r="F26" s="15" t="str">
@@ -2417,15 +3553,15 @@
         <v>0.57986111111111105</v>
       </c>
       <c r="D27" s="12">
-        <v>0.65972222222222221</v>
+        <v>0.66319444444444442</v>
       </c>
       <c r="E27" s="17">
-        <f t="shared" si="7"/>
-        <v>7.986111111111116E-2</v>
+        <f t="shared" si="20"/>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="F27" s="15" t="str">
         <f>IF(E27="","",_xlfn.CONCAT(HOUR(SUM($E$4:E27))," hours ",MINUTE(SUM($E$4:E27))," minutes"))</f>
-        <v>15 hours 3 minutes</v>
+        <v>15 hours 8 minutes</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>80</v>
@@ -2434,19 +3570,37 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E28" s="17" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+    <row r="28" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B28" s="27">
+        <v>45217</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D28" s="12">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="E28" s="17">
+        <f t="shared" si="20"/>
+        <v>0.11111111111111105</v>
       </c>
       <c r="F28" s="15" t="str">
         <f>IF(E28="","",_xlfn.CONCAT(HOUR(SUM($E$4:E28))," hours ",MINUTE(SUM($E$4:E28))," minutes"))</f>
-        <v/>
+        <v>17 hours 48 minutes</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="55" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F29" s="15" t="str">
@@ -2456,7 +3610,7 @@
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E30" s="17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="F30" s="15" t="str">
@@ -2468,9 +3622,10 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H13" r:id="rId1" xr:uid="{40BF5D3F-6F40-4D36-A2D2-A18CA464B327}"/>
+    <hyperlink ref="J28" r:id="rId2" xr:uid="{9F3B3340-4F24-4554-BB1A-2EA07283D5A7}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E616D-16BC-4D8A-992C-D2FA2659AE90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAE0C6E-C2F2-4F0F-9AE1-265A1A64D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
   <si>
     <t>Start Time:</t>
   </si>
@@ -339,10 +339,16 @@
     <t>https://next-auth.js.org/configuration/providers/oauth</t>
   </si>
   <si>
-    <t>Got Oauth started</t>
-  </si>
-  <si>
     <t>Next session it's time to make the database side of accounts, this include credential sign ins and connecting Oauth accounts</t>
+  </si>
+  <si>
+    <t>Got backend auth started</t>
+  </si>
+  <si>
+    <t>Got Oauth working on the frontend</t>
+  </si>
+  <si>
+    <t>Next is finishing backend auth</t>
   </si>
 </sst>
 </file>
@@ -1336,25 +1342,25 @@
   </sheetPr>
   <dimension ref="A1:EU30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="16" customWidth="1"/>
     <col min="4" max="4" width="10" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="17" customWidth="1"/>
     <col min="6" max="6" width="20" style="15" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="37.88671875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="53" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:151" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1374,7 @@
       <c r="H1" s="22"/>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2"/>
@@ -1389,7 +1395,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:151" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:151" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -1642,7 +1648,7 @@
       <c r="ES3" s="41"/>
       <c r="ET3" s="41"/>
     </row>
-    <row r="4" spans="1:151" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:151" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4" s="26">
         <v>45201</v>
@@ -1737,7 +1743,7 @@
       </c>
       <c r="AB4" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>00 hours 00 minutes</v>
+        <v>00 hours 51 minutes</v>
       </c>
       <c r="AC4" s="35" t="str">
         <f t="shared" si="2"/>
@@ -1961,7 +1967,7 @@
       <c r="ES4" s="40"/>
       <c r="ET4" s="42"/>
     </row>
-    <row r="5" spans="1:151" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:151" s="37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" s="27">
         <v>45202</v>
@@ -2058,7 +2064,7 @@
       </c>
       <c r="AB5" s="37" t="str">
         <f t="shared" ref="AB5:AC5" si="7">IF(INT(LEFT(AB$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AB$6,1)-SUM(LEFT(AB$4, 2), (MID(AB4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AB$6,1)-SUM(LEFT(AB$4, 2), (MID(AB4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
+        <v>1 hours 9 minutes</v>
       </c>
       <c r="AC5" s="37" t="str">
         <f t="shared" si="7"/>
@@ -2304,7 +2310,7 @@
       <c r="ET5" s="47"/>
       <c r="EU5" s="45"/>
     </row>
-    <row r="6" spans="1:151" s="37" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:151" s="37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="27">
         <v>45203</v>
@@ -2569,7 +2575,7 @@
       <c r="ET6" s="47"/>
       <c r="EU6" s="36"/>
     </row>
-    <row r="7" spans="1:151" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:151" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="27">
         <v>45204</v>
@@ -2670,207 +2676,207 @@
       </c>
       <c r="AB7" s="37" t="str" cm="1">
         <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AC7" s="49" t="str" cm="1">
         <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AD7" s="50" t="str" cm="1">
         <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AE7" s="51" t="str" cm="1">
         <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AF7" s="48" t="str" cm="1">
         <f t="array" ref="AF7">INT((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AG7" s="37" t="str" cm="1">
         <f t="array" ref="AG7">INT((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AH7" s="37" t="str" cm="1">
         <f t="array" ref="AH7">INT((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AI7" s="37" t="str" cm="1">
         <f t="array" ref="AI7">INT((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AJ7" s="49" t="str" cm="1">
         <f t="array" ref="AJ7">INT((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AK7" s="50" t="str" cm="1">
         <f t="array" ref="AK7">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AL7" s="51" t="str" cm="1">
         <f t="array" ref="AL7">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AM7" s="48" t="str" cm="1">
         <f t="array" ref="AM7">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AN7" s="37" t="str" cm="1">
         <f t="array" ref="AN7">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AO7" s="37" t="str" cm="1">
         <f t="array" ref="AO7">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AP7" s="37" t="str" cm="1">
         <f t="array" ref="AP7">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AQ7" s="49" t="str" cm="1">
         <f t="array" ref="AQ7">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AR7" s="50" t="str" cm="1">
         <f t="array" ref="AR7">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AS7" s="51" t="str" cm="1">
         <f t="array" ref="AS7">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AT7" s="48" t="str" cm="1">
         <f t="array" ref="AT7">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AU7" s="37" t="str" cm="1">
         <f t="array" ref="AU7">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AV7" s="37" t="str" cm="1">
         <f t="array" ref="AV7">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AW7" s="37" t="str" cm="1">
         <f t="array" ref="AW7">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AX7" s="49" t="str" cm="1">
         <f t="array" ref="AX7">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AY7" s="50" t="str" cm="1">
         <f t="array" ref="AY7">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="AZ7" s="51" t="str" cm="1">
         <f t="array" ref="AZ7">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BA7" s="48" t="str" cm="1">
         <f t="array" ref="BA7">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BB7" s="37" t="str" cm="1">
         <f t="array" ref="BB7">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BC7" s="37" t="str" cm="1">
         <f t="array" ref="BC7">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BD7" s="37" t="str" cm="1">
         <f t="array" ref="BD7">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BE7" s="49" t="str" cm="1">
         <f t="array" ref="BE7">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BF7" s="50" t="str" cm="1">
         <f t="array" ref="BF7">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BG7" s="51" t="str" cm="1">
         <f t="array" ref="BG7">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BH7" s="48" t="str" cm="1">
         <f t="array" ref="BH7">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BI7" s="37" t="str" cm="1">
         <f t="array" ref="BI7">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BJ7" s="37" t="str" cm="1">
         <f t="array" ref="BJ7">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BK7" s="37" t="str" cm="1">
         <f t="array" ref="BK7">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BL7" s="49" t="str" cm="1">
         <f t="array" ref="BL7">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BM7" s="50" t="str" cm="1">
         <f t="array" ref="BM7">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BN7" s="51" t="str" cm="1">
         <f t="array" ref="BN7">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BO7" s="48" t="str" cm="1">
         <f t="array" ref="BO7">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BP7" s="37" t="str" cm="1">
         <f t="array" ref="BP7">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BQ7" s="37" t="str" cm="1">
         <f t="array" ref="BQ7">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BR7" s="37" t="str" cm="1">
         <f t="array" ref="BR7">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BS7" s="49" t="str" cm="1">
         <f t="array" ref="BS7">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BT7" s="50" t="str" cm="1">
         <f t="array" ref="BT7">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BU7" s="51" t="str" cm="1">
         <f t="array" ref="BU7">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BV7" s="48" t="str" cm="1">
         <f t="array" ref="BV7">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BW7" s="37" t="str" cm="1">
         <f t="array" ref="BW7">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BX7" s="37" t="str" cm="1">
         <f t="array" ref="BX7">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BY7" s="37" t="str" cm="1">
         <f t="array" ref="BY7">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="BZ7" s="49" t="str" cm="1">
         <f t="array" ref="BZ7">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
+        <v>66 hours 39.0000000000005 minutes</v>
       </c>
       <c r="CA7" s="50"/>
       <c r="CB7" s="51"/>
@@ -2946,7 +2952,7 @@
       <c r="ET7" s="51"/>
       <c r="EU7" s="48"/>
     </row>
-    <row r="8" spans="1:151" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:151" s="39" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8"/>
       <c r="B8" s="27">
         <v>45205</v>
@@ -3062,7 +3068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:151" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:151" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="27">
         <v>45206</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:151" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:151" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="27">
         <v>45206</v>
       </c>
@@ -3118,7 +3124,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:151" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:151" ht="72" x14ac:dyDescent="0.3">
       <c r="B11" s="27">
         <v>45207</v>
       </c>
@@ -3146,7 +3152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:151" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:151" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="27">
         <v>45207</v>
       </c>
@@ -3174,7 +3180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:151" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:151" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="27">
         <v>45208</v>
       </c>
@@ -3202,7 +3208,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:151" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:151" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" s="27">
         <v>45208</v>
       </c>
@@ -3230,7 +3236,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:151" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:151" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B15" s="27">
         <v>45209</v>
       </c>
@@ -3258,7 +3264,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:151" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -3280,7 +3286,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
         <v>45210</v>
       </c>
@@ -3305,7 +3311,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="27">
         <v>45210</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B19" s="27">
         <v>45211</v>
       </c>
@@ -3361,7 +3367,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B20" s="27">
         <v>45211</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="27">
         <v>45212</v>
       </c>
@@ -3411,7 +3417,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="27">
         <v>45212</v>
       </c>
@@ -3439,7 +3445,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="27">
         <v>45213</v>
       </c>
@@ -3467,7 +3473,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B24" s="27">
         <v>45214</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B25" s="27">
         <v>45215</v>
       </c>
@@ -3523,7 +3529,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="27">
         <v>45216</v>
       </c>
@@ -3545,7 +3551,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B27" s="27">
         <v>45216</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B28" s="27">
         <v>45217</v>
       </c>
@@ -3589,26 +3595,41 @@
         <v>17 hours 48 minutes</v>
       </c>
       <c r="G28" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H28" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>94</v>
       </c>
       <c r="J28" s="55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E29" s="17" t="str">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="27">
+        <v>45218</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="D29" s="12">
+        <v>0.45902777777777781</v>
+      </c>
+      <c r="E29" s="17">
         <f t="shared" si="20"/>
-        <v/>
+        <v>3.5416666666666707E-2</v>
       </c>
       <c r="F29" s="15" t="str">
         <f>IF(E29="","",_xlfn.CONCAT(HOUR(SUM($E$4:E29))," hours ",MINUTE(SUM($E$4:E29))," minutes"))</f>
-        <v/>
+        <v>18 hours 39 minutes</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>96</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E30" s="17" t="str">
         <f t="shared" si="20"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAE0C6E-C2F2-4F0F-9AE1-265A1A64D39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1927D429-1221-492F-9B7B-31424F91960A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
   <si>
     <t>Start Time:</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Total Time:</t>
   </si>
   <si>
-    <t>Distance From Goal Time:</t>
-  </si>
-  <si>
     <t>Running Goal:</t>
   </si>
   <si>
@@ -349,6 +346,18 @@
   </si>
   <si>
     <t>Next is finishing backend auth</t>
+  </si>
+  <si>
+    <t>Got some dependencies installed, a pydantic account model made, and learned that my old JWT method is deprecated</t>
+  </si>
+  <si>
+    <t>Gotta continue setting up backend auth</t>
+  </si>
+  <si>
+    <t>More progress on backend account system. I'm getting fundamentals done and getting basic scaffolding/planning done</t>
+  </si>
+  <si>
+    <t>Keep going with backend Account system</t>
   </si>
 </sst>
 </file>
@@ -467,7 +476,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -804,19 +813,6 @@
         <color rgb="FFCCCCFF"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCFF"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -919,7 +915,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -994,21 +990,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1340,27 +1334,27 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EU30"/>
+  <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="16" customWidth="1"/>
     <col min="4" max="4" width="10" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="17" customWidth="1"/>
     <col min="6" max="6" width="20" style="15" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:151" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1374,7 +1368,7 @@
       <c r="H1" s="22"/>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2"/>
@@ -1386,16 +1380,16 @@
       <c r="H2" s="22"/>
       <c r="J2" s="29"/>
       <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" t="s">
         <v>51</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Y2" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:151" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:151" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -1648,7 +1642,7 @@
       <c r="ES3" s="41"/>
       <c r="ET3" s="41"/>
     </row>
-    <row r="4" spans="1:151" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:151" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="26">
         <v>45201</v>
@@ -1743,7 +1737,7 @@
       </c>
       <c r="AB4" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>00 hours 51 minutes</v>
+        <v>02 hours 21 minutes</v>
       </c>
       <c r="AC4" s="35" t="str">
         <f t="shared" si="2"/>
@@ -1967,7 +1961,7 @@
       <c r="ES4" s="40"/>
       <c r="ET4" s="42"/>
     </row>
-    <row r="5" spans="1:151" s="37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:151" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="27">
         <v>45202</v>
@@ -1992,325 +1986,247 @@
       <c r="H5" s="25"/>
       <c r="I5"/>
       <c r="J5" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="45" t="str">
-        <f>IF(INT(LEFT(K$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(K$6,1)-SUM(LEFT(K$4, 2), (MID(K4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(K$6,1)-SUM(LEFT(K$4, 2), (MID(K4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>0 hours 20 minutes</v>
-      </c>
-      <c r="L5" s="37" t="str">
-        <f>IF(INT(LEFT(L$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(L$6,1)-SUM(LEFT(L$4, 2), (MID(L4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(L$6,1)-SUM(LEFT(L$4, 2), (MID(L4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="M5" s="43" t="str">
-        <f>IF(INT(LEFT(M$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(M$6,1)-SUM(LEFT(M$4, 2), (MID(M4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(M$6,1)-SUM(LEFT(M$4, 2), (MID(M4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="N5" s="37" t="str">
-        <f t="shared" ref="N5:O5" si="5">IF(INT(LEFT(N$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(N$6,1)-SUM(LEFT(N$4, 2), (MID(N4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="O5" s="37" t="str">
-        <f t="shared" si="5"/>
-        <v>Goal Met!</v>
-      </c>
-      <c r="P5" s="46" t="str">
-        <f>IF(INT(LEFT(P$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(P$6,1)-SUM(LEFT(P$4, 2), (MID(P4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(P$6,1)-SUM(LEFT(P$4, 2), (MID(P4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="Q5" s="47" t="str">
-        <f>IF(INT(LEFT(Q$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(Q$6,1)-SUM(LEFT(Q$4, 2), (MID(Q4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Q$6,1)-SUM(LEFT(Q$4, 2), (MID(Q4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 22 minutes</v>
-      </c>
-      <c r="R5" s="45" t="str">
-        <f>IF(INT(LEFT(R$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(R$6,1)-SUM(LEFT(R$4, 2), (MID(R4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(R$6,1)-SUM(LEFT(R$4, 2), (MID(R4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="S5" s="37" t="str">
-        <f>IF(INT(LEFT(S$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(S$6,1)-SUM(LEFT(S$4, 2), (MID(S4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(S$6,1)-SUM(LEFT(S$4, 2), (MID(S4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="T5" s="43" t="str">
-        <f>IF(INT(LEFT(T$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(T$6,1)-SUM(LEFT(T$4, 2), (MID(T4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(T$6,1)-SUM(LEFT(T$4, 2), (MID(T4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="U5" s="37" t="str">
-        <f t="shared" ref="U5:V5" si="6">IF(INT(LEFT(U$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(U$6,1)-SUM(LEFT(U$4, 2), (MID(U4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="V5" s="37" t="str">
-        <f t="shared" si="6"/>
-        <v>Goal Met!</v>
-      </c>
-      <c r="W5" s="46" t="str">
-        <f>IF(INT(LEFT(W$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(W$6,1)-SUM(LEFT(W$4, 2), (MID(W4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(W$6,1)-SUM(LEFT(W$4, 2), (MID(W4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="X5" s="47" t="str">
-        <f>IF(INT(LEFT(X$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(X$6,1)-SUM(LEFT(X$4, 2), (MID(X4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(X$6,1)-SUM(LEFT(X$4, 2), (MID(X4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 35 minutes</v>
-      </c>
-      <c r="Y5" s="45" t="str">
-        <f>IF(INT(LEFT(Y$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(Y$6,1)-SUM(LEFT(Y$4, 2), (MID(Y4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Y$6,1)-SUM(LEFT(Y$4, 2), (MID(Y4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="Z5" s="37" t="str">
-        <f>IF(INT(LEFT(Z$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(Z$6,1)-SUM(LEFT(Z$4, 2), (MID(Z4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(Z$6,1)-SUM(LEFT(Z$4, 2), (MID(Z4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="AA5" s="43" t="str">
-        <f>IF(INT(LEFT(AA$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AA$6,1)-SUM(LEFT(AA$4, 2), (MID(AA4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AA$6,1)-SUM(LEFT(AA$4, 2), (MID(AA4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>Goal Met!</v>
-      </c>
-      <c r="AB5" s="37" t="str">
-        <f t="shared" ref="AB5:AC5" si="7">IF(INT(LEFT(AB$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AB$6,1)-SUM(LEFT(AB$4, 2), (MID(AB4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AB$6,1)-SUM(LEFT(AB$4, 2), (MID(AB4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>1 hours 9 minutes</v>
-      </c>
-      <c r="AC5" s="37" t="str">
-        <f t="shared" si="7"/>
-        <v>3 hours 0 minutes</v>
-      </c>
-      <c r="AD5" s="46" t="str">
-        <f>IF(INT(LEFT(AD$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AD$6,1)-SUM(LEFT(AD$4, 2), (MID(AD4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AD$6,1)-SUM(LEFT(AD$4, 2), (MID(AD4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>5 hours 0 minutes</v>
-      </c>
-      <c r="AE5" s="47" t="str">
-        <f>IF(INT(LEFT(AE$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AE$6,1)-SUM(LEFT(AE$4, 2), (MID(AE4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AE$6,1)-SUM(LEFT(AE$4, 2), (MID(AE4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AF5" s="45" t="str">
-        <f>IF(INT(LEFT(AF$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AF$6,1)-SUM(LEFT(AF$4, 2), (MID(AF4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AF$6,1)-SUM(LEFT(AF$4, 2), (MID(AF4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AG5" s="37" t="str">
-        <f>IF(INT(LEFT(AG$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AG$6,1)-SUM(LEFT(AG$4, 2), (MID(AG4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AG$6,1)-SUM(LEFT(AG$4, 2), (MID(AG4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>4 hours 0 minutes</v>
-      </c>
-      <c r="AH5" s="43" t="str">
-        <f>IF(INT(LEFT(AH$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AH$6,1)-SUM(LEFT(AH$4, 2), (MID(AH4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AH$6,1)-SUM(LEFT(AH$4, 2), (MID(AH4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AI5" s="37" t="str">
-        <f t="shared" ref="AI5:AJ5" si="8">IF(INT(LEFT(AI$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AI$6,1)-SUM(LEFT(AI$4, 2), (MID(AI4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AI$6,1)-SUM(LEFT(AI$4, 2), (MID(AI4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AJ5" s="37" t="str">
-        <f t="shared" si="8"/>
-        <v>3 hours 0 minutes</v>
-      </c>
-      <c r="AK5" s="46" t="str">
-        <f>IF(INT(LEFT(AK$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AK$6,1)-SUM(LEFT(AK$4, 2), (MID(AK4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AK$6,1)-SUM(LEFT(AK$4, 2), (MID(AK4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>5 hours 0 minutes</v>
-      </c>
-      <c r="AL5" s="47" t="str">
-        <f>IF(INT(LEFT(AL$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AL$6,1)-SUM(LEFT(AL$4, 2), (MID(AL4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AL$6,1)-SUM(LEFT(AL$4, 2), (MID(AL4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AM5" s="45" t="str">
-        <f t="shared" ref="AM5:AQ5" si="9">IF(INT(LEFT(AM$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AM$6,1)-SUM(LEFT(AM$4, 2), (MID(AM4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AM$6,1)-SUM(LEFT(AM$4, 2), (MID(AM4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AN5" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>4 hours 0 minutes</v>
-      </c>
-      <c r="AO5" s="43" t="str">
-        <f t="shared" si="9"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AP5" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AQ5" s="37" t="str">
-        <f t="shared" si="9"/>
-        <v>3 hours 0 minutes</v>
-      </c>
-      <c r="AR5" s="46" t="str">
-        <f t="shared" ref="AR5:AS5" si="10">IF(INT(LEFT(AR$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AR$6,1)-SUM(LEFT(AR$4, 2), (MID(AR4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AR$6,1)-SUM(LEFT(AR$4, 2), (MID(AR4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>5 hours 0 minutes</v>
-      </c>
-      <c r="AS5" s="47" t="str">
-        <f t="shared" si="10"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AT5" s="45" t="str">
-        <f t="shared" ref="AT5:AX5" si="11">IF(INT(LEFT(AT$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(AT$6,1)-SUM(LEFT(AT$4, 2), (MID(AT4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AT$6,1)-SUM(LEFT(AT$4, 2), (MID(AT4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AU5" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>4 hours 0 minutes</v>
-      </c>
-      <c r="AV5" s="43" t="str">
-        <f t="shared" si="11"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AW5" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="AX5" s="37" t="str">
-        <f t="shared" si="11"/>
-        <v>3 hours 0 minutes</v>
-      </c>
-      <c r="AY5" s="46" t="str">
-        <f t="shared" ref="AY5:AZ5" si="12">IF(INT(LEFT(AY$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(AY$6,1)-SUM(LEFT(AY$4, 2), (MID(AY4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(AY$6,1)-SUM(LEFT(AY$4, 2), (MID(AY4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>5 hours 0 minutes</v>
-      </c>
-      <c r="AZ5" s="47" t="str">
-        <f t="shared" si="12"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BA5" s="45" t="str">
-        <f t="shared" ref="BA5:BE5" si="13">IF(INT(LEFT(BA$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(BA$6,1)-SUM(LEFT(BA$4, 2), (MID(BA4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BA$6,1)-SUM(LEFT(BA$4, 2), (MID(BA4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BB5" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>4 hours 0 minutes</v>
-      </c>
-      <c r="BC5" s="43" t="str">
-        <f t="shared" si="13"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BD5" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BE5" s="37" t="str">
-        <f t="shared" si="13"/>
-        <v>3 hours 0 minutes</v>
-      </c>
-      <c r="BF5" s="46" t="str">
-        <f t="shared" ref="BF5:BG5" si="14">IF(INT(LEFT(BF$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(BF$6,1)-SUM(LEFT(BF$4, 2), (MID(BF4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BF$6,1)-SUM(LEFT(BF$4, 2), (MID(BF4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>5 hours 0 minutes</v>
-      </c>
-      <c r="BG5" s="47" t="str">
-        <f t="shared" si="14"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BH5" s="45" t="str">
-        <f t="shared" ref="BH5:BL5" si="15">IF(INT(LEFT(BH$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(BH$6,1)-SUM(LEFT(BH$4, 2), (MID(BH4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BH$6,1)-SUM(LEFT(BH$4, 2), (MID(BH4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BI5" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>4 hours 0 minutes</v>
-      </c>
-      <c r="BJ5" s="43" t="str">
-        <f t="shared" si="15"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BK5" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BL5" s="37" t="str">
-        <f t="shared" si="15"/>
-        <v>3 hours 0 minutes</v>
-      </c>
-      <c r="BM5" s="46" t="str">
-        <f t="shared" ref="BM5:BN5" si="16">IF(INT(LEFT(BM$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(BM$6,1)-SUM(LEFT(BM$4, 2), (MID(BM4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BM$6,1)-SUM(LEFT(BM$4, 2), (MID(BM4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>5 hours 0 minutes</v>
-      </c>
-      <c r="BN5" s="47" t="str">
-        <f t="shared" si="16"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BO5" s="45" t="str">
-        <f t="shared" ref="BO5:BS5" si="17">IF(INT(LEFT(BO$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(BO$6,1)-SUM(LEFT(BO$4, 2), (MID(BO4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BO$6,1)-SUM(LEFT(BO$4, 2), (MID(BO4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BP5" s="37" t="str">
-        <f t="shared" si="17"/>
-        <v>4 hours 0 minutes</v>
-      </c>
-      <c r="BQ5" s="43" t="str">
-        <f t="shared" si="17"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BR5" s="37" t="str">
-        <f t="shared" si="17"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BS5" s="37" t="str">
-        <f t="shared" si="17"/>
-        <v>3 hours 0 minutes</v>
-      </c>
-      <c r="BT5" s="46" t="str">
-        <f t="shared" ref="BT5:BU5" si="18">IF(INT(LEFT(BT$4, 2)) &gt;= 5, "Goal Met!", ROUND((LEFT(BT$6,1)-SUM(LEFT(BT$4, 2), (MID(BT4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BT$6,1)-SUM(LEFT(BT$4, 2), (MID(BT4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>5 hours 0 minutes</v>
-      </c>
-      <c r="BU5" s="47" t="str">
-        <f t="shared" si="18"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BV5" s="45" t="str">
-        <f t="shared" ref="BV5:BZ5" si="19">IF(INT(LEFT(BV$4, 2)) &gt;= 2, "Goal Met!", ROUND((LEFT(BV$6,1)-SUM(LEFT(BV$4, 2), (MID(BV4,10,2)/60))), 0) &amp; " hours " &amp; MOD((LEFT(BV$6,1)-SUM(LEFT(BV$4, 2), (MID(BV4,10,2)/60))) * 60, 60) &amp; " minutes")</f>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BW5" s="37" t="str">
-        <f t="shared" si="19"/>
-        <v>4 hours 0 minutes</v>
-      </c>
-      <c r="BX5" s="43" t="str">
-        <f t="shared" si="19"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BY5" s="37" t="str">
-        <f t="shared" si="19"/>
-        <v>2 hours 0 minutes</v>
-      </c>
-      <c r="BZ5" s="37" t="str">
-        <f t="shared" si="19"/>
-        <v>3 hours 0 minutes</v>
-      </c>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="47"/>
-      <c r="CC5" s="45"/>
-      <c r="CE5" s="43"/>
-      <c r="CH5" s="46"/>
-      <c r="CI5" s="47"/>
-      <c r="CJ5" s="45"/>
-      <c r="CL5" s="43"/>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="47"/>
-      <c r="CQ5" s="45"/>
-      <c r="CS5" s="43"/>
-      <c r="CV5" s="46"/>
-      <c r="CW5" s="47"/>
-      <c r="CX5" s="45"/>
-      <c r="CZ5" s="43"/>
-      <c r="DC5" s="46"/>
-      <c r="DD5" s="47"/>
-      <c r="DE5" s="45"/>
-      <c r="DF5" s="45"/>
-      <c r="DH5" s="43"/>
-      <c r="DK5" s="46"/>
-      <c r="DL5" s="47"/>
-      <c r="DM5" s="45"/>
-      <c r="DO5" s="43"/>
-      <c r="DR5" s="46"/>
-      <c r="DS5" s="47"/>
-      <c r="DT5" s="45"/>
-      <c r="DV5" s="43"/>
-      <c r="DY5" s="46"/>
-      <c r="DZ5" s="45"/>
-      <c r="EB5" s="43"/>
-      <c r="EE5" s="46"/>
-      <c r="EF5" s="47"/>
-      <c r="EG5" s="45"/>
-      <c r="EI5" s="43"/>
-      <c r="EL5" s="46"/>
-      <c r="EM5" s="47"/>
-      <c r="EN5" s="45"/>
-      <c r="EP5" s="43"/>
-      <c r="ES5" s="46"/>
-      <c r="ET5" s="47"/>
-      <c r="EU5" s="45"/>
-    </row>
-    <row r="6" spans="1:151" s="37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AL5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AO5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="AZ5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BC5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="BF5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="BG5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BI5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BJ5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="BM5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="BN5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="BT5" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="BU5" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="BV5" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="BW5" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="BX5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="BY5" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="BZ5" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="45"/>
+      <c r="CC5" s="36"/>
+      <c r="CH5" s="44"/>
+      <c r="CI5" s="45"/>
+      <c r="CJ5" s="36"/>
+      <c r="CO5" s="44"/>
+      <c r="CP5" s="45"/>
+      <c r="CQ5" s="36"/>
+      <c r="CV5" s="44"/>
+      <c r="CW5" s="45"/>
+      <c r="CX5" s="36"/>
+      <c r="DC5" s="44"/>
+      <c r="DD5" s="45"/>
+      <c r="DE5" s="36"/>
+      <c r="DF5" s="36"/>
+      <c r="DK5" s="44"/>
+      <c r="DL5" s="45"/>
+      <c r="DM5" s="36"/>
+      <c r="DR5" s="44"/>
+      <c r="DS5" s="45"/>
+      <c r="DT5" s="36"/>
+      <c r="DY5" s="44"/>
+      <c r="DZ5" s="36"/>
+      <c r="EE5" s="44"/>
+      <c r="EF5" s="45"/>
+      <c r="EG5" s="36"/>
+      <c r="EL5" s="44"/>
+      <c r="EM5" s="45"/>
+      <c r="EN5" s="36"/>
+      <c r="ES5" s="44"/>
+      <c r="ET5" s="45"/>
+      <c r="EU5" s="36"/>
+    </row>
+    <row r="6" spans="1:151" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="27">
         <v>45203</v>
@@ -2334,248 +2250,356 @@
       </c>
       <c r="H6" s="25"/>
       <c r="I6"/>
-      <c r="J6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="P6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="R6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="T6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="U6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="V6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="W6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="X6" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z6" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE6" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="AF6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG6" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="AH6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AK6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL6" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AN6" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="AO6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AQ6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS6" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="AT6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU6" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="AV6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AW6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="AX6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ6" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="BA6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="BB6" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="BC6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="BD6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG6" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="BH6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="BI6" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="BJ6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="BK6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="BL6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="BM6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="BN6" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="BO6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="BP6" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="BQ6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="BR6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="BS6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="BT6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="BU6" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="BV6" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="BW6" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="BX6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="BY6" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="BZ6" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="CA6" s="46"/>
-      <c r="CB6" s="47"/>
-      <c r="CC6" s="36"/>
-      <c r="CH6" s="46"/>
-      <c r="CI6" s="47"/>
-      <c r="CJ6" s="36"/>
-      <c r="CO6" s="46"/>
-      <c r="CP6" s="47"/>
-      <c r="CQ6" s="36"/>
-      <c r="CV6" s="46"/>
-      <c r="CW6" s="47"/>
-      <c r="CX6" s="36"/>
-      <c r="DC6" s="46"/>
-      <c r="DD6" s="47"/>
-      <c r="DE6" s="36"/>
-      <c r="DF6" s="36"/>
-      <c r="DK6" s="46"/>
-      <c r="DL6" s="47"/>
-      <c r="DM6" s="36"/>
-      <c r="DR6" s="46"/>
-      <c r="DS6" s="47"/>
-      <c r="DT6" s="36"/>
-      <c r="DY6" s="46"/>
-      <c r="DZ6" s="36"/>
-      <c r="EE6" s="46"/>
-      <c r="EF6" s="47"/>
-      <c r="EG6" s="36"/>
-      <c r="EL6" s="46"/>
-      <c r="EM6" s="47"/>
-      <c r="EN6" s="36"/>
-      <c r="ES6" s="46"/>
-      <c r="ET6" s="47"/>
-      <c r="EU6" s="36"/>
-    </row>
-    <row r="7" spans="1:151" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J6" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="46" t="str" cm="1">
+        <f t="array" ref="K6">INT((SUM(SUM(INT(LEFT($K$4:K$4, 2))), SUM(MID($K$4:K$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:K$4, 2))), SUM(MID($K$4:K$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>1 hours 40 minutes</v>
+      </c>
+      <c r="L6" s="37" t="str" cm="1">
+        <f t="array" ref="L6">INT((SUM(SUM(INT(LEFT($K$4:L$4, 2))), SUM(MID($K$4:L$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:L$4, 2))), SUM(MID($K$4:L$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>4 hours 33 minutes</v>
+      </c>
+      <c r="M6" s="37" t="str" cm="1">
+        <f t="array" ref="M6">INT((SUM(SUM(INT(LEFT($K$4:M$4, 2))), SUM(MID($K$4:M$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:M$4, 2))), SUM(MID($K$4:M$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>6 hours 53 minutes</v>
+      </c>
+      <c r="N6" s="37" t="str" cm="1">
+        <f t="array" ref="N6">INT((SUM(SUM(INT(LEFT($K$4:N$4, 2))), SUM(MID($K$4:N$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:N$4, 2))), SUM(MID($K$4:N$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>9 hours 49 minutes</v>
+      </c>
+      <c r="O6" s="47" t="str" cm="1">
+        <f t="array" ref="O6">INT((SUM(SUM(INT(LEFT($K$4:O$4, 2))), SUM(MID($K$4:O$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:O$4, 2))), SUM(MID($K$4:O$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>13 hours 41 minutes</v>
+      </c>
+      <c r="P6" s="48" t="str" cm="1">
+        <f t="array" ref="P6">INT((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>20 hours 9 minutes</v>
+      </c>
+      <c r="Q6" s="49" t="str" cm="1">
+        <f t="array" ref="Q6">INT((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>22 hours 47 minutes</v>
+      </c>
+      <c r="R6" s="46" t="str" cm="1">
+        <f t="array" ref="R6">INT((SUM(SUM(INT(LEFT($K$4:R$4, 2))), SUM(MID($K$4:R$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:R$4, 2))), SUM(MID($K$4:R$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>26 hours 20 minutes</v>
+      </c>
+      <c r="S6" s="37" t="str" cm="1">
+        <f t="array" ref="S6">INT((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>32 hours 9.99999999999977 minutes</v>
+      </c>
+      <c r="T6" s="37" t="str" cm="1">
+        <f t="array" ref="T6">INT((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>36 hours 33 minutes</v>
+      </c>
+      <c r="U6" s="37" t="str" cm="1">
+        <f t="array" ref="U6">INT((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>40 hours 8 minutes</v>
+      </c>
+      <c r="V6" s="47" t="str" cm="1">
+        <f t="array" ref="V6">INT((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>44 hours 43 minutes</v>
+      </c>
+      <c r="W6" s="48" t="str" cm="1">
+        <f t="array" ref="W6">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>51 hours 43 minutes</v>
+      </c>
+      <c r="X6" s="49" t="str" cm="1">
+        <f t="array" ref="X6">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>55 hours 8 minutes</v>
+      </c>
+      <c r="Y6" s="46" t="str" cm="1">
+        <f t="array" ref="Y6">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>58 hours 58 minutes</v>
+      </c>
+      <c r="Z6" s="37" t="str" cm="1">
+        <f t="array" ref="Z6">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>63 hours 8 minutes</v>
+      </c>
+      <c r="AA6" s="37" t="str" cm="1">
+        <f t="array" ref="AA6">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>65 hours 48 minutes</v>
+      </c>
+      <c r="AB6" s="37" t="str" cm="1">
+        <f t="array" ref="AB6">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AC6" s="47" t="str" cm="1">
+        <f t="array" ref="AC6">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AD6" s="48" t="str" cm="1">
+        <f t="array" ref="AD6">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AE6" s="49" t="str" cm="1">
+        <f t="array" ref="AE6">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AF6" s="46" t="str" cm="1">
+        <f t="array" ref="AF6">INT((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AG6" s="37" t="str" cm="1">
+        <f t="array" ref="AG6">INT((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AH6" s="37" t="str" cm="1">
+        <f t="array" ref="AH6">INT((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AI6" s="37" t="str" cm="1">
+        <f t="array" ref="AI6">INT((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AJ6" s="47" t="str" cm="1">
+        <f t="array" ref="AJ6">INT((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AK6" s="48" t="str" cm="1">
+        <f t="array" ref="AK6">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AL6" s="49" t="str" cm="1">
+        <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AM6" s="46" t="str" cm="1">
+        <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AN6" s="37" t="str" cm="1">
+        <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AO6" s="37" t="str" cm="1">
+        <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AP6" s="37" t="str" cm="1">
+        <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AQ6" s="47" t="str" cm="1">
+        <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AR6" s="48" t="str" cm="1">
+        <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AS6" s="49" t="str" cm="1">
+        <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AT6" s="46" t="str" cm="1">
+        <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AU6" s="37" t="str" cm="1">
+        <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AV6" s="37" t="str" cm="1">
+        <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AW6" s="37" t="str" cm="1">
+        <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AX6" s="47" t="str" cm="1">
+        <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AY6" s="48" t="str" cm="1">
+        <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="AZ6" s="49" t="str" cm="1">
+        <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BA6" s="46" t="str" cm="1">
+        <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BB6" s="37" t="str" cm="1">
+        <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BC6" s="37" t="str" cm="1">
+        <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BD6" s="37" t="str" cm="1">
+        <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BE6" s="47" t="str" cm="1">
+        <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BF6" s="48" t="str" cm="1">
+        <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BG6" s="49" t="str" cm="1">
+        <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BH6" s="46" t="str" cm="1">
+        <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BI6" s="37" t="str" cm="1">
+        <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BJ6" s="37" t="str" cm="1">
+        <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BK6" s="37" t="str" cm="1">
+        <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BL6" s="47" t="str" cm="1">
+        <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BM6" s="48" t="str" cm="1">
+        <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BN6" s="49" t="str" cm="1">
+        <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BO6" s="46" t="str" cm="1">
+        <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BP6" s="37" t="str" cm="1">
+        <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BQ6" s="37" t="str" cm="1">
+        <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BR6" s="37" t="str" cm="1">
+        <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BS6" s="47" t="str" cm="1">
+        <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BT6" s="48" t="str" cm="1">
+        <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BU6" s="49" t="str" cm="1">
+        <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BV6" s="46" t="str" cm="1">
+        <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BW6" s="37" t="str" cm="1">
+        <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BX6" s="37" t="str" cm="1">
+        <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BY6" s="37" t="str" cm="1">
+        <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="BZ6" s="47" t="str" cm="1">
+        <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
+        <v>68 hours 9.00000000000045 minutes</v>
+      </c>
+      <c r="CA6" s="48"/>
+      <c r="CB6" s="49"/>
+      <c r="CC6" s="46"/>
+      <c r="CD6" s="37"/>
+      <c r="CE6" s="37"/>
+      <c r="CF6" s="37"/>
+      <c r="CG6" s="47"/>
+      <c r="CH6" s="48"/>
+      <c r="CI6" s="49"/>
+      <c r="CJ6" s="46"/>
+      <c r="CK6" s="37"/>
+      <c r="CL6" s="37"/>
+      <c r="CM6" s="37"/>
+      <c r="CN6" s="47"/>
+      <c r="CO6" s="48"/>
+      <c r="CP6" s="49"/>
+      <c r="CQ6" s="46"/>
+      <c r="CR6" s="37"/>
+      <c r="CS6" s="37"/>
+      <c r="CT6" s="37"/>
+      <c r="CU6" s="47"/>
+      <c r="CV6" s="48"/>
+      <c r="CW6" s="49"/>
+      <c r="CX6" s="46"/>
+      <c r="CY6" s="37"/>
+      <c r="CZ6" s="37"/>
+      <c r="DA6" s="37"/>
+      <c r="DB6" s="47"/>
+      <c r="DC6" s="48"/>
+      <c r="DD6" s="49"/>
+      <c r="DE6" s="46"/>
+      <c r="DF6" s="46"/>
+      <c r="DG6" s="37"/>
+      <c r="DH6" s="37"/>
+      <c r="DI6" s="37"/>
+      <c r="DJ6" s="47"/>
+      <c r="DK6" s="48"/>
+      <c r="DL6" s="49"/>
+      <c r="DM6" s="46"/>
+      <c r="DN6" s="37"/>
+      <c r="DO6" s="37"/>
+      <c r="DP6" s="37"/>
+      <c r="DQ6" s="47"/>
+      <c r="DR6" s="48"/>
+      <c r="DS6" s="49"/>
+      <c r="DT6" s="46"/>
+      <c r="DU6" s="37"/>
+      <c r="DV6" s="37"/>
+      <c r="DW6" s="37"/>
+      <c r="DX6" s="47"/>
+      <c r="DY6" s="48"/>
+      <c r="DZ6" s="46"/>
+      <c r="EA6" s="37"/>
+      <c r="EB6" s="37"/>
+      <c r="EC6" s="37"/>
+      <c r="ED6" s="47"/>
+      <c r="EE6" s="48"/>
+      <c r="EF6" s="49"/>
+      <c r="EG6" s="46"/>
+      <c r="EH6" s="37"/>
+      <c r="EI6" s="37"/>
+      <c r="EJ6" s="37"/>
+      <c r="EK6" s="47"/>
+      <c r="EL6" s="48"/>
+      <c r="EM6" s="49"/>
+      <c r="EN6" s="46"/>
+      <c r="EO6" s="37"/>
+      <c r="EP6" s="37"/>
+      <c r="EQ6" s="37"/>
+      <c r="ER6" s="47"/>
+      <c r="ES6" s="48"/>
+      <c r="ET6" s="49"/>
+      <c r="EU6" s="46"/>
+    </row>
+    <row r="7" spans="1:151" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="27">
         <v>45204</v>
@@ -2587,7 +2611,7 @@
         <v>0.5180555555555556</v>
       </c>
       <c r="E7" s="17">
-        <f t="shared" ref="E7:E30" si="20">IF(OR(C7=0, D7=0),"", D7-C7)</f>
+        <f t="shared" ref="E7:E70" si="5">IF(OR(C7=0, D7=0),"", D7-C7)</f>
         <v>0.12222222222222229</v>
       </c>
       <c r="F7" s="15" t="str">
@@ -2601,359 +2625,97 @@
         <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="48" t="str" cm="1">
-        <f t="array" ref="K7">INT((SUM(SUM(INT(LEFT($K$4:K$4, 2))), SUM(MID($K$4:K$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:K$4, 2))), SUM(MID($K$4:K$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>1 hours 40 minutes</v>
-      </c>
-      <c r="L7" s="37" t="str" cm="1">
-        <f t="array" ref="L7">INT((SUM(SUM(INT(LEFT($K$4:L$4, 2))), SUM(MID($K$4:L$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:L$4, 2))), SUM(MID($K$4:L$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>4 hours 33 minutes</v>
-      </c>
-      <c r="M7" s="37" t="str" cm="1">
-        <f t="array" ref="M7">INT((SUM(SUM(INT(LEFT($K$4:M$4, 2))), SUM(MID($K$4:M$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:M$4, 2))), SUM(MID($K$4:M$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>6 hours 53 minutes</v>
-      </c>
-      <c r="N7" s="37" t="str" cm="1">
-        <f t="array" ref="N7">INT((SUM(SUM(INT(LEFT($K$4:N$4, 2))), SUM(MID($K$4:N$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:N$4, 2))), SUM(MID($K$4:N$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>9 hours 49 minutes</v>
-      </c>
-      <c r="O7" s="49" t="str" cm="1">
-        <f t="array" ref="O7">INT((SUM(SUM(INT(LEFT($K$4:O$4, 2))), SUM(MID($K$4:O$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:O$4, 2))), SUM(MID($K$4:O$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>13 hours 41 minutes</v>
-      </c>
-      <c r="P7" s="50" t="str" cm="1">
-        <f t="array" ref="P7">INT((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:P$4, 2))), SUM(MID($K$4:P$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>20 hours 9 minutes</v>
-      </c>
-      <c r="Q7" s="51" t="str" cm="1">
-        <f t="array" ref="Q7">INT((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Q$4, 2))), SUM(MID($K$4:Q$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>22 hours 47 minutes</v>
-      </c>
-      <c r="R7" s="48" t="str" cm="1">
-        <f t="array" ref="R7">INT((SUM(SUM(INT(LEFT($K$4:R$4, 2))), SUM(MID($K$4:R$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:R$4, 2))), SUM(MID($K$4:R$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>26 hours 20 minutes</v>
-      </c>
-      <c r="S7" s="37" t="str" cm="1">
-        <f t="array" ref="S7">INT((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:S$4, 2))), SUM(MID($K$4:S$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>32 hours 9.99999999999977 minutes</v>
-      </c>
-      <c r="T7" s="37" t="str" cm="1">
-        <f t="array" ref="T7">INT((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:T$4, 2))), SUM(MID($K$4:T$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>36 hours 33 minutes</v>
-      </c>
-      <c r="U7" s="37" t="str" cm="1">
-        <f t="array" ref="U7">INT((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:U$4, 2))), SUM(MID($K$4:U$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>40 hours 8 minutes</v>
-      </c>
-      <c r="V7" s="49" t="str" cm="1">
-        <f t="array" ref="V7">INT((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:V$4, 2))), SUM(MID($K$4:V$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>44 hours 43 minutes</v>
-      </c>
-      <c r="W7" s="50" t="str" cm="1">
-        <f t="array" ref="W7">INT((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:W$4, 2))), SUM(MID($K$4:W$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>51 hours 43 minutes</v>
-      </c>
-      <c r="X7" s="51" t="str" cm="1">
-        <f t="array" ref="X7">INT((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:X$4, 2))), SUM(MID($K$4:X$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>55 hours 8 minutes</v>
-      </c>
-      <c r="Y7" s="48" t="str" cm="1">
-        <f t="array" ref="Y7">INT((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Y$4, 2))), SUM(MID($K$4:Y$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>58 hours 58 minutes</v>
-      </c>
-      <c r="Z7" s="37" t="str" cm="1">
-        <f t="array" ref="Z7">INT((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:Z$4, 2))), SUM(MID($K$4:Z$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>63 hours 8 minutes</v>
-      </c>
-      <c r="AA7" s="37" t="str" cm="1">
-        <f t="array" ref="AA7">INT((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AA$4, 2))), SUM(MID($K$4:AA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>65 hours 48 minutes</v>
-      </c>
-      <c r="AB7" s="37" t="str" cm="1">
-        <f t="array" ref="AB7">INT((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AB$4, 2))), SUM(MID($K$4:AB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AC7" s="49" t="str" cm="1">
-        <f t="array" ref="AC7">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AD7" s="50" t="str" cm="1">
-        <f t="array" ref="AD7">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AE7" s="51" t="str" cm="1">
-        <f t="array" ref="AE7">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AF7" s="48" t="str" cm="1">
-        <f t="array" ref="AF7">INT((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AG7" s="37" t="str" cm="1">
-        <f t="array" ref="AG7">INT((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AH7" s="37" t="str" cm="1">
-        <f t="array" ref="AH7">INT((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AI7" s="37" t="str" cm="1">
-        <f t="array" ref="AI7">INT((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AJ7" s="49" t="str" cm="1">
-        <f t="array" ref="AJ7">INT((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AK7" s="50" t="str" cm="1">
-        <f t="array" ref="AK7">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AL7" s="51" t="str" cm="1">
-        <f t="array" ref="AL7">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AM7" s="48" t="str" cm="1">
-        <f t="array" ref="AM7">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AN7" s="37" t="str" cm="1">
-        <f t="array" ref="AN7">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AO7" s="37" t="str" cm="1">
-        <f t="array" ref="AO7">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AP7" s="37" t="str" cm="1">
-        <f t="array" ref="AP7">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AQ7" s="49" t="str" cm="1">
-        <f t="array" ref="AQ7">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AR7" s="50" t="str" cm="1">
-        <f t="array" ref="AR7">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AS7" s="51" t="str" cm="1">
-        <f t="array" ref="AS7">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AT7" s="48" t="str" cm="1">
-        <f t="array" ref="AT7">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AU7" s="37" t="str" cm="1">
-        <f t="array" ref="AU7">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AV7" s="37" t="str" cm="1">
-        <f t="array" ref="AV7">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AW7" s="37" t="str" cm="1">
-        <f t="array" ref="AW7">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AX7" s="49" t="str" cm="1">
-        <f t="array" ref="AX7">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AY7" s="50" t="str" cm="1">
-        <f t="array" ref="AY7">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="AZ7" s="51" t="str" cm="1">
-        <f t="array" ref="AZ7">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BA7" s="48" t="str" cm="1">
-        <f t="array" ref="BA7">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BB7" s="37" t="str" cm="1">
-        <f t="array" ref="BB7">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BC7" s="37" t="str" cm="1">
-        <f t="array" ref="BC7">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BD7" s="37" t="str" cm="1">
-        <f t="array" ref="BD7">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BE7" s="49" t="str" cm="1">
-        <f t="array" ref="BE7">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BF7" s="50" t="str" cm="1">
-        <f t="array" ref="BF7">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BG7" s="51" t="str" cm="1">
-        <f t="array" ref="BG7">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BH7" s="48" t="str" cm="1">
-        <f t="array" ref="BH7">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BI7" s="37" t="str" cm="1">
-        <f t="array" ref="BI7">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BJ7" s="37" t="str" cm="1">
-        <f t="array" ref="BJ7">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BK7" s="37" t="str" cm="1">
-        <f t="array" ref="BK7">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BL7" s="49" t="str" cm="1">
-        <f t="array" ref="BL7">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BM7" s="50" t="str" cm="1">
-        <f t="array" ref="BM7">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BN7" s="51" t="str" cm="1">
-        <f t="array" ref="BN7">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BO7" s="48" t="str" cm="1">
-        <f t="array" ref="BO7">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BP7" s="37" t="str" cm="1">
-        <f t="array" ref="BP7">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BQ7" s="37" t="str" cm="1">
-        <f t="array" ref="BQ7">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BR7" s="37" t="str" cm="1">
-        <f t="array" ref="BR7">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BS7" s="49" t="str" cm="1">
-        <f t="array" ref="BS7">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BT7" s="50" t="str" cm="1">
-        <f t="array" ref="BT7">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BU7" s="51" t="str" cm="1">
-        <f t="array" ref="BU7">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BV7" s="48" t="str" cm="1">
-        <f t="array" ref="BV7">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BW7" s="37" t="str" cm="1">
-        <f t="array" ref="BW7">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BX7" s="37" t="str" cm="1">
-        <f t="array" ref="BX7">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BY7" s="37" t="str" cm="1">
-        <f t="array" ref="BY7">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="BZ7" s="49" t="str" cm="1">
-        <f t="array" ref="BZ7">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>66 hours 39.0000000000005 minutes</v>
-      </c>
-      <c r="CA7" s="50"/>
-      <c r="CB7" s="51"/>
-      <c r="CC7" s="48"/>
-      <c r="CD7" s="37"/>
-      <c r="CE7" s="37"/>
-      <c r="CF7" s="37"/>
-      <c r="CG7" s="49"/>
-      <c r="CH7" s="50"/>
-      <c r="CI7" s="51"/>
-      <c r="CJ7" s="48"/>
-      <c r="CK7" s="37"/>
-      <c r="CL7" s="37"/>
-      <c r="CM7" s="37"/>
-      <c r="CN7" s="49"/>
-      <c r="CO7" s="50"/>
-      <c r="CP7" s="51"/>
-      <c r="CQ7" s="48"/>
-      <c r="CR7" s="37"/>
-      <c r="CS7" s="37"/>
-      <c r="CT7" s="37"/>
-      <c r="CU7" s="49"/>
-      <c r="CV7" s="50"/>
-      <c r="CW7" s="51"/>
-      <c r="CX7" s="48"/>
-      <c r="CY7" s="37"/>
-      <c r="CZ7" s="37"/>
-      <c r="DA7" s="37"/>
-      <c r="DB7" s="49"/>
-      <c r="DC7" s="50"/>
-      <c r="DD7" s="51"/>
-      <c r="DE7" s="48"/>
-      <c r="DF7" s="48"/>
-      <c r="DG7" s="37"/>
-      <c r="DH7" s="37"/>
-      <c r="DI7" s="37"/>
-      <c r="DJ7" s="49"/>
-      <c r="DK7" s="50"/>
-      <c r="DL7" s="51"/>
-      <c r="DM7" s="48"/>
-      <c r="DN7" s="37"/>
-      <c r="DO7" s="37"/>
-      <c r="DP7" s="37"/>
-      <c r="DQ7" s="49"/>
-      <c r="DR7" s="50"/>
-      <c r="DS7" s="51"/>
-      <c r="DT7" s="48"/>
-      <c r="DU7" s="37"/>
-      <c r="DV7" s="37"/>
-      <c r="DW7" s="37"/>
-      <c r="DX7" s="49"/>
-      <c r="DY7" s="50"/>
-      <c r="DZ7" s="48"/>
-      <c r="EA7" s="37"/>
-      <c r="EB7" s="37"/>
-      <c r="EC7" s="37"/>
-      <c r="ED7" s="49"/>
-      <c r="EE7" s="50"/>
-      <c r="EF7" s="51"/>
-      <c r="EG7" s="48"/>
-      <c r="EH7" s="37"/>
-      <c r="EI7" s="37"/>
-      <c r="EJ7" s="37"/>
-      <c r="EK7" s="49"/>
-      <c r="EL7" s="50"/>
-      <c r="EM7" s="51"/>
-      <c r="EN7" s="48"/>
-      <c r="EO7" s="37"/>
-      <c r="EP7" s="37"/>
-      <c r="EQ7" s="37"/>
-      <c r="ER7" s="49"/>
-      <c r="ES7" s="50"/>
-      <c r="ET7" s="51"/>
-      <c r="EU7" s="48"/>
-    </row>
-    <row r="8" spans="1:151" s="39" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A8"/>
+        <v>77</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y7" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD7" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE7" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF7" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG7" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH7" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI7" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK7" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL7" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:151" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <v>45205</v>
       </c>
@@ -2964,7 +2726,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="E8" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>0.16111111111111109</v>
       </c>
       <c r="F8" s="15" t="str">
@@ -2972,103 +2734,16 @@
         <v>13 hours 41 minutes</v>
       </c>
       <c r="G8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="25" t="s">
-        <v>27</v>
-      </c>
       <c r="I8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="R8" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="S8" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="V8" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="W8" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="X8" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z8" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA8" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB8" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC8" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="AD8" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE8" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF8" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG8" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH8" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="AI8" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ8" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK8" s="39" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL8" s="39" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:151" ht="57.6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:151" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>45206</v>
       </c>
@@ -3079,7 +2754,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>0.18263888888888891</v>
       </c>
       <c r="F9" s="15" t="str">
@@ -3087,16 +2762,16 @@
         <v>18 hours 4 minutes</v>
       </c>
       <c r="G9" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>29</v>
-      </c>
       <c r="I9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:151" ht="28.8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:151" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>45206</v>
       </c>
@@ -3107,7 +2782,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>8.6805555555555469E-2</v>
       </c>
       <c r="F10" s="15" t="str">
@@ -3115,16 +2790,16 @@
         <v>20 hours 9 minutes</v>
       </c>
       <c r="G10" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="I10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:151" ht="72" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:151" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>45207</v>
       </c>
@@ -3143,16 +2818,16 @@
         <v>21 hours 34 minutes</v>
       </c>
       <c r="G11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="25" t="s">
-        <v>33</v>
-      </c>
       <c r="I11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:151" ht="57.6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:151" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>45207</v>
       </c>
@@ -3163,7 +2838,7 @@
         <v>0.89444444444444438</v>
       </c>
       <c r="E12" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>5.0694444444444375E-2</v>
       </c>
       <c r="F12" s="15" t="str">
@@ -3171,16 +2846,16 @@
         <v>22 hours 47 minutes</v>
       </c>
       <c r="G12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="25" t="s">
-        <v>35</v>
-      </c>
       <c r="I12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:151" ht="28.8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:151" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>45208</v>
       </c>
@@ -3191,7 +2866,7 @@
         <v>0.62847222222222221</v>
       </c>
       <c r="E13" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>1.736111111111116E-2</v>
       </c>
       <c r="F13" s="15" t="str">
@@ -3199,16 +2874,16 @@
         <v>23 hours 12 minutes</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="52" t="s">
         <v>43</v>
       </c>
+      <c r="H13" s="50" t="s">
+        <v>42</v>
+      </c>
       <c r="I13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:151" ht="86.4" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:151" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>45208</v>
       </c>
@@ -3219,7 +2894,7 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="E14" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>0.13055555555555554</v>
       </c>
       <c r="F14" s="15" t="str">
@@ -3227,16 +2902,16 @@
         <v>2 hours 20 minutes</v>
       </c>
       <c r="G14" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="25" t="s">
-        <v>46</v>
-      </c>
       <c r="I14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:151" ht="100.8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:151" ht="120" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>45209</v>
       </c>
@@ -3247,7 +2922,7 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>0.13541666666666669</v>
       </c>
       <c r="F15" s="15" t="str">
@@ -3255,16 +2930,16 @@
         <v>5 hours 35 minutes</v>
       </c>
       <c r="G15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="25" t="s">
-        <v>56</v>
-      </c>
       <c r="I15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:151" ht="28.8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:151" ht="105" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -3275,7 +2950,7 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>0.10763888888888895</v>
       </c>
       <c r="F16" s="15" t="str">
@@ -3283,10 +2958,13 @@
         <v>8 hours 10 minutes</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <v>45210</v>
       </c>
@@ -3297,7 +2975,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="E17" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>9.3750000000000056E-2</v>
       </c>
       <c r="F17" s="15" t="str">
@@ -3305,13 +2983,10 @@
         <v>10 hours 25 minutes</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="53" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <v>45210</v>
       </c>
@@ -3322,7 +2997,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="E18" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>8.8888888888888906E-2</v>
       </c>
       <c r="F18" s="15" t="str">
@@ -3330,16 +3005,16 @@
         <v>12 hours 33 minutes</v>
       </c>
       <c r="G18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="25" t="s">
-        <v>61</v>
-      </c>
       <c r="I18" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>45211</v>
       </c>
@@ -3350,7 +3025,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="E19" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>7.6388888888888784E-2</v>
       </c>
       <c r="F19" s="15" t="str">
@@ -3358,16 +3033,16 @@
         <v>14 hours 23 minutes</v>
       </c>
       <c r="G19" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="25" t="s">
-        <v>63</v>
-      </c>
       <c r="I19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <v>45211</v>
       </c>
@@ -3386,16 +3061,16 @@
         <v>16 hours 8 minutes</v>
       </c>
       <c r="G20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="25" t="s">
-        <v>65</v>
-      </c>
       <c r="I20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <v>45212</v>
       </c>
@@ -3406,7 +3081,7 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="E21" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="F21" s="15" t="str">
@@ -3414,10 +3089,10 @@
         <v>18 hours 48 minutes</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <v>45212</v>
       </c>
@@ -3428,7 +3103,7 @@
         <v>0.90277777777777779</v>
       </c>
       <c r="E22" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>7.986111111111116E-2</v>
       </c>
       <c r="F22" s="15" t="str">
@@ -3436,16 +3111,16 @@
         <v>20 hours 43 minutes</v>
       </c>
       <c r="G22" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="H22" s="25" t="s">
-        <v>68</v>
-      </c>
       <c r="I22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <v>45213</v>
       </c>
@@ -3456,7 +3131,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E23" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F23" s="15" t="str">
@@ -3464,16 +3139,16 @@
         <v>3 hours 43 minutes</v>
       </c>
       <c r="G23" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="25" t="s">
-        <v>70</v>
-      </c>
       <c r="I23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>45214</v>
       </c>
@@ -3484,7 +3159,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="E24" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>0.14236111111111105</v>
       </c>
       <c r="F24" s="15" t="str">
@@ -3492,16 +3167,16 @@
         <v>7 hours 8 minutes</v>
       </c>
       <c r="G24" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>72</v>
-      </c>
       <c r="I24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <v>45215</v>
       </c>
@@ -3512,7 +3187,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="E25" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>0.15972222222222232</v>
       </c>
       <c r="F25" s="15" t="str">
@@ -3520,16 +3195,16 @@
         <v>10 hours 58 minutes</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <v>45216</v>
       </c>
@@ -3540,7 +3215,7 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="E26" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>9.027777777777779E-2</v>
       </c>
       <c r="F26" s="15" t="str">
@@ -3548,10 +3223,10 @@
         <v>13 hours 8 minutes</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <v>45216</v>
       </c>
@@ -3562,7 +3237,7 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="E27" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="F27" s="15" t="str">
@@ -3570,13 +3245,16 @@
         <v>15 hours 8 minutes</v>
       </c>
       <c r="G27" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="H27" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J27" s="53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <v>45217</v>
       </c>
@@ -3587,7 +3265,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="E28" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>0.11111111111111105</v>
       </c>
       <c r="F28" s="15" t="str">
@@ -3595,16 +3273,13 @@
         <v>17 hours 48 minutes</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28" s="55" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <v>45218</v>
       </c>
@@ -3615,7 +3290,7 @@
         <v>0.45902777777777781</v>
       </c>
       <c r="E29" s="17">
-        <f t="shared" si="20"/>
+        <f t="shared" si="5"/>
         <v>3.5416666666666707E-2</v>
       </c>
       <c r="F29" s="15" t="str">
@@ -3623,19 +3298,919 @@
         <v>18 hours 39 minutes</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="E30" s="17" t="str">
-        <f t="shared" si="20"/>
-        <v/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B30" s="27">
+        <v>45218</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D30" s="12">
+        <v>0.5625</v>
+      </c>
+      <c r="E30" s="17">
+        <f t="shared" si="5"/>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="F30" s="15" t="str">
         <f>IF(E30="","",_xlfn.CONCAT(HOUR(SUM($E$4:E30))," hours ",MINUTE(SUM($E$4:E30))," minutes"))</f>
+        <v>19 hours 9 minutes</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31" s="27">
+        <v>45218</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="D31" s="12">
+        <v>0.66319444444444442</v>
+      </c>
+      <c r="E31" s="17">
+        <f t="shared" si="5"/>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="F31" s="15" t="str">
+        <f>IF(E31="","",_xlfn.CONCAT(HOUR(SUM($E$4:E31))," hours ",MINUTE(SUM($E$4:E31))," minutes"))</f>
+        <v>20 hours 9 minutes</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F32" s="15" t="str">
+        <f>IF(E32="","",_xlfn.CONCAT(HOUR(SUM($E$4:E32))," hours ",MINUTE(SUM($E$4:E32))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F33" s="15" t="str">
+        <f>IF(E33="","",_xlfn.CONCAT(HOUR(SUM($E$4:E33))," hours ",MINUTE(SUM($E$4:E33))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E34" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F34" s="15" t="str">
+        <f>IF(E34="","",_xlfn.CONCAT(HOUR(SUM($E$4:E34))," hours ",MINUTE(SUM($E$4:E34))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F35" s="15" t="str">
+        <f>IF(E35="","",_xlfn.CONCAT(HOUR(SUM($E$4:E35))," hours ",MINUTE(SUM($E$4:E35))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F36" s="15" t="str">
+        <f>IF(E36="","",_xlfn.CONCAT(HOUR(SUM($E$4:E36))," hours ",MINUTE(SUM($E$4:E36))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E37" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F37" s="15" t="str">
+        <f>IF(E37="","",_xlfn.CONCAT(HOUR(SUM($E$4:E37))," hours ",MINUTE(SUM($E$4:E37))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E38" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F38" s="15" t="str">
+        <f>IF(E38="","",_xlfn.CONCAT(HOUR(SUM($E$4:E38))," hours ",MINUTE(SUM($E$4:E38))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E39" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F39" s="15" t="str">
+        <f>IF(E39="","",_xlfn.CONCAT(HOUR(SUM($E$4:E39))," hours ",MINUTE(SUM($E$4:E39))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F40" s="15" t="str">
+        <f>IF(E40="","",_xlfn.CONCAT(HOUR(SUM($E$4:E40))," hours ",MINUTE(SUM($E$4:E40))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F41" s="15" t="str">
+        <f>IF(E41="","",_xlfn.CONCAT(HOUR(SUM($E$4:E41))," hours ",MINUTE(SUM($E$4:E41))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F42" s="15" t="str">
+        <f>IF(E42="","",_xlfn.CONCAT(HOUR(SUM($E$4:E42))," hours ",MINUTE(SUM($E$4:E42))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F43" s="15" t="str">
+        <f>IF(E43="","",_xlfn.CONCAT(HOUR(SUM($E$4:E43))," hours ",MINUTE(SUM($E$4:E43))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E44" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F44" s="15" t="str">
+        <f>IF(E44="","",_xlfn.CONCAT(HOUR(SUM($E$4:E44))," hours ",MINUTE(SUM($E$4:E44))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E45" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F45" s="15" t="str">
+        <f>IF(E45="","",_xlfn.CONCAT(HOUR(SUM($E$4:E45))," hours ",MINUTE(SUM($E$4:E45))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F46" s="15" t="str">
+        <f>IF(E46="","",_xlfn.CONCAT(HOUR(SUM($E$4:E46))," hours ",MINUTE(SUM($E$4:E46))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E47" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F47" s="15" t="str">
+        <f>IF(E47="","",_xlfn.CONCAT(HOUR(SUM($E$4:E47))," hours ",MINUTE(SUM($E$4:E47))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E48" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F48" s="15" t="str">
+        <f>IF(E48="","",_xlfn.CONCAT(HOUR(SUM($E$4:E48))," hours ",MINUTE(SUM($E$4:E48))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F49" s="15" t="str">
+        <f>IF(E49="","",_xlfn.CONCAT(HOUR(SUM($E$4:E49))," hours ",MINUTE(SUM($E$4:E49))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E50" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F50" s="15" t="str">
+        <f>IF(E50="","",_xlfn.CONCAT(HOUR(SUM($E$4:E50))," hours ",MINUTE(SUM($E$4:E50))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E51" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F51" s="15" t="str">
+        <f>IF(E51="","",_xlfn.CONCAT(HOUR(SUM($E$4:E51))," hours ",MINUTE(SUM($E$4:E51))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E52" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F52" s="15" t="str">
+        <f>IF(E52="","",_xlfn.CONCAT(HOUR(SUM($E$4:E52))," hours ",MINUTE(SUM($E$4:E52))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E53" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F53" s="15" t="str">
+        <f>IF(E53="","",_xlfn.CONCAT(HOUR(SUM($E$4:E53))," hours ",MINUTE(SUM($E$4:E53))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E54" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F54" s="15" t="str">
+        <f>IF(E54="","",_xlfn.CONCAT(HOUR(SUM($E$4:E54))," hours ",MINUTE(SUM($E$4:E54))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E55" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F55" s="15" t="str">
+        <f>IF(E55="","",_xlfn.CONCAT(HOUR(SUM($E$4:E55))," hours ",MINUTE(SUM($E$4:E55))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E56" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F56" s="15" t="str">
+        <f>IF(E56="","",_xlfn.CONCAT(HOUR(SUM($E$4:E56))," hours ",MINUTE(SUM($E$4:E56))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E57" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F57" s="15" t="str">
+        <f>IF(E57="","",_xlfn.CONCAT(HOUR(SUM($E$4:E57))," hours ",MINUTE(SUM($E$4:E57))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E58" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F58" s="15" t="str">
+        <f>IF(E58="","",_xlfn.CONCAT(HOUR(SUM($E$4:E58))," hours ",MINUTE(SUM($E$4:E58))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E59" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F59" s="15" t="str">
+        <f>IF(E59="","",_xlfn.CONCAT(HOUR(SUM($E$4:E59))," hours ",MINUTE(SUM($E$4:E59))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E60" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F60" s="15" t="str">
+        <f>IF(E60="","",_xlfn.CONCAT(HOUR(SUM($E$4:E60))," hours ",MINUTE(SUM($E$4:E60))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E61" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F61" s="15" t="str">
+        <f>IF(E61="","",_xlfn.CONCAT(HOUR(SUM($E$4:E61))," hours ",MINUTE(SUM($E$4:E61))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E62" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F62" s="15" t="str">
+        <f>IF(E62="","",_xlfn.CONCAT(HOUR(SUM($E$4:E62))," hours ",MINUTE(SUM($E$4:E62))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E63" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F63" s="15" t="str">
+        <f>IF(E63="","",_xlfn.CONCAT(HOUR(SUM($E$4:E63))," hours ",MINUTE(SUM($E$4:E63))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E64" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F64" s="15" t="str">
+        <f>IF(E64="","",_xlfn.CONCAT(HOUR(SUM($E$4:E64))," hours ",MINUTE(SUM($E$4:E64))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F65" s="15" t="str">
+        <f>IF(E65="","",_xlfn.CONCAT(HOUR(SUM($E$4:E65))," hours ",MINUTE(SUM($E$4:E65))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F66" s="15" t="str">
+        <f>IF(E66="","",_xlfn.CONCAT(HOUR(SUM($E$4:E66))," hours ",MINUTE(SUM($E$4:E66))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F67" s="15" t="str">
+        <f>IF(E67="","",_xlfn.CONCAT(HOUR(SUM($E$4:E67))," hours ",MINUTE(SUM($E$4:E67))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F68" s="15" t="str">
+        <f>IF(E68="","",_xlfn.CONCAT(HOUR(SUM($E$4:E68))," hours ",MINUTE(SUM($E$4:E68))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F69" s="15" t="str">
+        <f>IF(E69="","",_xlfn.CONCAT(HOUR(SUM($E$4:E69))," hours ",MINUTE(SUM($E$4:E69))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="17" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="F70" s="15" t="str">
+        <f>IF(E70="","",_xlfn.CONCAT(HOUR(SUM($E$4:E70))," hours ",MINUTE(SUM($E$4:E70))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="17" t="str">
+        <f t="shared" ref="E71:E125" si="6">IF(OR(C71=0, D71=0),"", D71-C71)</f>
+        <v/>
+      </c>
+      <c r="F71" s="15" t="str">
+        <f>IF(E71="","",_xlfn.CONCAT(HOUR(SUM($E$4:E71))," hours ",MINUTE(SUM($E$4:E71))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F72" s="15" t="str">
+        <f>IF(E72="","",_xlfn.CONCAT(HOUR(SUM($E$4:E72))," hours ",MINUTE(SUM($E$4:E72))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F73" s="15" t="str">
+        <f>IF(E73="","",_xlfn.CONCAT(HOUR(SUM($E$4:E73))," hours ",MINUTE(SUM($E$4:E73))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F74" s="15" t="str">
+        <f>IF(E74="","",_xlfn.CONCAT(HOUR(SUM($E$4:E74))," hours ",MINUTE(SUM($E$4:E74))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F75" s="15" t="str">
+        <f>IF(E75="","",_xlfn.CONCAT(HOUR(SUM($E$4:E75))," hours ",MINUTE(SUM($E$4:E75))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F76" s="15" t="str">
+        <f>IF(E76="","",_xlfn.CONCAT(HOUR(SUM($E$4:E76))," hours ",MINUTE(SUM($E$4:E76))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F77" s="15" t="str">
+        <f>IF(E77="","",_xlfn.CONCAT(HOUR(SUM($E$4:E77))," hours ",MINUTE(SUM($E$4:E77))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F78" s="15" t="str">
+        <f>IF(E78="","",_xlfn.CONCAT(HOUR(SUM($E$4:E78))," hours ",MINUTE(SUM($E$4:E78))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F79" s="15" t="str">
+        <f>IF(E79="","",_xlfn.CONCAT(HOUR(SUM($E$4:E79))," hours ",MINUTE(SUM($E$4:E79))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F80" s="15" t="str">
+        <f>IF(E80="","",_xlfn.CONCAT(HOUR(SUM($E$4:E80))," hours ",MINUTE(SUM($E$4:E80))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F81" s="15" t="str">
+        <f>IF(E81="","",_xlfn.CONCAT(HOUR(SUM($E$4:E81))," hours ",MINUTE(SUM($E$4:E81))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F82" s="15" t="str">
+        <f>IF(E82="","",_xlfn.CONCAT(HOUR(SUM($E$4:E82))," hours ",MINUTE(SUM($E$4:E82))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F83" s="15" t="str">
+        <f>IF(E83="","",_xlfn.CONCAT(HOUR(SUM($E$4:E83))," hours ",MINUTE(SUM($E$4:E83))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F84" s="15" t="str">
+        <f>IF(E84="","",_xlfn.CONCAT(HOUR(SUM($E$4:E84))," hours ",MINUTE(SUM($E$4:E84))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F85" s="15" t="str">
+        <f>IF(E85="","",_xlfn.CONCAT(HOUR(SUM($E$4:E85))," hours ",MINUTE(SUM($E$4:E85))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F86" s="15" t="str">
+        <f>IF(E86="","",_xlfn.CONCAT(HOUR(SUM($E$4:E86))," hours ",MINUTE(SUM($E$4:E86))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F87" s="15" t="str">
+        <f>IF(E87="","",_xlfn.CONCAT(HOUR(SUM($E$4:E87))," hours ",MINUTE(SUM($E$4:E87))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F88" s="15" t="str">
+        <f>IF(E88="","",_xlfn.CONCAT(HOUR(SUM($E$4:E88))," hours ",MINUTE(SUM($E$4:E88))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F89" s="15" t="str">
+        <f>IF(E89="","",_xlfn.CONCAT(HOUR(SUM($E$4:E89))," hours ",MINUTE(SUM($E$4:E89))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F90" s="15" t="str">
+        <f>IF(E90="","",_xlfn.CONCAT(HOUR(SUM($E$4:E90))," hours ",MINUTE(SUM($E$4:E90))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F91" s="15" t="str">
+        <f>IF(E91="","",_xlfn.CONCAT(HOUR(SUM($E$4:E91))," hours ",MINUTE(SUM($E$4:E91))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F92" s="15" t="str">
+        <f>IF(E92="","",_xlfn.CONCAT(HOUR(SUM($E$4:E92))," hours ",MINUTE(SUM($E$4:E92))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F93" s="15" t="str">
+        <f>IF(E93="","",_xlfn.CONCAT(HOUR(SUM($E$4:E93))," hours ",MINUTE(SUM($E$4:E93))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F94" s="15" t="str">
+        <f>IF(E94="","",_xlfn.CONCAT(HOUR(SUM($E$4:E94))," hours ",MINUTE(SUM($E$4:E94))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F95" s="15" t="str">
+        <f>IF(E95="","",_xlfn.CONCAT(HOUR(SUM($E$4:E95))," hours ",MINUTE(SUM($E$4:E95))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F96" s="15" t="str">
+        <f>IF(E96="","",_xlfn.CONCAT(HOUR(SUM($E$4:E96))," hours ",MINUTE(SUM($E$4:E96))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F97" s="15" t="str">
+        <f>IF(E97="","",_xlfn.CONCAT(HOUR(SUM($E$4:E97))," hours ",MINUTE(SUM($E$4:E97))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F98" s="15" t="str">
+        <f>IF(E98="","",_xlfn.CONCAT(HOUR(SUM($E$4:E98))," hours ",MINUTE(SUM($E$4:E98))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F99" s="15" t="str">
+        <f>IF(E99="","",_xlfn.CONCAT(HOUR(SUM($E$4:E99))," hours ",MINUTE(SUM($E$4:E99))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F100" s="15" t="str">
+        <f>IF(E100="","",_xlfn.CONCAT(HOUR(SUM($E$4:E100))," hours ",MINUTE(SUM($E$4:E100))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F101" s="15" t="str">
+        <f>IF(E101="","",_xlfn.CONCAT(HOUR(SUM($E$4:E101))," hours ",MINUTE(SUM($E$4:E101))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F102" s="15" t="str">
+        <f>IF(E102="","",_xlfn.CONCAT(HOUR(SUM($E$4:E102))," hours ",MINUTE(SUM($E$4:E102))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F103" s="15" t="str">
+        <f>IF(E103="","",_xlfn.CONCAT(HOUR(SUM($E$4:E103))," hours ",MINUTE(SUM($E$4:E103))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F104" s="15" t="str">
+        <f>IF(E104="","",_xlfn.CONCAT(HOUR(SUM($E$4:E104))," hours ",MINUTE(SUM($E$4:E104))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="F105" s="15" t="str">
+        <f>IF(E105="","",_xlfn.CONCAT(HOUR(SUM($E$4:E105))," hours ",MINUTE(SUM($E$4:E105))," minutes"))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E120" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E121" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E123" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E124" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E125" s="17" t="str">
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -3643,7 +4218,7 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H13" r:id="rId1" xr:uid="{40BF5D3F-6F40-4D36-A2D2-A18CA464B327}"/>
-    <hyperlink ref="J28" r:id="rId2" xr:uid="{9F3B3340-4F24-4554-BB1A-2EA07283D5A7}"/>
+    <hyperlink ref="J27" r:id="rId2" xr:uid="{9F3B3340-4F24-4554-BB1A-2EA07283D5A7}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1927D429-1221-492F-9B7B-31424F91960A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174FF441-FC4A-42BD-BD51-2D925FBCC385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
   <si>
     <t>Start Time:</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>Keep going with backend Account system</t>
+  </si>
+  <si>
+    <t>Got authentication and session figured out between the backend and the frontend</t>
+  </si>
+  <si>
+    <t>Next step is getting OAuth accounts created in our backend, and merging accounts with the same email</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1342,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1747,7 @@
       </c>
       <c r="AC4" s="35" t="str">
         <f t="shared" si="2"/>
-        <v>00 hours 00 minutes</v>
+        <v>03 hours 30 minutes</v>
       </c>
       <c r="AD4" s="40" t="str">
         <f t="shared" si="2"/>
@@ -2327,203 +2333,203 @@
       </c>
       <c r="AC6" s="47" t="str" cm="1">
         <f t="array" ref="AC6">INT((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AC$4, 2))), SUM(MID($K$4:AC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AD6" s="48" t="str" cm="1">
         <f t="array" ref="AD6">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AE6" s="49" t="str" cm="1">
         <f t="array" ref="AE6">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AF6" s="46" t="str" cm="1">
         <f t="array" ref="AF6">INT((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AG6" s="37" t="str" cm="1">
         <f t="array" ref="AG6">INT((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AH6" s="37" t="str" cm="1">
         <f t="array" ref="AH6">INT((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AI6" s="37" t="str" cm="1">
         <f t="array" ref="AI6">INT((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AJ6" s="47" t="str" cm="1">
         <f t="array" ref="AJ6">INT((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AK6" s="48" t="str" cm="1">
         <f t="array" ref="AK6">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AL6" s="49" t="str" cm="1">
         <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AM6" s="46" t="str" cm="1">
         <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>68 hours 9.00000000000045 minutes</v>
+        <v>71 hours 39 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -3176,7 +3182,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <v>45215</v>
       </c>
@@ -3354,14 +3360,29 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E32" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+    <row r="32" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B32" s="27">
+        <v>45219</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D32" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="E32" s="17">
+        <f t="shared" si="5"/>
+        <v>0.14583333333333331</v>
       </c>
       <c r="F32" s="15" t="str">
         <f>IF(E32="","",_xlfn.CONCAT(HOUR(SUM($E$4:E32))," hours ",MINUTE(SUM($E$4:E32))," minutes"))</f>
-        <v/>
+        <v>23 hours 39 minutes</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174FF441-FC4A-42BD-BD51-2D925FBCC385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52951921-1DF5-47DD-8684-27363C5F76B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="116">
   <si>
     <t>Start Time:</t>
   </si>
@@ -364,6 +364,48 @@
   </si>
   <si>
     <t>Next step is getting OAuth accounts created in our backend, and merging accounts with the same email</t>
+  </si>
+  <si>
+    <t>Only taking a break to bathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Got a lot of project API made, added some to auth/account API</t>
+  </si>
+  <si>
+    <t>Next is adding projects to users, then getting the frontend "register -&gt; login -&gt; create project -&gt; open project" flow</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>I think the project should go gold this week</t>
+  </si>
+  <si>
+    <t>Got the register frontend wired to backend alongsied making the security code for the non auth apis, a new project endpoint, and some more account and project endpoints</t>
+  </si>
+  <si>
+    <t>Next is the dashboard/account page</t>
   </si>
 </sst>
 </file>
@@ -1342,8 +1384,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1393,6 +1435,30 @@
       </c>
       <c r="Y2" t="s">
         <v>52</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>110</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>111</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:151" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1751,7 +1817,7 @@
       </c>
       <c r="AD4" s="40" t="str">
         <f t="shared" si="2"/>
-        <v>00 hours 00 minutes</v>
+        <v>05 hours 07 minutes</v>
       </c>
       <c r="AE4" s="42" t="str">
         <f t="shared" si="2"/>
@@ -2337,199 +2403,199 @@
       </c>
       <c r="AD6" s="48" t="str" cm="1">
         <f t="array" ref="AD6">INT((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AD$4, 2))), SUM(MID($K$4:AD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AE6" s="49" t="str" cm="1">
         <f t="array" ref="AE6">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AF6" s="46" t="str" cm="1">
         <f t="array" ref="AF6">INT((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AG6" s="37" t="str" cm="1">
         <f t="array" ref="AG6">INT((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AH6" s="37" t="str" cm="1">
         <f t="array" ref="AH6">INT((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AI6" s="37" t="str" cm="1">
         <f t="array" ref="AI6">INT((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AJ6" s="47" t="str" cm="1">
         <f t="array" ref="AJ6">INT((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AK6" s="48" t="str" cm="1">
         <f t="array" ref="AK6">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AL6" s="49" t="str" cm="1">
         <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AM6" s="46" t="str" cm="1">
         <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>71 hours 39 minutes</v>
+        <v>76 hours 46 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -2945,7 +3011,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:151" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -3126,7 +3192,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <v>45213</v>
       </c>
@@ -3154,7 +3220,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>45214</v>
       </c>
@@ -3385,37 +3451,82 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="27">
+        <v>45220</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="12">
+        <v>0.52222222222222225</v>
+      </c>
+      <c r="E33" s="17">
+        <f t="shared" si="5"/>
+        <v>2.2222222222222254E-2</v>
       </c>
       <c r="F33" s="15" t="str">
         <f>IF(E33="","",_xlfn.CONCAT(HOUR(SUM($E$4:E33))," hours ",MINUTE(SUM($E$4:E33))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>0 hours 11 minutes</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="27">
+        <v>45220</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="D34" s="12">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="E34" s="17">
+        <f t="shared" si="5"/>
+        <v>0.10763888888888884</v>
       </c>
       <c r="F34" s="15" t="str">
         <f>IF(E34="","",_xlfn.CONCAT(HOUR(SUM($E$4:E34))," hours ",MINUTE(SUM($E$4:E34))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>2 hours 46 minutes</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B35" s="27">
+        <v>45220</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D35" s="12">
+        <v>0.79513888888888884</v>
+      </c>
+      <c r="E35" s="17">
+        <f t="shared" si="5"/>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="F35" s="15" t="str">
         <f>IF(E35="","",_xlfn.CONCAT(HOUR(SUM($E$4:E35))," hours ",MINUTE(SUM($E$4:E35))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+        <v>4 hours 46 minutes</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E36" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3425,7 +3536,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E37" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3435,7 +3546,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E38" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3445,7 +3556,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E39" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3455,7 +3566,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E40" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3465,7 +3576,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E41" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3475,7 +3586,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E42" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3485,7 +3596,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E43" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3495,7 +3606,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E44" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3505,7 +3616,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E45" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3515,7 +3626,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E46" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3525,7 +3636,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E47" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3535,7 +3646,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E48" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52951921-1DF5-47DD-8684-27363C5F76B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D9123B-AD7D-4209-8A90-0EA1A6DEB64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="120">
   <si>
     <t>Start Time:</t>
   </si>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t>Next is the dashboard/account page</t>
+  </si>
+  <si>
+    <t>Got started on dashboard, mostly only got design ideas started. I got stuck then the internet died</t>
+  </si>
+  <si>
+    <t>Make the dashboard page</t>
+  </si>
+  <si>
+    <t>The dashboard shows the logged in users projects. The editor page can now load from a user's saved project</t>
+  </si>
+  <si>
+    <t>Next is the "new project" button, as well as figuring out how to make the attrocious loading times a better experience</t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1396,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1833,7 @@
       </c>
       <c r="AE4" s="42" t="str">
         <f t="shared" si="2"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 25 minutes</v>
       </c>
       <c r="AF4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AF$3), "hh ""hours ""mm ""minutes""")</f>
@@ -2407,195 +2419,195 @@
       </c>
       <c r="AE6" s="49" t="str" cm="1">
         <f t="array" ref="AE6">INT((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AE$4, 2))), SUM(MID($K$4:AE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AF6" s="46" t="str" cm="1">
         <f t="array" ref="AF6">INT((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AF$4, 2))), SUM(MID($K$4:AF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AG6" s="37" t="str" cm="1">
         <f t="array" ref="AG6">INT((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AH6" s="37" t="str" cm="1">
         <f t="array" ref="AH6">INT((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AI6" s="37" t="str" cm="1">
         <f t="array" ref="AI6">INT((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AJ6" s="47" t="str" cm="1">
         <f t="array" ref="AJ6">INT((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AK6" s="48" t="str" cm="1">
         <f t="array" ref="AK6">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AL6" s="49" t="str" cm="1">
         <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AM6" s="46" t="str" cm="1">
         <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>76 hours 46 minutes</v>
+        <v>79 hours 11 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -3526,24 +3538,54 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E36" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B36" s="27">
+        <v>45221</v>
+      </c>
+      <c r="C36" s="16">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="D36" s="12">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E36" s="17">
+        <f t="shared" si="5"/>
+        <v>3.4722222222222154E-2</v>
       </c>
       <c r="F36" s="15" t="str">
         <f>IF(E36="","",_xlfn.CONCAT(HOUR(SUM($E$4:E36))," hours ",MINUTE(SUM($E$4:E36))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E37" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>5 hours 36 minutes</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B37" s="27">
+        <v>45221</v>
+      </c>
+      <c r="C37" s="16">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="D37" s="12">
+        <v>0.89236111111111116</v>
+      </c>
+      <c r="E37" s="17">
+        <f t="shared" si="5"/>
+        <v>6.5972222222222321E-2</v>
       </c>
       <c r="F37" s="15" t="str">
         <f>IF(E37="","",_xlfn.CONCAT(HOUR(SUM($E$4:E37))," hours ",MINUTE(SUM($E$4:E37))," minutes"))</f>
-        <v/>
+        <v>7 hours 11 minutes</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D9123B-AD7D-4209-8A90-0EA1A6DEB64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D31E5B-3965-4B12-B6DE-073C1E855ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="122">
   <si>
     <t>Start Time:</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>Next is the "new project" button, as well as figuring out how to make the attrocious loading times a better experience</t>
+  </si>
+  <si>
+    <t>I got a lot of work done on the dashboard. The project list can now create projects</t>
+  </si>
+  <si>
+    <t>I want to add a template system, coming up soon will also be adding files and folders in the editor, as well as finally getting to the navbar</t>
   </si>
 </sst>
 </file>
@@ -1396,8 +1402,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1841,7 +1847,7 @@
       </c>
       <c r="AG4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AG$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>00 hours 00 minutes</v>
+        <v>04 hours 20 minutes</v>
       </c>
       <c r="AH4" s="35" t="str">
         <f t="shared" ref="AH4:BZ4" si="3">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AH$3), "hh ""hours ""mm ""minutes""")</f>
@@ -2427,187 +2433,187 @@
       </c>
       <c r="AG6" s="37" t="str" cm="1">
         <f t="array" ref="AG6">INT((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AH6" s="37" t="str" cm="1">
         <f t="array" ref="AH6">INT((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AI6" s="37" t="str" cm="1">
         <f t="array" ref="AI6">INT((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AJ6" s="47" t="str" cm="1">
         <f t="array" ref="AJ6">INT((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AK6" s="48" t="str" cm="1">
         <f t="array" ref="AK6">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AL6" s="49" t="str" cm="1">
         <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AM6" s="46" t="str" cm="1">
         <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>79 hours 11 minutes</v>
+        <v>83 hours 31 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -3588,14 +3594,29 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E38" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B38" s="27">
+        <v>45223</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D38" s="12">
+        <v>0.85069444444444453</v>
+      </c>
+      <c r="E38" s="17">
+        <f t="shared" si="5"/>
+        <v>0.18055555555555569</v>
       </c>
       <c r="F38" s="15" t="str">
         <f>IF(E38="","",_xlfn.CONCAT(HOUR(SUM($E$4:E38))," hours ",MINUTE(SUM($E$4:E38))," minutes"))</f>
-        <v/>
+        <v>11 hours 31 minutes</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D31E5B-3965-4B12-B6DE-073C1E855ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC75311-F469-4794-851D-CDF14B50FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
   <si>
     <t>Start Time:</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>I want to add a template system, coming up soon will also be adding files and folders in the editor, as well as finally getting to the navbar</t>
+  </si>
+  <si>
+    <t>Implemented most if not all of the template backend</t>
+  </si>
+  <si>
+    <t>Next is template frontend stuff, I think I will start with the new template stuff to finish off the new project form, then jump to finishing up the editor. This is a nice transition since the editor needs a "Set as template" space</t>
   </si>
 </sst>
 </file>
@@ -1402,8 +1408,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,11 +1853,11 @@
       </c>
       <c r="AG4" s="35" t="str">
         <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AG$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>04 hours 20 minutes</v>
+        <v>04 hours 17 minutes</v>
       </c>
       <c r="AH4" s="35" t="str">
         <f t="shared" ref="AH4:BZ4" si="3">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AH$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 08 minutes</v>
       </c>
       <c r="AI4" s="35" t="str">
         <f t="shared" si="3"/>
@@ -2433,187 +2439,187 @@
       </c>
       <c r="AG6" s="37" t="str" cm="1">
         <f t="array" ref="AG6">INT((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AG$4, 2))), SUM(MID($K$4:AG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>83 hours 28 minutes</v>
       </c>
       <c r="AH6" s="37" t="str" cm="1">
         <f t="array" ref="AH6">INT((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AH$4, 2))), SUM(MID($K$4:AH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AI6" s="37" t="str" cm="1">
         <f t="array" ref="AI6">INT((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AJ6" s="47" t="str" cm="1">
         <f t="array" ref="AJ6">INT((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AK6" s="48" t="str" cm="1">
         <f t="array" ref="AK6">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AL6" s="49" t="str" cm="1">
         <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AM6" s="46" t="str" cm="1">
         <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>83 hours 31 minutes</v>
+        <v>85 hours 36 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -3602,15 +3608,15 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="D38" s="12">
-        <v>0.85069444444444453</v>
+        <v>0.84861111111111109</v>
       </c>
       <c r="E38" s="17">
         <f t="shared" si="5"/>
-        <v>0.18055555555555569</v>
+        <v>0.17847222222222225</v>
       </c>
       <c r="F38" s="15" t="str">
         <f>IF(E38="","",_xlfn.CONCAT(HOUR(SUM($E$4:E38))," hours ",MINUTE(SUM($E$4:E38))," minutes"))</f>
-        <v>11 hours 31 minutes</v>
+        <v>11 hours 28 minutes</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>120</v>
@@ -3619,14 +3625,29 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E39" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+    <row r="39" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B39" s="27">
+        <v>45224</v>
+      </c>
+      <c r="C39" s="16">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.81805555555555554</v>
+      </c>
+      <c r="E39" s="17">
+        <f t="shared" si="5"/>
+        <v>8.8888888888888906E-2</v>
       </c>
       <c r="F39" s="15" t="str">
         <f>IF(E39="","",_xlfn.CONCAT(HOUR(SUM($E$4:E39))," hours ",MINUTE(SUM($E$4:E39))," minutes"))</f>
-        <v/>
+        <v>13 hours 36 minutes</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC75311-F469-4794-851D-CDF14B50FB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0397D0FD-7119-40BF-B440-CE3E62B0FAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
   <si>
     <t>Start Time:</t>
   </si>
@@ -430,6 +430,15 @@
   </si>
   <si>
     <t>Next is template frontend stuff, I think I will start with the new template stuff to finish off the new project form, then jump to finishing up the editor. This is a nice transition since the editor needs a "Set as template" space</t>
+  </si>
+  <si>
+    <t>Started work on ProjectList, then got distracted trying to adjust for timezone. I failed. I also made some backend tweaks to data types, might do more</t>
+  </si>
+  <si>
+    <t>I fixed the timestamps, some datatypes, made a shared models folder so I can have the same models between my python APIs, and modified the loading component</t>
+  </si>
+  <si>
+    <t>Next I want to finish the auto sign out, after that I think I wanna do the editor navbar and other editor things</t>
   </si>
 </sst>
 </file>
@@ -1409,7 +1418,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,11 +1870,11 @@
       </c>
       <c r="AI4" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 25 minutes</v>
       </c>
       <c r="AJ4" s="35" t="str">
         <f t="shared" si="3"/>
-        <v>00 hours 00 minutes</v>
+        <v>04 hours 20 minutes</v>
       </c>
       <c r="AK4" s="40" t="str">
         <f t="shared" si="3"/>
@@ -2447,179 +2456,179 @@
       </c>
       <c r="AI6" s="37" t="str" cm="1">
         <f t="array" ref="AI6">INT((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AI$4, 2))), SUM(MID($K$4:AI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>88 hours 1 minutes</v>
       </c>
       <c r="AJ6" s="47" t="str" cm="1">
         <f t="array" ref="AJ6">INT((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AJ$4, 2))), SUM(MID($K$4:AJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AK6" s="48" t="str" cm="1">
         <f t="array" ref="AK6">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AL6" s="49" t="str" cm="1">
         <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AM6" s="46" t="str" cm="1">
         <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>85 hours 36 minutes</v>
+        <v>92 hours 21 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -3650,24 +3659,51 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E40" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B40" s="27">
+        <v>45225</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="D40" s="12">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E40" s="17">
+        <f t="shared" si="5"/>
+        <v>0.10069444444444442</v>
       </c>
       <c r="F40" s="15" t="str">
         <f>IF(E40="","",_xlfn.CONCAT(HOUR(SUM($E$4:E40))," hours ",MINUTE(SUM($E$4:E40))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E41" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>16 hours 1 minutes</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B41" s="27">
+        <v>45226</v>
+      </c>
+      <c r="C41" s="16">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D41" s="12">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="E41" s="17">
+        <f t="shared" si="5"/>
+        <v>0.18055555555555558</v>
       </c>
       <c r="F41" s="15" t="str">
         <f>IF(E41="","",_xlfn.CONCAT(HOUR(SUM($E$4:E41))," hours ",MINUTE(SUM($E$4:E41))," minutes"))</f>
-        <v/>
+        <v>20 hours 21 minutes</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0397D0FD-7119-40BF-B440-CE3E62B0FAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A7B393-C40F-43E8-A945-9B75C523A729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="144">
   <si>
     <t>Start Time:</t>
   </si>
@@ -318,9 +318,6 @@
     <t>73 hours</t>
   </si>
   <si>
-    <t>78 hours</t>
-  </si>
-  <si>
     <t>80 hours</t>
   </si>
   <si>
@@ -439,6 +436,60 @@
   </si>
   <si>
     <t>Next I want to finish the auto sign out, after that I think I wanna do the editor navbar and other editor things</t>
+  </si>
+  <si>
+    <t>77 hours</t>
+  </si>
+  <si>
+    <t>82 hours</t>
+  </si>
+  <si>
+    <t>86 hours</t>
+  </si>
+  <si>
+    <t>88 hours</t>
+  </si>
+  <si>
+    <t>90 hours</t>
+  </si>
+  <si>
+    <t>93 hours</t>
+  </si>
+  <si>
+    <t>98 hours</t>
+  </si>
+  <si>
+    <t>100 hours</t>
+  </si>
+  <si>
+    <t>102 hours</t>
+  </si>
+  <si>
+    <t>106 hours</t>
+  </si>
+  <si>
+    <t>108 hours</t>
+  </si>
+  <si>
+    <t>110 hours</t>
+  </si>
+  <si>
+    <t>113 hours</t>
+  </si>
+  <si>
+    <t>118 hours</t>
+  </si>
+  <si>
+    <t>120 hours</t>
+  </si>
+  <si>
+    <t>Next is navbar functionality, the profile component, more dashboard progress, making the settings sidebar panel, and redoing the terminal scrollbar</t>
+  </si>
+  <si>
+    <t>Not actually all of these, I'm just listing some options</t>
+  </si>
+  <si>
+    <t>Started the topbar frontend bits, created a new context hook for project metadata, changed how redirects work, also fixed auto sign out I think</t>
   </si>
 </sst>
 </file>
@@ -1417,8 +1468,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,28 +1521,28 @@
         <v>52</v>
       </c>
       <c r="AF2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM2" t="s">
         <v>106</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AT2" t="s">
         <v>107</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="BA2" t="s">
         <v>108</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BH2" t="s">
         <v>109</v>
       </c>
-      <c r="BB2" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH2" t="s">
+      <c r="BO2" t="s">
         <v>110</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BV2" t="s">
         <v>111</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:151" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -1878,7 +1929,7 @@
       </c>
       <c r="AK4" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>00 hours 00 minutes</v>
+        <v>03 hours 15 minutes</v>
       </c>
       <c r="AL4" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2172,10 +2223,10 @@
         <v>72</v>
       </c>
       <c r="AK5" s="44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL5" s="45" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="AM5" s="36" t="s">
         <v>16</v>
@@ -2464,171 +2515,171 @@
       </c>
       <c r="AK6" s="48" t="str" cm="1">
         <f t="array" ref="AK6">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AL6" s="49" t="str" cm="1">
         <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AM6" s="46" t="str" cm="1">
         <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>92 hours 21 minutes</v>
+        <v>95 hours 36 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -2814,10 +2865,52 @@
         <v>85</v>
       </c>
       <c r="AK7" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL7" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="AL7" s="39" t="s">
-        <v>87</v>
+      <c r="AM7" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN7" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO7" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP7" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ7" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="AR7" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS7" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT7" s="39" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU7" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV7" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW7" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX7" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY7" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ7" s="39" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:151" ht="60" x14ac:dyDescent="0.25">
@@ -3116,7 +3209,7 @@
         <v>60</v>
       </c>
       <c r="I18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -3278,7 +3371,7 @@
         <v>71</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="75" x14ac:dyDescent="0.25">
@@ -3306,7 +3399,7 @@
         <v>75</v>
       </c>
       <c r="I25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -3356,7 +3449,7 @@
         <v>80</v>
       </c>
       <c r="J27" s="53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="60" x14ac:dyDescent="0.25">
@@ -3378,10 +3471,10 @@
         <v>17 hours 48 minutes</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H28" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
@@ -3403,10 +3496,10 @@
         <v>18 hours 39 minutes</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H29" s="25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="60" x14ac:dyDescent="0.25">
@@ -3428,10 +3521,10 @@
         <v>19 hours 9 minutes</v>
       </c>
       <c r="G30" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="25" t="s">
         <v>96</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="60" x14ac:dyDescent="0.25">
@@ -3453,10 +3546,10 @@
         <v>20 hours 9 minutes</v>
       </c>
       <c r="G31" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="H31" s="25" t="s">
         <v>98</v>
-      </c>
-      <c r="H31" s="25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -3478,13 +3571,13 @@
         <v>23 hours 39 minutes</v>
       </c>
       <c r="G32" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H32" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="27">
         <v>45220</v>
       </c>
@@ -3503,12 +3596,12 @@
         <v>0 hours 11 minutes</v>
       </c>
       <c r="G33" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>103</v>
       </c>
       <c r="B34" s="27">
         <v>45220</v>
@@ -3528,13 +3621,13 @@
         <v>2 hours 46 minutes</v>
       </c>
       <c r="G34" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="H34" s="25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B35" s="27">
         <v>45220</v>
       </c>
@@ -3553,13 +3646,13 @@
         <v>4 hours 46 minutes</v>
       </c>
       <c r="G35" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H35" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H35" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="27">
         <v>45221</v>
       </c>
@@ -3578,13 +3671,13 @@
         <v>5 hours 36 minutes</v>
       </c>
       <c r="G36" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H36" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" s="27">
         <v>45221</v>
       </c>
@@ -3603,13 +3696,13 @@
         <v>7 hours 11 minutes</v>
       </c>
       <c r="G37" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H37" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B38" s="27">
         <v>45223</v>
       </c>
@@ -3628,13 +3721,13 @@
         <v>11 hours 28 minutes</v>
       </c>
       <c r="G38" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H38" s="25" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B39" s="27">
         <v>45224</v>
       </c>
@@ -3653,13 +3746,13 @@
         <v>13 hours 36 minutes</v>
       </c>
       <c r="G39" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H39" s="25" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B40" s="27">
         <v>45225</v>
       </c>
@@ -3678,10 +3771,10 @@
         <v>16 hours 1 minutes</v>
       </c>
       <c r="G40" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B41" s="27">
         <v>45226</v>
       </c>
@@ -3700,23 +3793,41 @@
         <v>20 hours 21 minutes</v>
       </c>
       <c r="G41" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="H41" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E42" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+    </row>
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B42" s="27">
+        <v>45227</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D42" s="12">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="E42" s="17">
+        <f t="shared" si="5"/>
+        <v>0.13541666666666663</v>
       </c>
       <c r="F42" s="15" t="str">
         <f>IF(E42="","",_xlfn.CONCAT(HOUR(SUM($E$4:E42))," hours ",MINUTE(SUM($E$4:E42))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>23 hours 36 minutes</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3726,7 +3837,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3736,7 +3847,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3746,7 +3857,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3756,7 +3867,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E47" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3766,7 +3877,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E48" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A7B393-C40F-43E8-A945-9B75C523A729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E0B92D-FB23-4AB8-AAC7-9650C0A85D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
   <si>
     <t>Start Time:</t>
   </si>
@@ -490,6 +490,9 @@
   </si>
   <si>
     <t>Started the topbar frontend bits, created a new context hook for project metadata, changed how redirects work, also fixed auto sign out I think</t>
+  </si>
+  <si>
+    <t>messed with theme colors and project config frontend, fixed index button</t>
   </si>
 </sst>
 </file>
@@ -1468,8 +1471,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,7 +1932,7 @@
       </c>
       <c r="AK4" s="40" t="str">
         <f t="shared" si="3"/>
-        <v>03 hours 15 minutes</v>
+        <v>05 hours 05 minutes</v>
       </c>
       <c r="AL4" s="42" t="str">
         <f t="shared" si="3"/>
@@ -2515,171 +2518,171 @@
       </c>
       <c r="AK6" s="48" t="str" cm="1">
         <f t="array" ref="AK6">INT((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AK$4, 2))), SUM(MID($K$4:AK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AL6" s="49" t="str" cm="1">
         <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AM6" s="46" t="str" cm="1">
         <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>95 hours 36 minutes</v>
+        <v>97 hours 26 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -3827,14 +3830,26 @@
         <v>142</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="27">
+        <v>45227</v>
+      </c>
+      <c r="C43" s="16">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="E43" s="17">
+        <f t="shared" si="5"/>
+        <v>7.638888888888884E-2</v>
       </c>
       <c r="F43" s="15" t="str">
         <f>IF(E43="","",_xlfn.CONCAT(HOUR(SUM($E$4:E43))," hours ",MINUTE(SUM($E$4:E43))," minutes"))</f>
-        <v/>
+        <v>1 hours 26 minutes</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E0B92D-FB23-4AB8-AAC7-9650C0A85D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8D1281-FDAC-49C5-8CFF-77E781666DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="148">
   <si>
     <t>Start Time:</t>
   </si>
@@ -438,9 +438,6 @@
     <t>Next I want to finish the auto sign out, after that I think I wanna do the editor navbar and other editor things</t>
   </si>
   <si>
-    <t>77 hours</t>
-  </si>
-  <si>
     <t>82 hours</t>
   </si>
   <si>
@@ -493,6 +490,18 @@
   </si>
   <si>
     <t>messed with theme colors and project config frontend, fixed index button</t>
+  </si>
+  <si>
+    <t>Got the save button working, sonfig menu as well</t>
+  </si>
+  <si>
+    <t>78 hours</t>
+  </si>
+  <si>
+    <t>Merged the SignIn/Up pages and made them look real nice</t>
+  </si>
+  <si>
+    <t>Index and dashboard need work. Editor still needs some crucial buttons and the auto file display update</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1480,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1936,7 +1945,7 @@
       </c>
       <c r="AL4" s="42" t="str">
         <f t="shared" si="3"/>
-        <v>00 hours 00 minutes</v>
+        <v>03 hours 20 minutes</v>
       </c>
       <c r="AM4" s="35" t="str">
         <f t="shared" si="3"/>
@@ -2226,10 +2235,10 @@
         <v>72</v>
       </c>
       <c r="AK5" s="44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL5" s="45" t="s">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="AM5" s="36" t="s">
         <v>16</v>
@@ -2522,167 +2531,167 @@
       </c>
       <c r="AL6" s="49" t="str" cm="1">
         <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AM6" s="46" t="str" cm="1">
         <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>97 hours 26 minutes</v>
+        <v>100 hours 46 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -2868,52 +2877,52 @@
         <v>85</v>
       </c>
       <c r="AK7" s="39" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="AL7" s="39" t="s">
         <v>86</v>
       </c>
       <c r="AM7" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN7" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="AN7" s="39" t="s">
+      <c r="AO7" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="AO7" s="39" t="s">
+      <c r="AP7" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="AP7" s="39" t="s">
+      <c r="AQ7" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="AQ7" s="39" t="s">
+      <c r="AR7" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AR7" s="39" t="s">
+      <c r="AS7" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AS7" s="39" t="s">
+      <c r="AT7" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="AT7" s="39" t="s">
+      <c r="AU7" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="AU7" s="39" t="s">
+      <c r="AV7" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="AV7" s="39" t="s">
+      <c r="AW7" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="AW7" s="39" t="s">
+      <c r="AX7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="AX7" s="39" t="s">
+      <c r="AY7" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="AY7" s="39" t="s">
+      <c r="AZ7" s="39" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ7" s="39" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:151" ht="60" x14ac:dyDescent="0.25">
@@ -3821,13 +3830,13 @@
         <v>23 hours 36 minutes</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H42" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I42" t="s">
         <v>141</v>
-      </c>
-      <c r="I42" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -3849,27 +3858,54 @@
         <v>1 hours 26 minutes</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="27">
+        <v>45228</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="D44" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="E44" s="17">
+        <f t="shared" si="5"/>
+        <v>8.680555555555558E-2</v>
       </c>
       <c r="F44" s="15" t="str">
         <f>IF(E44="","",_xlfn.CONCAT(HOUR(SUM($E$4:E44))," hours ",MINUTE(SUM($E$4:E44))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>3 hours 31 minutes</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="27">
+        <v>45228</v>
+      </c>
+      <c r="C45" s="16">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="D45" s="12">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E45" s="17">
+        <f t="shared" si="5"/>
+        <v>5.2083333333333481E-2</v>
       </c>
       <c r="F45" s="15" t="str">
         <f>IF(E45="","",_xlfn.CONCAT(HOUR(SUM($E$4:E45))," hours ",MINUTE(SUM($E$4:E45))," minutes"))</f>
-        <v/>
+        <v>4 hours 46 minutes</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8D1281-FDAC-49C5-8CFF-77E781666DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9507FFE9-74CB-4C4A-8E84-0941F1CC475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="148">
   <si>
     <t>Start Time:</t>
   </si>
@@ -498,10 +498,10 @@
     <t>78 hours</t>
   </si>
   <si>
-    <t>Merged the SignIn/Up pages and made them look real nice</t>
-  </si>
-  <si>
     <t>Index and dashboard need work. Editor still needs some crucial buttons and the auto file display update</t>
+  </si>
+  <si>
+    <t>Merged the SignIn/Up pages and made them look real nice, also refactored TopBar, then also fixed the part that I entirely broke</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1481,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="AL4" s="42" t="str">
         <f t="shared" si="3"/>
-        <v>03 hours 20 minutes</v>
+        <v>04 hours 05 minutes</v>
       </c>
       <c r="AM4" s="35" t="str">
         <f t="shared" si="3"/>
@@ -2531,167 +2531,167 @@
       </c>
       <c r="AL6" s="49" t="str" cm="1">
         <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AM6" s="46" t="str" cm="1">
         <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>100 hours 46 minutes</v>
+        <v>101 hours 31 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -3883,7 +3883,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B45" s="27">
         <v>45228</v>
       </c>
@@ -3891,21 +3891,21 @@
         <v>0.64236111111111105</v>
       </c>
       <c r="D45" s="12">
-        <v>0.69444444444444453</v>
+        <v>0.72569444444444453</v>
       </c>
       <c r="E45" s="17">
         <f t="shared" si="5"/>
-        <v>5.2083333333333481E-2</v>
+        <v>8.3333333333333481E-2</v>
       </c>
       <c r="F45" s="15" t="str">
         <f>IF(E45="","",_xlfn.CONCAT(HOUR(SUM($E$4:E45))," hours ",MINUTE(SUM($E$4:E45))," minutes"))</f>
-        <v>4 hours 46 minutes</v>
+        <v>5 hours 31 minutes</v>
       </c>
       <c r="G45" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H45" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="H45" s="25" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9507FFE9-74CB-4C4A-8E84-0941F1CC475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071D0951-E18E-4D0A-B50F-A5DED91B61E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="150">
   <si>
     <t>Start Time:</t>
   </si>
@@ -502,6 +502,12 @@
   </si>
   <si>
     <t>Merged the SignIn/Up pages and made them look real nice, also refactored TopBar, then also fixed the part that I entirely broke</t>
+  </si>
+  <si>
+    <t>Added Oauth buttons and started on the oauth backend logic</t>
+  </si>
+  <si>
+    <t>finish oauth</t>
   </si>
 </sst>
 </file>
@@ -1480,8 +1486,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1945,7 +1951,7 @@
       </c>
       <c r="AL4" s="42" t="str">
         <f t="shared" si="3"/>
-        <v>04 hours 05 minutes</v>
+        <v>04 hours 20 minutes</v>
       </c>
       <c r="AM4" s="35" t="str">
         <f t="shared" si="3"/>
@@ -2531,167 +2537,167 @@
       </c>
       <c r="AL6" s="49" t="str" cm="1">
         <f t="array" ref="AL6">INT((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AL$4, 2))), SUM(MID($K$4:AL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AM6" s="46" t="str" cm="1">
         <f t="array" ref="AM6">INT((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AM$4, 2))), SUM(MID($K$4:AM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>101 hours 46 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -3908,17 +3914,38 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="27">
+        <v>45228</v>
+      </c>
+      <c r="C46" s="16">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="E46" s="17">
+        <f t="shared" si="5"/>
+        <v>1.0416666666666741E-2</v>
       </c>
       <c r="F46" s="15" t="str">
         <f>IF(E46="","",_xlfn.CONCAT(HOUR(SUM($E$4:E46))," hours ",MINUTE(SUM($E$4:E46))," minutes"))</f>
-        <v/>
+        <v>5 hours 46 minutes</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="27">
+        <v>45230</v>
+      </c>
+      <c r="C47" s="16">
+        <v>0.47569444444444442</v>
+      </c>
       <c r="E47" s="17" t="str">
         <f t="shared" si="5"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9507FFE9-74CB-4C4A-8E84-0941F1CC475E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1132041-8A3D-4AA8-A761-FC10E3E2DAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="152">
   <si>
     <t>Start Time:</t>
   </si>
@@ -502,6 +503,18 @@
   </si>
   <si>
     <t>Merged the SignIn/Up pages and made them look real nice, also refactored TopBar, then also fixed the part that I entirely broke</t>
+  </si>
+  <si>
+    <t>Broke next.js hot reload, tweaked saving, starting on auto filestructure updating</t>
+  </si>
+  <si>
+    <t>Fixed the hot reload, got auto filestructuredisplay updating, started with the add file/folder button, fixed auto sign out, added some new fileOperations, fixed SharedArrayBuffer bug, improved saving and editor tabs</t>
+  </si>
+  <si>
+    <t>I didn't even mean to make up for my missed hours haha</t>
+  </si>
+  <si>
+    <t>Next is the new file/folder button functionality</t>
   </si>
 </sst>
 </file>
@@ -1480,8 +1493,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,6 +1550,9 @@
       </c>
       <c r="AM2" t="s">
         <v>106</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>150</v>
       </c>
       <c r="AT2" t="s">
         <v>107</v>
@@ -1836,15 +1852,15 @@
         <v>14</v>
       </c>
       <c r="K4" s="35" t="str">
-        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, K$3), "hh ""hours ""mm ""minutes""")</f>
+        <f t="shared" ref="K4:AG4" si="0">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, K$3), "hh ""hours ""mm ""minutes""")</f>
         <v>01 hours 40 minutes</v>
       </c>
       <c r="L4" s="35" t="str">
-        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, L$3), "hh ""hours ""mm ""minutes""")</f>
+        <f t="shared" si="0"/>
         <v>02 hours 53 minutes</v>
       </c>
       <c r="M4" s="35" t="str">
-        <f t="shared" ref="M4:Q4" si="0">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, M$3), "hh ""hours ""mm ""minutes""")</f>
+        <f t="shared" si="0"/>
         <v>02 hours 20 minutes</v>
       </c>
       <c r="N4" s="35" t="str">
@@ -1864,247 +1880,247 @@
         <v>02 hours 38 minutes</v>
       </c>
       <c r="R4" s="35" t="str">
-        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, R$3), "hh ""hours ""mm ""minutes""")</f>
+        <f t="shared" si="0"/>
         <v>03 hours 33 minutes</v>
       </c>
       <c r="S4" s="35" t="str">
-        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, S$3), "hh ""hours ""mm ""minutes""")</f>
+        <f t="shared" si="0"/>
         <v>05 hours 50 minutes</v>
       </c>
       <c r="T4" s="35" t="str">
-        <f t="shared" ref="T4:X4" si="1">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, T$3), "hh ""hours ""mm ""minutes""")</f>
+        <f t="shared" si="0"/>
         <v>04 hours 23 minutes</v>
       </c>
       <c r="U4" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>03 hours 35 minutes</v>
+      </c>
+      <c r="V4" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>04 hours 35 minutes</v>
+      </c>
+      <c r="W4" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>07 hours 00 minutes</v>
+      </c>
+      <c r="X4" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>03 hours 25 minutes</v>
+      </c>
+      <c r="Y4" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>03 hours 50 minutes</v>
+      </c>
+      <c r="Z4" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>04 hours 10 minutes</v>
+      </c>
+      <c r="AA4" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>02 hours 40 minutes</v>
+      </c>
+      <c r="AB4" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>02 hours 21 minutes</v>
+      </c>
+      <c r="AC4" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>03 hours 30 minutes</v>
+      </c>
+      <c r="AD4" s="40" t="str">
+        <f t="shared" si="0"/>
+        <v>05 hours 07 minutes</v>
+      </c>
+      <c r="AE4" s="42" t="str">
+        <f t="shared" si="0"/>
+        <v>02 hours 25 minutes</v>
+      </c>
+      <c r="AF4" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>00 hours 00 minutes</v>
+      </c>
+      <c r="AG4" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>04 hours 17 minutes</v>
+      </c>
+      <c r="AH4" s="35" t="str">
+        <f t="shared" ref="AH4:BZ4" si="1">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AH$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>02 hours 08 minutes</v>
+      </c>
+      <c r="AI4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>03 hours 35 minutes</v>
-      </c>
-      <c r="V4" s="35" t="str">
+        <v>02 hours 25 minutes</v>
+      </c>
+      <c r="AJ4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>04 hours 35 minutes</v>
-      </c>
-      <c r="W4" s="40" t="str">
+        <v>04 hours 20 minutes</v>
+      </c>
+      <c r="AK4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>07 hours 00 minutes</v>
-      </c>
-      <c r="X4" s="42" t="str">
+        <v>05 hours 05 minutes</v>
+      </c>
+      <c r="AL4" s="42" t="str">
         <f t="shared" si="1"/>
-        <v>03 hours 25 minutes</v>
-      </c>
-      <c r="Y4" s="35" t="str">
-        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, Y$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>03 hours 50 minutes</v>
-      </c>
-      <c r="Z4" s="35" t="str">
-        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, Z$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>04 hours 10 minutes</v>
-      </c>
-      <c r="AA4" s="35" t="str">
-        <f t="shared" ref="AA4:AE4" si="2">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AA$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>02 hours 40 minutes</v>
-      </c>
-      <c r="AB4" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>02 hours 21 minutes</v>
-      </c>
-      <c r="AC4" s="35" t="str">
-        <f t="shared" si="2"/>
-        <v>03 hours 30 minutes</v>
-      </c>
-      <c r="AD4" s="40" t="str">
-        <f t="shared" si="2"/>
-        <v>05 hours 07 minutes</v>
-      </c>
-      <c r="AE4" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>02 hours 25 minutes</v>
-      </c>
-      <c r="AF4" s="35" t="str">
-        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AF$3), "hh ""hours ""mm ""minutes""")</f>
+        <v>04 hours 05 minutes</v>
+      </c>
+      <c r="AM4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AG4" s="35" t="str">
-        <f>TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AG$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>04 hours 17 minutes</v>
-      </c>
-      <c r="AH4" s="35" t="str">
-        <f t="shared" ref="AH4:BZ4" si="3">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AH$3), "hh ""hours ""mm ""minutes""")</f>
-        <v>02 hours 08 minutes</v>
-      </c>
-      <c r="AI4" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>02 hours 25 minutes</v>
-      </c>
-      <c r="AJ4" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>04 hours 20 minutes</v>
-      </c>
-      <c r="AK4" s="40" t="str">
-        <f t="shared" si="3"/>
-        <v>05 hours 05 minutes</v>
-      </c>
-      <c r="AL4" s="42" t="str">
-        <f t="shared" si="3"/>
-        <v>04 hours 05 minutes</v>
-      </c>
-      <c r="AM4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="AN4" s="35" t="str">
+        <f t="shared" si="1"/>
+        <v>06 hours 11 minutes</v>
+      </c>
+      <c r="AO4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AN4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="AP4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AO4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="AQ4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AP4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="AR4" s="40" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AQ4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="AS4" s="42" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AR4" s="40" t="str">
-        <f t="shared" si="3"/>
+      <c r="AT4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AS4" s="42" t="str">
-        <f t="shared" si="3"/>
+      <c r="AU4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AT4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="AV4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AU4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="AW4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AV4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="AX4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AW4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="AY4" s="40" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AX4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="AZ4" s="42" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AY4" s="40" t="str">
-        <f t="shared" si="3"/>
+      <c r="BA4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="AZ4" s="42" t="str">
-        <f t="shared" si="3"/>
+      <c r="BB4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BA4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BC4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BB4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BD4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BC4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BE4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BD4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BF4" s="40" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BE4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BG4" s="42" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BF4" s="40" t="str">
-        <f t="shared" si="3"/>
+      <c r="BH4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BG4" s="42" t="str">
-        <f t="shared" si="3"/>
+      <c r="BI4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BH4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BJ4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BI4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BK4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BJ4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BL4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BK4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BM4" s="40" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BL4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BN4" s="42" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BM4" s="40" t="str">
-        <f t="shared" si="3"/>
+      <c r="BO4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BN4" s="42" t="str">
-        <f t="shared" si="3"/>
+      <c r="BP4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BO4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BQ4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BP4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BR4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BQ4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BS4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BR4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BT4" s="40" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BS4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BU4" s="42" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BT4" s="40" t="str">
-        <f t="shared" si="3"/>
+      <c r="BV4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BU4" s="42" t="str">
-        <f t="shared" si="3"/>
+      <c r="BW4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BV4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BX4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BW4" s="35" t="str">
-        <f t="shared" si="3"/>
+      <c r="BY4" s="35" t="str">
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BX4" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>00 hours 00 minutes</v>
-      </c>
-      <c r="BY4" s="35" t="str">
-        <f t="shared" si="3"/>
-        <v>00 hours 00 minutes</v>
-      </c>
       <c r="BZ4" s="35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
       <c r="CA4" s="40"/>
@@ -2141,7 +2157,7 @@
         <v>0.82847222222222217</v>
       </c>
       <c r="E5" s="17">
-        <f t="shared" ref="E5" si="4">IF(OR(C5=0, D5=0),"", D5-C5)</f>
+        <f>IF(OR(C5=0, D5=0),"", D5-C5)</f>
         <v>0.1201388888888888</v>
       </c>
       <c r="F5" s="15" t="str">
@@ -2539,159 +2555,159 @@
       </c>
       <c r="AN6" s="37" t="str" cm="1">
         <f t="array" ref="AN6">INT((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AN$4, 2))), SUM(MID($K$4:AN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>101 hours 31 minutes</v>
+        <v>107 hours 42 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -2779,7 +2795,7 @@
         <v>0.5180555555555556</v>
       </c>
       <c r="E7" s="17">
-        <f t="shared" ref="E7:E70" si="5">IF(OR(C7=0, D7=0),"", D7-C7)</f>
+        <f t="shared" ref="E7:E70" si="2">IF(OR(C7=0, D7=0),"", D7-C7)</f>
         <v>0.12222222222222229</v>
       </c>
       <c r="F7" s="15" t="str">
@@ -2936,7 +2952,7 @@
         <v>0.69097222222222221</v>
       </c>
       <c r="E8" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.16111111111111109</v>
       </c>
       <c r="F8" s="15" t="str">
@@ -2964,7 +2980,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E9" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.18263888888888891</v>
       </c>
       <c r="F9" s="15" t="str">
@@ -2992,7 +3008,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="E10" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.6805555555555469E-2</v>
       </c>
       <c r="F10" s="15" t="str">
@@ -3048,7 +3064,7 @@
         <v>0.89444444444444438</v>
       </c>
       <c r="E12" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.0694444444444375E-2</v>
       </c>
       <c r="F12" s="15" t="str">
@@ -3076,7 +3092,7 @@
         <v>0.62847222222222221</v>
       </c>
       <c r="E13" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1.736111111111116E-2</v>
       </c>
       <c r="F13" s="15" t="str">
@@ -3104,7 +3120,7 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="E14" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.13055555555555554</v>
       </c>
       <c r="F14" s="15" t="str">
@@ -3132,7 +3148,7 @@
         <v>0.5625</v>
       </c>
       <c r="E15" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.13541666666666669</v>
       </c>
       <c r="F15" s="15" t="str">
@@ -3149,7 +3165,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:151" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" ht="105" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -3160,7 +3176,7 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="E16" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.10763888888888895</v>
       </c>
       <c r="F16" s="15" t="str">
@@ -3185,7 +3201,7 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="E17" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>9.3750000000000056E-2</v>
       </c>
       <c r="F17" s="15" t="str">
@@ -3207,7 +3223,7 @@
         <v>0.86458333333333337</v>
       </c>
       <c r="E18" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.8888888888888906E-2</v>
       </c>
       <c r="F18" s="15" t="str">
@@ -3235,7 +3251,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="E19" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.6388888888888784E-2</v>
       </c>
       <c r="F19" s="15" t="str">
@@ -3291,7 +3307,7 @@
         <v>0.56597222222222221</v>
       </c>
       <c r="E21" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="F21" s="15" t="str">
@@ -3313,7 +3329,7 @@
         <v>0.90277777777777779</v>
       </c>
       <c r="E22" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.986111111111116E-2</v>
       </c>
       <c r="F22" s="15" t="str">
@@ -3330,7 +3346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <v>45213</v>
       </c>
@@ -3341,7 +3357,7 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="E23" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.29166666666666663</v>
       </c>
       <c r="F23" s="15" t="str">
@@ -3358,7 +3374,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>45214</v>
       </c>
@@ -3369,7 +3385,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="E24" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.14236111111111105</v>
       </c>
       <c r="F24" s="15" t="str">
@@ -3386,7 +3402,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <v>45215</v>
       </c>
@@ -3397,7 +3413,7 @@
         <v>0.96527777777777779</v>
       </c>
       <c r="E25" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.15972222222222232</v>
       </c>
       <c r="F25" s="15" t="str">
@@ -3425,7 +3441,7 @@
         <v>0.55902777777777779</v>
       </c>
       <c r="E26" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>9.027777777777779E-2</v>
       </c>
       <c r="F26" s="15" t="str">
@@ -3447,7 +3463,7 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="E27" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="F27" s="15" t="str">
@@ -3475,7 +3491,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="E28" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.11111111111111105</v>
       </c>
       <c r="F28" s="15" t="str">
@@ -3500,7 +3516,7 @@
         <v>0.45902777777777781</v>
       </c>
       <c r="E29" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3.5416666666666707E-2</v>
       </c>
       <c r="F29" s="15" t="str">
@@ -3525,7 +3541,7 @@
         <v>0.5625</v>
       </c>
       <c r="E30" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2.083333333333337E-2</v>
       </c>
       <c r="F30" s="15" t="str">
@@ -3550,7 +3566,7 @@
         <v>0.66319444444444442</v>
       </c>
       <c r="E31" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>4.166666666666663E-2</v>
       </c>
       <c r="F31" s="15" t="str">
@@ -3575,7 +3591,7 @@
         <v>0.625</v>
       </c>
       <c r="E32" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.14583333333333331</v>
       </c>
       <c r="F32" s="15" t="str">
@@ -3600,7 +3616,7 @@
         <v>0.52222222222222225</v>
       </c>
       <c r="E33" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>2.2222222222222254E-2</v>
       </c>
       <c r="F33" s="15" t="str">
@@ -3625,7 +3641,7 @@
         <v>0.65277777777777779</v>
       </c>
       <c r="E34" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.10763888888888884</v>
       </c>
       <c r="F34" s="15" t="str">
@@ -3650,7 +3666,7 @@
         <v>0.79513888888888884</v>
       </c>
       <c r="E35" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.333333333333337E-2</v>
       </c>
       <c r="F35" s="15" t="str">
@@ -3675,7 +3691,7 @@
         <v>0.47569444444444442</v>
       </c>
       <c r="E36" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3.4722222222222154E-2</v>
       </c>
       <c r="F36" s="15" t="str">
@@ -3700,7 +3716,7 @@
         <v>0.89236111111111116</v>
       </c>
       <c r="E37" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>6.5972222222222321E-2</v>
       </c>
       <c r="F37" s="15" t="str">
@@ -3725,7 +3741,7 @@
         <v>0.84861111111111109</v>
       </c>
       <c r="E38" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.17847222222222225</v>
       </c>
       <c r="F38" s="15" t="str">
@@ -3750,7 +3766,7 @@
         <v>0.81805555555555554</v>
       </c>
       <c r="E39" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.8888888888888906E-2</v>
       </c>
       <c r="F39" s="15" t="str">
@@ -3775,7 +3791,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="E40" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.10069444444444442</v>
       </c>
       <c r="F40" s="15" t="str">
@@ -3797,7 +3813,7 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="E41" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.18055555555555558</v>
       </c>
       <c r="F41" s="15" t="str">
@@ -3822,7 +3838,7 @@
         <v>0.67013888888888884</v>
       </c>
       <c r="E42" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>0.13541666666666663</v>
       </c>
       <c r="F42" s="15" t="str">
@@ -3850,7 +3866,7 @@
         <v>0.84722222222222221</v>
       </c>
       <c r="E43" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>7.638888888888884E-2</v>
       </c>
       <c r="F43" s="15" t="str">
@@ -3872,7 +3888,7 @@
         <v>0.625</v>
       </c>
       <c r="E44" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.680555555555558E-2</v>
       </c>
       <c r="F44" s="15" t="str">
@@ -3894,7 +3910,7 @@
         <v>0.72569444444444453</v>
       </c>
       <c r="E45" s="17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>8.3333333333333481E-2</v>
       </c>
       <c r="F45" s="15" t="str">
@@ -3908,29 +3924,56 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="27">
+        <v>45230</v>
+      </c>
+      <c r="C46" s="16">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D46" s="12">
+        <v>0.6118055555555556</v>
+      </c>
+      <c r="E46" s="17">
+        <f t="shared" si="2"/>
+        <v>0.1256944444444445</v>
       </c>
       <c r="F46" s="15" t="str">
         <f>IF(E46="","",_xlfn.CONCAT(HOUR(SUM($E$4:E46))," hours ",MINUTE(SUM($E$4:E46))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <v>8 hours 32 minutes</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B47" s="27">
+        <v>45230</v>
+      </c>
+      <c r="C47" s="16">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D47" s="12">
+        <v>0.82986111111111116</v>
+      </c>
+      <c r="E47" s="17">
+        <f t="shared" si="2"/>
+        <v>0.13194444444444453</v>
       </c>
       <c r="F47" s="15" t="str">
         <f>IF(E47="","",_xlfn.CONCAT(HOUR(SUM($E$4:E47))," hours ",MINUTE(SUM($E$4:E47))," minutes"))</f>
-        <v/>
+        <v>11 hours 42 minutes</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E48" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F48" s="15" t="str">
@@ -3940,7 +3983,7 @@
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F49" s="15" t="str">
@@ -3950,7 +3993,7 @@
     </row>
     <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F50" s="15" t="str">
@@ -3960,7 +4003,7 @@
     </row>
     <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F51" s="15" t="str">
@@ -3970,7 +4013,7 @@
     </row>
     <row r="52" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E52" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F52" s="15" t="str">
@@ -3980,7 +4023,7 @@
     </row>
     <row r="53" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E53" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F53" s="15" t="str">
@@ -3990,7 +4033,7 @@
     </row>
     <row r="54" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E54" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F54" s="15" t="str">
@@ -4000,7 +4043,7 @@
     </row>
     <row r="55" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E55" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F55" s="15" t="str">
@@ -4010,7 +4053,7 @@
     </row>
     <row r="56" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E56" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F56" s="15" t="str">
@@ -4020,7 +4063,7 @@
     </row>
     <row r="57" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E57" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F57" s="15" t="str">
@@ -4030,7 +4073,7 @@
     </row>
     <row r="58" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E58" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F58" s="15" t="str">
@@ -4040,7 +4083,7 @@
     </row>
     <row r="59" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E59" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F59" s="15" t="str">
@@ -4050,7 +4093,7 @@
     </row>
     <row r="60" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E60" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F60" s="15" t="str">
@@ -4060,7 +4103,7 @@
     </row>
     <row r="61" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E61" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F61" s="15" t="str">
@@ -4070,7 +4113,7 @@
     </row>
     <row r="62" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E62" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F62" s="15" t="str">
@@ -4080,7 +4123,7 @@
     </row>
     <row r="63" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E63" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F63" s="15" t="str">
@@ -4090,7 +4133,7 @@
     </row>
     <row r="64" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E64" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F64" s="15" t="str">
@@ -4100,7 +4143,7 @@
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E65" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F65" s="15" t="str">
@@ -4110,7 +4153,7 @@
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E66" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F66" s="15" t="str">
@@ -4120,7 +4163,7 @@
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E67" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F67" s="15" t="str">
@@ -4130,7 +4173,7 @@
     </row>
     <row r="68" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E68" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F68" s="15" t="str">
@@ -4140,7 +4183,7 @@
     </row>
     <row r="69" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E69" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F69" s="15" t="str">
@@ -4150,7 +4193,7 @@
     </row>
     <row r="70" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E70" s="17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F70" s="15" t="str">
@@ -4160,7 +4203,7 @@
     </row>
     <row r="71" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E71" s="17" t="str">
-        <f t="shared" ref="E71:E125" si="6">IF(OR(C71=0, D71=0),"", D71-C71)</f>
+        <f t="shared" ref="E71:E125" si="3">IF(OR(C71=0, D71=0),"", D71-C71)</f>
         <v/>
       </c>
       <c r="F71" s="15" t="str">
@@ -4170,7 +4213,7 @@
     </row>
     <row r="72" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E72" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F72" s="15" t="str">
@@ -4180,7 +4223,7 @@
     </row>
     <row r="73" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E73" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F73" s="15" t="str">
@@ -4190,7 +4233,7 @@
     </row>
     <row r="74" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E74" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F74" s="15" t="str">
@@ -4200,7 +4243,7 @@
     </row>
     <row r="75" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E75" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F75" s="15" t="str">
@@ -4210,7 +4253,7 @@
     </row>
     <row r="76" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E76" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F76" s="15" t="str">
@@ -4220,7 +4263,7 @@
     </row>
     <row r="77" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E77" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F77" s="15" t="str">
@@ -4230,7 +4273,7 @@
     </row>
     <row r="78" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E78" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F78" s="15" t="str">
@@ -4240,7 +4283,7 @@
     </row>
     <row r="79" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E79" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F79" s="15" t="str">
@@ -4250,7 +4293,7 @@
     </row>
     <row r="80" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E80" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F80" s="15" t="str">
@@ -4260,7 +4303,7 @@
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F81" s="15" t="str">
@@ -4270,7 +4313,7 @@
     </row>
     <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F82" s="15" t="str">
@@ -4280,7 +4323,7 @@
     </row>
     <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F83" s="15" t="str">
@@ -4290,7 +4333,7 @@
     </row>
     <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F84" s="15" t="str">
@@ -4300,7 +4343,7 @@
     </row>
     <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F85" s="15" t="str">
@@ -4310,7 +4353,7 @@
     </row>
     <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F86" s="15" t="str">
@@ -4320,7 +4363,7 @@
     </row>
     <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F87" s="15" t="str">
@@ -4330,7 +4373,7 @@
     </row>
     <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F88" s="15" t="str">
@@ -4340,7 +4383,7 @@
     </row>
     <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F89" s="15" t="str">
@@ -4350,7 +4393,7 @@
     </row>
     <row r="90" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E90" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F90" s="15" t="str">
@@ -4360,7 +4403,7 @@
     </row>
     <row r="91" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E91" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F91" s="15" t="str">
@@ -4370,7 +4413,7 @@
     </row>
     <row r="92" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E92" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F92" s="15" t="str">
@@ -4380,7 +4423,7 @@
     </row>
     <row r="93" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E93" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F93" s="15" t="str">
@@ -4390,7 +4433,7 @@
     </row>
     <row r="94" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E94" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F94" s="15" t="str">
@@ -4400,7 +4443,7 @@
     </row>
     <row r="95" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E95" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F95" s="15" t="str">
@@ -4410,7 +4453,7 @@
     </row>
     <row r="96" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E96" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F96" s="15" t="str">
@@ -4420,7 +4463,7 @@
     </row>
     <row r="97" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E97" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F97" s="15" t="str">
@@ -4430,7 +4473,7 @@
     </row>
     <row r="98" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E98" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F98" s="15" t="str">
@@ -4440,7 +4483,7 @@
     </row>
     <row r="99" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E99" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F99" s="15" t="str">
@@ -4450,7 +4493,7 @@
     </row>
     <row r="100" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E100" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F100" s="15" t="str">
@@ -4460,7 +4503,7 @@
     </row>
     <row r="101" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E101" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F101" s="15" t="str">
@@ -4470,7 +4513,7 @@
     </row>
     <row r="102" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E102" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F102" s="15" t="str">
@@ -4480,7 +4523,7 @@
     </row>
     <row r="103" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E103" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F103" s="15" t="str">
@@ -4490,7 +4533,7 @@
     </row>
     <row r="104" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E104" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F104" s="15" t="str">
@@ -4500,7 +4543,7 @@
     </row>
     <row r="105" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E105" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="F105" s="15" t="str">
@@ -4510,121 +4553,121 @@
     </row>
     <row r="106" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E106" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="107" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E107" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="108" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E108" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="109" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E109" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="110" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E110" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="111" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E111" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="112" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E112" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" s="17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1132041-8A3D-4AA8-A761-FC10E3E2DAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6939FC90-7EB4-49A5-B596-A21CD66F8046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
   <si>
     <t>Start Time:</t>
   </si>
@@ -515,6 +514,12 @@
   </si>
   <si>
     <t>Next is the new file/folder button functionality</t>
+  </si>
+  <si>
+    <t>Styling and file/folder name validation</t>
+  </si>
+  <si>
+    <t>^^^^^^^^^^^^</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1499,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,7 +1978,7 @@
       </c>
       <c r="AO4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 15 minutes</v>
       </c>
       <c r="AP4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2559,155 +2564,155 @@
       </c>
       <c r="AO6" s="37" t="str" cm="1">
         <f t="array" ref="AO6">INT((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AO$4, 2))), SUM(MID($K$4:AO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>107 hours 42 minutes</v>
+        <v>109 hours 57 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -3402,7 +3407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <v>45215</v>
       </c>
@@ -3972,13 +3977,28 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B48" s="27">
+        <v>45231</v>
+      </c>
+      <c r="C48" s="16">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.88194444444444453</v>
+      </c>
+      <c r="E48" s="17">
+        <f t="shared" si="2"/>
+        <v>9.375E-2</v>
       </c>
       <c r="F48" s="15" t="str">
         <f>IF(E48="","",_xlfn.CONCAT(HOUR(SUM($E$4:E48))," hours ",MINUTE(SUM($E$4:E48))," minutes"))</f>
-        <v/>
+        <v>13 hours 57 minutes</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6939FC90-7EB4-49A5-B596-A21CD66F8046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6A1579-7B3A-4EB2-B2AB-279D15DB48B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
   <si>
     <t>Start Time:</t>
   </si>
@@ -520,6 +520,12 @@
   </si>
   <si>
     <t>^^^^^^^^^^^^</t>
+  </si>
+  <si>
+    <t>New file/folder feature complete,  sign in page buttons are Oauth again, the editor no longer requires you to be signed in to open a project, but you must be an owner or collaborator to save, save icon expands when project not saved</t>
+  </si>
+  <si>
+    <t>Next is the fork feature, then finally the diff button? Also need to add rename nad delete files</t>
   </si>
 </sst>
 </file>
@@ -1498,8 +1504,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,7 +1988,7 @@
       </c>
       <c r="AP4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>01 hours 55 minutes</v>
       </c>
       <c r="AQ4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2568,151 +2574,151 @@
       </c>
       <c r="AP6" s="37" t="str" cm="1">
         <f t="array" ref="AP6">INT((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AP$4, 2))), SUM(MID($K$4:AP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>109 hours 57 minutes</v>
+        <v>111 hours 52 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4001,17 +4007,32 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="49" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B49" s="27">
+        <v>45232</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0.75694444444444453</v>
+      </c>
+      <c r="D49" s="12">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="E49" s="17">
+        <f t="shared" si="2"/>
+        <v>7.9861111111110938E-2</v>
       </c>
       <c r="F49" s="15" t="str">
         <f>IF(E49="","",_xlfn.CONCAT(HOUR(SUM($E$4:E49))," hours ",MINUTE(SUM($E$4:E49))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
+        <v>15 hours 52 minutes</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E50" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4021,7 +4042,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E51" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4031,7 +4052,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E52" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4041,7 +4062,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E53" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4051,7 +4072,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E54" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4061,7 +4082,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E55" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4071,7 +4092,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E56" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4081,7 +4102,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E57" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4091,7 +4112,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E58" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4101,7 +4122,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E59" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4111,7 +4132,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E60" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4121,7 +4142,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E61" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4131,7 +4152,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E62" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4141,7 +4162,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E63" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4151,7 +4172,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E64" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6A1579-7B3A-4EB2-B2AB-279D15DB48B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B31EDA-EB1B-498E-81DD-BE711F438F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="158">
   <si>
     <t>Start Time:</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>Next is the fork feature, then finally the diff button? Also need to add rename nad delete files</t>
+  </si>
+  <si>
+    <t>Folder and File Renaming!</t>
+  </si>
+  <si>
+    <t>Delete Files, diff button, fork button, profile viewer/search</t>
   </si>
 </sst>
 </file>
@@ -1505,7 +1511,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,7 +1998,7 @@
       </c>
       <c r="AQ4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>05 hours 45 minutes</v>
       </c>
       <c r="AR4" s="40" t="str">
         <f t="shared" si="1"/>
@@ -2578,147 +2584,147 @@
       </c>
       <c r="AQ6" s="47" t="str" cm="1">
         <f t="array" ref="AQ6">INT((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AQ$4, 2))), SUM(MID($K$4:AQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>111 hours 52 minutes</v>
+        <v>117 hours 37 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4032,14 +4038,29 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E50" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="27">
+        <v>45233</v>
+      </c>
+      <c r="C50" s="16">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D50" s="12">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="E50" s="17">
+        <f t="shared" si="2"/>
+        <v>0.23958333333333331</v>
       </c>
       <c r="F50" s="15" t="str">
         <f>IF(E50="","",_xlfn.CONCAT(HOUR(SUM($E$4:E50))," hours ",MINUTE(SUM($E$4:E50))," minutes"))</f>
-        <v/>
+        <v>21 hours 37 minutes</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B31EDA-EB1B-498E-81DD-BE711F438F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A7E78F-F81E-4D13-9FB7-E9DC33A58F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="161">
   <si>
     <t>Start Time:</t>
   </si>
@@ -532,6 +532,15 @@
   </si>
   <si>
     <t>Delete Files, diff button, fork button, profile viewer/search</t>
+  </si>
+  <si>
+    <t>Delete folders and files woohoo!</t>
+  </si>
+  <si>
+    <t>Reworked dashboard looks, added the profile view to it. Also made but didn not test the search for user endpoint, and made the get projects endpoints sort by last modified date</t>
+  </si>
+  <si>
+    <t>Next is making the profile viewer/editor actually update the profile, and add the profile collaborator components to the editor</t>
   </si>
 </sst>
 </file>
@@ -1510,8 +1519,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,7 +2011,7 @@
       </c>
       <c r="AR4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>00 hours 10 minutes</v>
       </c>
       <c r="AS4" s="42" t="str">
         <f t="shared" si="1"/>
@@ -2010,7 +2019,7 @@
       </c>
       <c r="AT4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 07 minutes</v>
       </c>
       <c r="AU4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2588,143 +2597,143 @@
       </c>
       <c r="AR6" s="48" t="str" cm="1">
         <f t="array" ref="AR6">INT((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AR$4, 2))), SUM(MID($K$4:AR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>117 hours 47 minutes</v>
       </c>
       <c r="AS6" s="49" t="str" cm="1">
         <f t="array" ref="AS6">INT((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AS$4, 2))), SUM(MID($K$4:AS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>117 hours 47 minutes</v>
       </c>
       <c r="AT6" s="46" t="str" cm="1">
         <f t="array" ref="AT6">INT((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AT$4, 2))), SUM(MID($K$4:AT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>117 hours 37 minutes</v>
+        <v>119 hours 54 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4064,23 +4073,50 @@
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E51" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B51" s="27">
+        <v>45234</v>
+      </c>
+      <c r="C51" s="16">
+        <v>0.65972222222222221</v>
+      </c>
+      <c r="D51" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E51" s="17">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="F51" s="15" t="str">
         <f>IF(E51="","",_xlfn.CONCAT(HOUR(SUM($E$4:E51))," hours ",MINUTE(SUM($E$4:E51))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E52" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>21 hours 47 minutes</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B52" s="27">
+        <v>45236</v>
+      </c>
+      <c r="C52" s="16">
+        <v>0.72013888888888899</v>
+      </c>
+      <c r="D52" s="12">
+        <v>0.80833333333333324</v>
+      </c>
+      <c r="E52" s="17">
+        <f t="shared" si="2"/>
+        <v>8.8194444444444242E-2</v>
       </c>
       <c r="F52" s="15" t="str">
         <f>IF(E52="","",_xlfn.CONCAT(HOUR(SUM($E$4:E52))," hours ",MINUTE(SUM($E$4:E52))," minutes"))</f>
-        <v/>
+        <v>23 hours 54 minutes</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A7E78F-F81E-4D13-9FB7-E9DC33A58F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB079084-7FE5-4137-B403-F154A59D6D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="164">
   <si>
     <t>Start Time:</t>
   </si>
@@ -541,6 +541,15 @@
   </si>
   <si>
     <t>Next is making the profile viewer/editor actually update the profile, and add the profile collaborator components to the editor</t>
+  </si>
+  <si>
+    <t>Need to make a public account view</t>
+  </si>
+  <si>
+    <t>Made the profile component on the dashboard update profiles, added profile accordions to the project config in the editor</t>
+  </si>
+  <si>
+    <t>Next is making the add and remove collaborator functions, right now the component is just pretty frontend</t>
   </si>
 </sst>
 </file>
@@ -1519,8 +1528,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2032,7 @@
       </c>
       <c r="AU4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 00 minutes</v>
       </c>
       <c r="AV4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2609,131 +2618,131 @@
       </c>
       <c r="AU6" s="37" t="str" cm="1">
         <f t="array" ref="AU6">INT((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AU$4, 2))), SUM(MID($K$4:AU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>119 hours 54 minutes</v>
+        <v>121 hours 54 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4022,7 +4031,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B49" s="27">
         <v>45232</v>
       </c>
@@ -4047,7 +4056,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="27">
         <v>45233</v>
       </c>
@@ -4072,7 +4081,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="27">
         <v>45234</v>
       </c>
@@ -4094,7 +4103,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B52" s="27">
         <v>45236</v>
       </c>
@@ -4119,17 +4128,35 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E53" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="53" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B53" s="27">
+        <v>45237</v>
+      </c>
+      <c r="C53" s="16">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="D53" s="12">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="E53" s="17">
+        <f t="shared" si="2"/>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="F53" s="15" t="str">
         <f>IF(E53="","",_xlfn.CONCAT(HOUR(SUM($E$4:E53))," hours ",MINUTE(SUM($E$4:E53))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1 hours 54 minutes</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="I53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E54" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4139,7 +4166,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E55" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4149,7 +4176,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E56" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4159,7 +4186,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E57" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4169,7 +4196,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E58" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4179,7 +4206,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E59" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4189,7 +4216,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E60" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4199,7 +4226,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E61" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4209,7 +4236,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E62" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4219,7 +4246,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E63" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4229,7 +4256,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E64" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB079084-7FE5-4137-B403-F154A59D6D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B9460A-98BE-4F02-8141-F5CCB1878716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="166">
   <si>
     <t>Start Time:</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>Next is making the add and remove collaborator functions, right now the component is just pretty frontend</t>
+  </si>
+  <si>
+    <t>I got the collaborator stuff working! Collaborators can see shared projects on their dashboard, as well as update projects shared with them!</t>
+  </si>
+  <si>
+    <t>I don't know what in particular to do next, but I know the diff button needs work still lol</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1535,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2036,7 +2042,7 @@
       </c>
       <c r="AV4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 40 minutes</v>
       </c>
       <c r="AW4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2622,127 +2628,127 @@
       </c>
       <c r="AV6" s="37" t="str" cm="1">
         <f t="array" ref="AV6">INT((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AV$4, 2))), SUM(MID($K$4:AV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>121 hours 54 minutes</v>
+        <v>124 hours 34 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4156,14 +4162,29 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="54" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B54" s="27">
+        <v>45238</v>
+      </c>
+      <c r="C54" s="16">
+        <v>0.74305555555555547</v>
+      </c>
+      <c r="D54" s="12">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E54" s="17">
+        <f t="shared" si="2"/>
+        <v>0.11111111111111116</v>
       </c>
       <c r="F54" s="15" t="str">
         <f>IF(E54="","",_xlfn.CONCAT(HOUR(SUM($E$4:E54))," hours ",MINUTE(SUM($E$4:E54))," minutes"))</f>
-        <v/>
+        <v>4 hours 34 minutes</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B9460A-98BE-4F02-8141-F5CCB1878716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E49BB0-8E4C-4A0D-A1D6-ED7263C4243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="168">
   <si>
     <t>Start Time:</t>
   </si>
@@ -552,10 +552,16 @@
     <t>Next is making the add and remove collaborator functions, right now the component is just pretty frontend</t>
   </si>
   <si>
-    <t>I got the collaborator stuff working! Collaborators can see shared projects on their dashboard, as well as update projects shared with them!</t>
-  </si>
-  <si>
     <t>I don't know what in particular to do next, but I know the diff button needs work still lol</t>
+  </si>
+  <si>
+    <t>I got the collaborator stuff working! Collaborators can see shared projects on their dashboard, as well as update projects shared with them! Oh also custom scrollbars in some places</t>
+  </si>
+  <si>
+    <t>Diff button finally implemented!!!! Mini File Display for the template preview on create project is implemented!! Started reworking the landing page!</t>
+  </si>
+  <si>
+    <t>Next is the public profile page/endpoints, as well as finishing up the landing page</t>
   </si>
 </sst>
 </file>
@@ -1534,8 +1540,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2046,7 +2052,7 @@
       </c>
       <c r="AW4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 25 minutes</v>
       </c>
       <c r="AX4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2632,123 +2638,123 @@
       </c>
       <c r="AW6" s="37" t="str" cm="1">
         <f t="array" ref="AW6">INT((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AW$4, 2))), SUM(MID($K$4:AW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>124 hours 34 minutes</v>
+        <v>126 hours 59 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4162,7 +4168,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B54" s="27">
         <v>45238</v>
       </c>
@@ -4181,20 +4187,35 @@
         <v>4 hours 34 minutes</v>
       </c>
       <c r="G54" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="H54" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E55" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    </row>
+    <row r="55" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B55" s="27">
+        <v>45239</v>
+      </c>
+      <c r="C55" s="16">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D55" s="12">
+        <v>0.8125</v>
+      </c>
+      <c r="E55" s="17">
+        <f t="shared" si="2"/>
+        <v>0.10069444444444453</v>
       </c>
       <c r="F55" s="15" t="str">
         <f>IF(E55="","",_xlfn.CONCAT(HOUR(SUM($E$4:E55))," hours ",MINUTE(SUM($E$4:E55))," minutes"))</f>
-        <v/>
+        <v>6 hours 59 minutes</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="H55" s="25" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E49BB0-8E4C-4A0D-A1D6-ED7263C4243F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADA99AE-DF03-4EAA-9ADC-9A42C651BEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="170">
   <si>
     <t>Start Time:</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>Next is the public profile page/endpoints, as well as finishing up the landing page</t>
+  </si>
+  <si>
+    <t>Public Profile Page</t>
+  </si>
+  <si>
+    <t>Show off to Canterra</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1547,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2062,7 @@
       </c>
       <c r="AX4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>00 hours 40 minutes</v>
       </c>
       <c r="AY4" s="40" t="str">
         <f t="shared" si="1"/>
@@ -2642,119 +2648,119 @@
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>126 hours 59 minutes</v>
+        <v>127 hours 39 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4219,13 +4225,28 @@
       </c>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E56" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B56" s="27">
+        <v>45240</v>
+      </c>
+      <c r="C56" s="16">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D56" s="12">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E56" s="17">
+        <f t="shared" si="2"/>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="F56" s="15" t="str">
         <f>IF(E56="","",_xlfn.CONCAT(HOUR(SUM($E$4:E56))," hours ",MINUTE(SUM($E$4:E56))," minutes"))</f>
-        <v/>
+        <v>7 hours 39 minutes</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ADA99AE-DF03-4EAA-9ADC-9A42C651BEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF7C69-E888-4EE9-8AB1-A509ADD9D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="172">
   <si>
     <t>Start Time:</t>
   </si>
@@ -568,6 +568,12 @@
   </si>
   <si>
     <t>Show off to Canterra</t>
+  </si>
+  <si>
+    <t>Dependency viewer, some bugs, the fork function, and more tweaks</t>
+  </si>
+  <si>
+    <t>Oauth or GPT stuff</t>
   </si>
 </sst>
 </file>
@@ -1546,8 +1552,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2068,7 @@
       </c>
       <c r="AX4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 40 minutes</v>
+        <v>03 hours 15 minutes</v>
       </c>
       <c r="AY4" s="40" t="str">
         <f t="shared" si="1"/>
@@ -2648,119 +2654,119 @@
       </c>
       <c r="AX6" s="47" t="str" cm="1">
         <f t="array" ref="AX6">INT((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AX$4, 2))), SUM(MID($K$4:AX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>127 hours 39 minutes</v>
+        <v>130 hours 13.9999999999991 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4249,14 +4255,29 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E57" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="57" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="27">
+        <v>45240</v>
+      </c>
+      <c r="C57" s="16">
+        <v>0.625</v>
+      </c>
+      <c r="D57" s="12">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="E57" s="17">
+        <f t="shared" si="2"/>
+        <v>0.10763888888888884</v>
       </c>
       <c r="F57" s="15" t="str">
         <f>IF(E57="","",_xlfn.CONCAT(HOUR(SUM($E$4:E57))," hours ",MINUTE(SUM($E$4:E57))," minutes"))</f>
-        <v/>
+        <v>10 hours 14 minutes</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H57" s="25" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF7C69-E888-4EE9-8AB1-A509ADD9D81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23F6738-D481-47AF-9838-C865FDEBCEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="193">
   <si>
     <t>Start Time:</t>
   </si>
@@ -574,6 +574,69 @@
   </si>
   <si>
     <t>Oauth or GPT stuff</t>
+  </si>
+  <si>
+    <t>Big learning hours. Openai released a new beta feature that I will be implementing, it took me a minute to grasp how it works, but it actually works how I originally thought completions would</t>
+  </si>
+  <si>
+    <t>Next is to actually implement the new GPT chat functionality</t>
+  </si>
+  <si>
+    <t>Work on updating GPT chat functionality</t>
+  </si>
+  <si>
+    <t>122 hours</t>
+  </si>
+  <si>
+    <t>126 hours</t>
+  </si>
+  <si>
+    <t>128 hours</t>
+  </si>
+  <si>
+    <t>130 hours</t>
+  </si>
+  <si>
+    <t>133 hours</t>
+  </si>
+  <si>
+    <t>140 hours</t>
+  </si>
+  <si>
+    <t>138 hours</t>
+  </si>
+  <si>
+    <t>142 hours</t>
+  </si>
+  <si>
+    <t>146 hours</t>
+  </si>
+  <si>
+    <t>148 hours</t>
+  </si>
+  <si>
+    <t>150 hours</t>
+  </si>
+  <si>
+    <t>153 hours</t>
+  </si>
+  <si>
+    <t>158 hours</t>
+  </si>
+  <si>
+    <t>160 hours</t>
+  </si>
+  <si>
+    <t>Added toasts</t>
+  </si>
+  <si>
+    <t>That stuff ^^^^</t>
+  </si>
+  <si>
+    <t>Refactored GPT conversation stuff</t>
+  </si>
+  <si>
+    <t>Make it so you can change a projects start server command, that way we can support other project types</t>
   </si>
 </sst>
 </file>
@@ -1552,8 +1615,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,7 +2135,7 @@
       </c>
       <c r="AY4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 46 minutes</v>
       </c>
       <c r="AZ4" s="42" t="str">
         <f t="shared" si="1"/>
@@ -2080,7 +2143,7 @@
       </c>
       <c r="BA4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>01 hours 13 minutes</v>
       </c>
       <c r="BB4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2088,7 +2151,7 @@
       </c>
       <c r="BC4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 55 minutes</v>
       </c>
       <c r="BD4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2658,115 +2721,115 @@
       </c>
       <c r="AY6" s="48" t="str" cm="1">
         <f t="array" ref="AY6">INT((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AY$4, 2))), SUM(MID($K$4:AY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>133 hours 0 minutes</v>
       </c>
       <c r="AZ6" s="49" t="str" cm="1">
         <f t="array" ref="AZ6">INT((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:AZ$4, 2))), SUM(MID($K$4:AZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>133 hours 0 minutes</v>
       </c>
       <c r="BA6" s="46" t="str" cm="1">
         <f t="array" ref="BA6">INT((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BA$4, 2))), SUM(MID($K$4:BA$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>134 hours 13 minutes</v>
       </c>
       <c r="BB6" s="37" t="str" cm="1">
         <f t="array" ref="BB6">INT((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BB$4, 2))), SUM(MID($K$4:BB$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>134 hours 13 minutes</v>
       </c>
       <c r="BC6" s="37" t="str" cm="1">
         <f t="array" ref="BC6">INT((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BC$4, 2))), SUM(MID($K$4:BC$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>130 hours 13.9999999999991 minutes</v>
+        <v>137 hours 8 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -2999,6 +3062,48 @@
       <c r="AZ7" s="39" t="s">
         <v>139</v>
       </c>
+      <c r="BA7" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB7" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC7" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD7" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="BE7" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF7" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="BG7" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH7" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI7" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ7" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK7" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="BL7" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM7" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN7" s="39" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="8" spans="1:151" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
@@ -3224,7 +3329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:151" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -3405,7 +3510,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <v>45213</v>
       </c>
@@ -3433,7 +3538,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>45214</v>
       </c>
@@ -4280,44 +4385,101 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E58" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="58" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="B58" s="27">
+        <v>45241</v>
+      </c>
+      <c r="C58" s="16">
+        <v>0.59375</v>
+      </c>
+      <c r="D58" s="12">
+        <v>0.7090277777777777</v>
+      </c>
+      <c r="E58" s="17">
+        <f t="shared" si="2"/>
+        <v>0.1152777777777777</v>
       </c>
       <c r="F58" s="15" t="str">
         <f>IF(E58="","",_xlfn.CONCAT(HOUR(SUM($E$4:E58))," hours ",MINUTE(SUM($E$4:E58))," minutes"))</f>
-        <v/>
+        <v>13 hours 0 minutes</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="H58" s="25" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E59" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B59" s="27">
+        <v>45243</v>
+      </c>
+      <c r="C59" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D59" s="12">
+        <v>0.50902777777777775</v>
+      </c>
+      <c r="E59" s="17">
+        <f t="shared" si="2"/>
+        <v>5.0694444444444431E-2</v>
       </c>
       <c r="F59" s="15" t="str">
         <f>IF(E59="","",_xlfn.CONCAT(HOUR(SUM($E$4:E59))," hours ",MINUTE(SUM($E$4:E59))," minutes"))</f>
-        <v/>
+        <v>14 hours 13 minutes</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E60" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="B60" s="27">
+        <v>45245</v>
+      </c>
+      <c r="C60" s="16">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D60" s="12">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="E60" s="17">
+        <f t="shared" si="2"/>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="F60" s="15" t="str">
         <f>IF(E60="","",_xlfn.CONCAT(HOUR(SUM($E$4:E60))," hours ",MINUTE(SUM($E$4:E60))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E61" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>15 hours 28 minutes</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H60" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B61" s="27">
+        <v>45245</v>
+      </c>
+      <c r="C61" s="16">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="D61" s="12">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="E61" s="17">
+        <f t="shared" si="2"/>
+        <v>6.9444444444444309E-2</v>
       </c>
       <c r="F61" s="15" t="str">
         <f>IF(E61="","",_xlfn.CONCAT(HOUR(SUM($E$4:E61))," hours ",MINUTE(SUM($E$4:E61))," minutes"))</f>
-        <v/>
+        <v>17 hours 8 minutes</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="H61" s="25" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23F6738-D481-47AF-9838-C865FDEBCEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91EE244-7C37-493F-AA11-A1B8A2123E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="194">
   <si>
     <t>Start Time:</t>
   </si>
@@ -637,6 +637,9 @@
   </si>
   <si>
     <t>Make it so you can change a projects start server command, that way we can support other project types</t>
+  </si>
+  <si>
+    <t>You can change the projects start command now. Tweaked profile accordion</t>
   </si>
 </sst>
 </file>
@@ -1616,7 +1619,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+      <selection activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,7 +2158,7 @@
       </c>
       <c r="BD4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>01 hours 15 minutes</v>
       </c>
       <c r="BE4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2741,95 +2744,95 @@
       </c>
       <c r="BD6" s="37" t="str" cm="1">
         <f t="array" ref="BD6">INT((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BD$4, 2))), SUM(MID($K$4:BD$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>137 hours 8 minutes</v>
+        <v>138 hours 23 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4482,14 +4485,26 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E62" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="62" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B62" s="27">
+        <v>45246</v>
+      </c>
+      <c r="C62" s="16">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D62" s="12">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E62" s="17">
+        <f t="shared" si="2"/>
+        <v>5.2083333333333315E-2</v>
       </c>
       <c r="F62" s="15" t="str">
         <f>IF(E62="","",_xlfn.CONCAT(HOUR(SUM($E$4:E62))," hours ",MINUTE(SUM($E$4:E62))," minutes"))</f>
-        <v/>
+        <v>18 hours 23 minutes</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91EE244-7C37-493F-AA11-A1B8A2123E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36720E27-DD37-4CC5-B8A2-C96F0716D132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="196">
   <si>
     <t>Start Time:</t>
   </si>
@@ -640,6 +640,12 @@
   </si>
   <si>
     <t>You can change the projects start command now. Tweaked profile accordion</t>
+  </si>
+  <si>
+    <t>You can now download your projects, and I've started on the front page rework.</t>
+  </si>
+  <si>
+    <t>Continue the front page rework, after that is testing/polish/presentation prep</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1625,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,7 +2168,7 @@
       </c>
       <c r="BE4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>03 hours 40 minutes</v>
       </c>
       <c r="BF4" s="40" t="str">
         <f t="shared" si="1"/>
@@ -2748,91 +2754,91 @@
       </c>
       <c r="BE6" s="47" t="str" cm="1">
         <f t="array" ref="BE6">INT((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BE$4, 2))), SUM(MID($K$4:BE$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>138 hours 23 minutes</v>
+        <v>142 hours 3 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4507,14 +4513,29 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E63" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="63" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B63" s="27">
+        <v>45247</v>
+      </c>
+      <c r="C63" s="16">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D63" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E63" s="17">
+        <f t="shared" si="2"/>
+        <v>0.15277777777777768</v>
       </c>
       <c r="F63" s="15" t="str">
         <f>IF(E63="","",_xlfn.CONCAT(HOUR(SUM($E$4:E63))," hours ",MINUTE(SUM($E$4:E63))," minutes"))</f>
-        <v/>
+        <v>22 hours 3 minutes</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="H63" s="25" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36720E27-DD37-4CC5-B8A2-C96F0716D132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EC181D-8876-4C50-AA96-F0B591C5037B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="199">
   <si>
     <t>Start Time:</t>
   </si>
@@ -646,6 +646,15 @@
   </si>
   <si>
     <t>Continue the front page rework, after that is testing/polish/presentation prep</t>
+  </si>
+  <si>
+    <t>Finished up the mock editor, started on the next bit of the landing page</t>
+  </si>
+  <si>
+    <t>Landing page progress, get more of it done so you can work on GPT improvements or getting the project online</t>
+  </si>
+  <si>
+    <t>Another day to address unaddressed comments and spreadsheet items should be soon</t>
   </si>
 </sst>
 </file>
@@ -1624,8 +1633,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,7 +2181,7 @@
       </c>
       <c r="BF4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>03 hours 05 minutes</v>
       </c>
       <c r="BG4" s="42" t="str">
         <f t="shared" si="1"/>
@@ -2758,87 +2767,87 @@
       </c>
       <c r="BF6" s="48" t="str" cm="1">
         <f t="array" ref="BF6">INT((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BF$4, 2))), SUM(MID($K$4:BF$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BG6" s="49" t="str" cm="1">
         <f t="array" ref="BG6">INT((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BG$4, 2))), SUM(MID($K$4:BG$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>142 hours 3 minutes</v>
+        <v>145 hours 8 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4538,17 +4547,32 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E64" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="64" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B64" s="27">
+        <v>45248</v>
+      </c>
+      <c r="C64" s="16">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D64" s="12">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E64" s="17">
+        <f t="shared" si="2"/>
+        <v>0.12847222222222232</v>
       </c>
       <c r="F64" s="15" t="str">
         <f>IF(E64="","",_xlfn.CONCAT(HOUR(SUM($E$4:E64))," hours ",MINUTE(SUM($E$4:E64))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+        <v>1 hours 8 minutes</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="H64" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E65" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4558,7 +4582,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E66" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4567,8 +4591,11 @@
         <f>IF(E66="","",_xlfn.CONCAT(HOUR(SUM($E$4:E66))," hours ",MINUTE(SUM($E$4:E66))," minutes"))</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E67" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4578,7 +4605,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E68" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4588,7 +4615,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E69" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4598,7 +4625,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E70" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4608,7 +4635,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E71" s="17" t="str">
         <f t="shared" ref="E71:E125" si="3">IF(OR(C71=0, D71=0),"", D71-C71)</f>
         <v/>
@@ -4618,7 +4645,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E72" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4628,7 +4655,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E73" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4638,7 +4665,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E74" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4648,7 +4675,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E75" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4658,7 +4685,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E76" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4668,7 +4695,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E77" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4678,7 +4705,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E78" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4688,7 +4715,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E79" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4698,7 +4725,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E80" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EC181D-8876-4C50-AA96-F0B591C5037B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60C9748-C8CF-48C4-8878-7E1020B26E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="201">
   <si>
     <t>Start Time:</t>
   </si>
@@ -655,6 +655,12 @@
   </si>
   <si>
     <t>Another day to address unaddressed comments and spreadsheet items should be soon</t>
+  </si>
+  <si>
+    <t>Finished the first part of the landing page, and the tech stack bit</t>
+  </si>
+  <si>
+    <t>Next is the "These frameworks are possible" blurb, which means testing/making templates for other project types, also the "No really try it" blurb and the footer need work</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1640,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2195,7 @@
       </c>
       <c r="BH4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 10 minutes</v>
       </c>
       <c r="BI4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2775,79 +2781,79 @@
       </c>
       <c r="BH6" s="46" t="str" cm="1">
         <f t="array" ref="BH6">INT((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BH$4, 2))), SUM(MID($K$4:BH$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>145 hours 8 minutes</v>
+        <v>147 hours 18 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4572,17 +4578,32 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E65" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="65" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B65" s="27">
+        <v>45250</v>
+      </c>
+      <c r="C65" s="16">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D65" s="12">
+        <v>0.91319444444444453</v>
+      </c>
+      <c r="E65" s="17">
+        <f t="shared" si="2"/>
+        <v>9.0277777777777901E-2</v>
       </c>
       <c r="F65" s="15" t="str">
         <f>IF(E65="","",_xlfn.CONCAT(HOUR(SUM($E$4:E65))," hours ",MINUTE(SUM($E$4:E65))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+        <v>3 hours 18 minutes</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E66" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4595,7 +4616,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E67" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4605,7 +4626,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E68" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4615,7 +4636,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E69" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4625,7 +4646,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E70" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4635,7 +4656,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E71" s="17" t="str">
         <f t="shared" ref="E71:E125" si="3">IF(OR(C71=0, D71=0),"", D71-C71)</f>
         <v/>
@@ -4645,7 +4666,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E72" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4655,7 +4676,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E73" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4665,7 +4686,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E74" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4675,7 +4696,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E75" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4685,7 +4706,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E76" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4695,7 +4716,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E77" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4705,7 +4726,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E78" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4715,7 +4736,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E79" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4725,7 +4746,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E80" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60C9748-C8CF-48C4-8878-7E1020B26E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD7185E-193A-417F-BBC3-1274A4C4F05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="205">
   <si>
     <t>Start Time:</t>
   </si>
@@ -661,6 +661,18 @@
   </si>
   <si>
     <t>Next is the "These frameworks are possible" blurb, which means testing/making templates for other project types, also the "No really try it" blurb and the footer need work</t>
+  </si>
+  <si>
+    <t>Got the blank template working and smoothed out some webContainer wrinkles, got stuck trying to get next.js running in the web container</t>
+  </si>
+  <si>
+    <t>Get next.js running in the web container, or move on to another node.js example/template.</t>
+  </si>
+  <si>
+    <t>Got unstuck! By switching to babel webpack</t>
+  </si>
+  <si>
+    <t>Next web framework!</t>
   </si>
 </sst>
 </file>
@@ -1639,8 +1651,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2199,11 +2211,11 @@
       </c>
       <c r="BI4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 55 minutes</v>
       </c>
       <c r="BJ4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>00 hours 40 minutes</v>
       </c>
       <c r="BK4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2785,75 +2797,75 @@
       </c>
       <c r="BI6" s="37" t="str" cm="1">
         <f t="array" ref="BI6">INT((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BI$4, 2))), SUM(MID($K$4:BI$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 13 minutes</v>
       </c>
       <c r="BJ6" s="37" t="str" cm="1">
         <f t="array" ref="BJ6">INT((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BJ$4, 2))), SUM(MID($K$4:BJ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>147 hours 18 minutes</v>
+        <v>150 hours 53 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4603,27 +4615,54 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E66" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="66" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B66" s="27">
+        <v>45251</v>
+      </c>
+      <c r="C66" s="16">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="D66" s="12">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E66" s="17">
+        <f t="shared" si="2"/>
+        <v>0.12152777777777768</v>
       </c>
       <c r="F66" s="15" t="str">
         <f>IF(E66="","",_xlfn.CONCAT(HOUR(SUM($E$4:E66))," hours ",MINUTE(SUM($E$4:E66))," minutes"))</f>
-        <v/>
-      </c>
-      <c r="I66" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E67" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>6 hours 13 minutes</v>
+      </c>
+      <c r="G66" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="27">
+        <v>45252</v>
+      </c>
+      <c r="C67" s="16">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="D67" s="12">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E67" s="17">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="F67" s="15" t="str">
         <f>IF(E67="","",_xlfn.CONCAT(HOUR(SUM($E$4:E67))," hours ",MINUTE(SUM($E$4:E67))," minutes"))</f>
-        <v/>
+        <v>6 hours 53 minutes</v>
+      </c>
+      <c r="G67" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
@@ -4644,6 +4683,9 @@
       <c r="F69" s="15" t="str">
         <f>IF(E69="","",_xlfn.CONCAT(HOUR(SUM($E$4:E69))," hours ",MINUTE(SUM($E$4:E69))," minutes"))</f>
         <v/>
+      </c>
+      <c r="I69" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD7185E-193A-417F-BBC3-1274A4C4F05D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70202E76-C491-4E6E-A863-6967E79AB3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="207">
   <si>
     <t>Start Time:</t>
   </si>
@@ -673,6 +673,12 @@
   </si>
   <si>
     <t>Next web framework!</t>
+  </si>
+  <si>
+    <t>Got gridFS working for projects! I ran into my 16mb limit with an empty next.js project lol</t>
+  </si>
+  <si>
+    <t>I want to get another template or two done, and I want to finish the "try one of these templates" area. I also need to add the project deletion functionality to the frontend</t>
   </si>
 </sst>
 </file>
@@ -1652,24 +1658,24 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="32.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="16" customWidth="1"/>
     <col min="4" max="4" width="10" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="17" customWidth="1"/>
     <col min="6" max="6" width="20" style="15" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="37.88671875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.88671875" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="51" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" ht="36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:151" ht="36.6" x14ac:dyDescent="0.7">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1683,7 +1689,7 @@
       <c r="H1" s="22"/>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.3">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2"/>
@@ -1731,7 +1737,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:151" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:151" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -1984,7 +1990,7 @@
       <c r="ES3" s="41"/>
       <c r="ET3" s="41"/>
     </row>
-    <row r="4" spans="1:151" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:151" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
       <c r="B4" s="26">
         <v>45201</v>
@@ -2219,7 +2225,7 @@
       </c>
       <c r="BK4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>03 hours 10 minutes</v>
       </c>
       <c r="BL4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2303,7 +2309,7 @@
       <c r="ES4" s="40"/>
       <c r="ET4" s="42"/>
     </row>
-    <row r="5" spans="1:151" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:151" s="37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" s="27">
         <v>45202</v>
@@ -2568,7 +2574,7 @@
       <c r="ET5" s="45"/>
       <c r="EU5" s="36"/>
     </row>
-    <row r="6" spans="1:151" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:151" s="39" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="27">
         <v>45203</v>
@@ -2805,67 +2811,67 @@
       </c>
       <c r="BK6" s="37" t="str" cm="1">
         <f t="array" ref="BK6">INT((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BK$4, 2))), SUM(MID($K$4:BK$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>150 hours 53 minutes</v>
+        <v>154 hours 3 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -2941,7 +2947,7 @@
       <c r="ET6" s="49"/>
       <c r="EU6" s="46"/>
     </row>
-    <row r="7" spans="1:151" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:151" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="27">
         <v>45204</v>
@@ -3141,7 +3147,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:151" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:151" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B8" s="27">
         <v>45205</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:151" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:151" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B9" s="27">
         <v>45206</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:151" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:151" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="27">
         <v>45206</v>
       </c>
@@ -3225,7 +3231,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:151" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:151" ht="72" x14ac:dyDescent="0.3">
       <c r="B11" s="27">
         <v>45207</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:151" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:151" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B12" s="27">
         <v>45207</v>
       </c>
@@ -3281,7 +3287,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:151" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:151" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B13" s="27">
         <v>45208</v>
       </c>
@@ -3309,7 +3315,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:151" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:151" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B14" s="27">
         <v>45208</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:151" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:151" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B15" s="27">
         <v>45209</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:151" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:151" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B17" s="27">
         <v>45210</v>
       </c>
@@ -3412,7 +3418,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B18" s="27">
         <v>45210</v>
       </c>
@@ -3440,7 +3446,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B19" s="27">
         <v>45211</v>
       </c>
@@ -3468,7 +3474,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B20" s="27">
         <v>45211</v>
       </c>
@@ -3496,7 +3502,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B21" s="27">
         <v>45212</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B22" s="27">
         <v>45212</v>
       </c>
@@ -3546,7 +3552,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="27">
         <v>45213</v>
       </c>
@@ -3574,7 +3580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B24" s="27">
         <v>45214</v>
       </c>
@@ -3602,7 +3608,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="72" x14ac:dyDescent="0.3">
       <c r="B25" s="27">
         <v>45215</v>
       </c>
@@ -3630,7 +3636,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B26" s="27">
         <v>45216</v>
       </c>
@@ -3652,7 +3658,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B27" s="27">
         <v>45216</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B28" s="27">
         <v>45217</v>
       </c>
@@ -3705,7 +3711,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="27">
         <v>45218</v>
       </c>
@@ -3730,7 +3736,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B30" s="27">
         <v>45218</v>
       </c>
@@ -3755,7 +3761,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B31" s="27">
         <v>45218</v>
       </c>
@@ -3780,7 +3786,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B32" s="27">
         <v>45219</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B33" s="27">
         <v>45220</v>
       </c>
@@ -3827,7 +3833,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -3855,7 +3861,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B35" s="27">
         <v>45220</v>
       </c>
@@ -3880,7 +3886,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B36" s="27">
         <v>45221</v>
       </c>
@@ -3905,7 +3911,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B37" s="27">
         <v>45221</v>
       </c>
@@ -3930,7 +3936,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B38" s="27">
         <v>45223</v>
       </c>
@@ -3955,7 +3961,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B39" s="27">
         <v>45224</v>
       </c>
@@ -3980,7 +3986,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B40" s="27">
         <v>45225</v>
       </c>
@@ -4002,7 +4008,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B41" s="27">
         <v>45226</v>
       </c>
@@ -4027,7 +4033,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B42" s="27">
         <v>45227</v>
       </c>
@@ -4055,7 +4061,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="27">
         <v>45227</v>
       </c>
@@ -4077,7 +4083,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" s="27">
         <v>45228</v>
       </c>
@@ -4099,7 +4105,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B45" s="27">
         <v>45228</v>
       </c>
@@ -4124,7 +4130,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B46" s="27">
         <v>45230</v>
       </c>
@@ -4146,7 +4152,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B47" s="27">
         <v>45230</v>
       </c>
@@ -4171,7 +4177,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B48" s="27">
         <v>45231</v>
       </c>
@@ -4196,7 +4202,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B49" s="27">
         <v>45232</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="27">
         <v>45233</v>
       </c>
@@ -4246,7 +4252,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="27">
         <v>45234</v>
       </c>
@@ -4268,7 +4274,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B52" s="27">
         <v>45236</v>
       </c>
@@ -4293,7 +4299,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B53" s="27">
         <v>45237</v>
       </c>
@@ -4321,7 +4327,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B54" s="27">
         <v>45238</v>
       </c>
@@ -4346,7 +4352,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B55" s="27">
         <v>45239</v>
       </c>
@@ -4371,7 +4377,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="27">
         <v>45240</v>
       </c>
@@ -4396,7 +4402,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B57" s="27">
         <v>45240</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B58" s="27">
         <v>45241</v>
       </c>
@@ -4446,7 +4452,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="27">
         <v>45243</v>
       </c>
@@ -4468,7 +4474,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="27">
         <v>45245</v>
       </c>
@@ -4493,7 +4499,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B61" s="27">
         <v>45245</v>
       </c>
@@ -4518,7 +4524,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B62" s="27">
         <v>45246</v>
       </c>
@@ -4540,7 +4546,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B63" s="27">
         <v>45247</v>
       </c>
@@ -4565,7 +4571,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B64" s="27">
         <v>45248</v>
       </c>
@@ -4590,7 +4596,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B65" s="27">
         <v>45250</v>
       </c>
@@ -4615,7 +4621,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B66" s="27">
         <v>45251</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="27">
         <v>45252</v>
       </c>
@@ -4665,17 +4671,32 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E68" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="68" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="B68" s="27">
+        <v>45253</v>
+      </c>
+      <c r="C68" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="D68" s="12">
+        <v>0.69444444444444453</v>
+      </c>
+      <c r="E68" s="17">
+        <f t="shared" si="2"/>
+        <v>0.13194444444444453</v>
       </c>
       <c r="F68" s="15" t="str">
         <f>IF(E68="","",_xlfn.CONCAT(HOUR(SUM($E$4:E68))," hours ",MINUTE(SUM($E$4:E68))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>10 hours 3 minutes</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="H68" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E69" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4688,7 +4709,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E70" s="17" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -4698,7 +4719,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E71" s="17" t="str">
         <f t="shared" ref="E71:E125" si="3">IF(OR(C71=0, D71=0),"", D71-C71)</f>
         <v/>
@@ -4708,7 +4729,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E72" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4718,7 +4739,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E73" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4728,7 +4749,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E74" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4738,7 +4759,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E75" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4748,7 +4769,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E76" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4758,7 +4779,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E77" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4768,7 +4789,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E78" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4778,7 +4799,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E79" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4788,7 +4809,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="E80" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4798,7 +4819,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E81" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4808,7 +4829,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E82" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4818,7 +4839,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E83" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4828,7 +4849,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E84" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4838,7 +4859,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E85" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4848,7 +4869,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E86" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4858,7 +4879,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E87" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4868,7 +4889,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E88" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4878,7 +4899,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E89" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4888,7 +4909,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E90" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4898,7 +4919,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E91" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4908,7 +4929,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E92" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4918,7 +4939,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E93" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4928,7 +4949,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E94" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4938,7 +4959,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E95" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4948,7 +4969,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E96" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4958,7 +4979,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E97" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4968,7 +4989,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E98" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4978,7 +4999,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E99" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4988,7 +5009,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E100" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4998,7 +5019,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E101" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5008,7 +5029,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E102" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5018,7 +5039,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E103" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5028,7 +5049,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E104" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5038,7 +5059,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E105" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5048,121 +5069,121 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E106" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E107" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E108" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E109" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E110" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E111" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E112" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E113" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E114" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E115" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E116" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E117" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E118" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E119" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E120" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E121" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E122" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E123" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E124" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E125" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70202E76-C491-4E6E-A863-6967E79AB3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB86423D-C321-4872-82B9-CBD79C28E2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="211">
   <si>
     <t>Start Time:</t>
   </si>
@@ -679,6 +679,18 @@
   </si>
   <si>
     <t>I want to get another template or two done, and I want to finish the "try one of these templates" area. I also need to add the project deletion functionality to the frontend</t>
+  </si>
+  <si>
+    <t>I planned out the dashboard rework, and I cleaned up the index and started on the templates panel there</t>
+  </si>
+  <si>
+    <t>Next is to make the template buttons their own component, and crank out the new dashboard</t>
+  </si>
+  <si>
+    <t>I finished the landing page aside from the template buttons for templates that don't exist and template buttons for templates that do exist don't link</t>
+  </si>
+  <si>
+    <t>New Dashboard</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1670,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2229,11 +2241,11 @@
       </c>
       <c r="BL4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>00 hours 42 minutes</v>
       </c>
       <c r="BM4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>01 hours 00 minutes</v>
       </c>
       <c r="BN4" s="42" t="str">
         <f t="shared" si="1"/>
@@ -2815,63 +2827,63 @@
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>154 hours 45 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 3 minutes</v>
+        <v>155 hours 45 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4696,27 +4708,57 @@
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E69" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="69" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B69" s="27">
+        <v>45254</v>
+      </c>
+      <c r="C69" s="16">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="D69" s="12">
+        <v>0.76527777777777783</v>
+      </c>
+      <c r="E69" s="17">
+        <f t="shared" si="2"/>
+        <v>2.9166666666666674E-2</v>
       </c>
       <c r="F69" s="15" t="str">
         <f>IF(E69="","",_xlfn.CONCAT(HOUR(SUM($E$4:E69))," hours ",MINUTE(SUM($E$4:E69))," minutes"))</f>
-        <v/>
+        <v>10 hours 45 minutes</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="H69" s="25" t="s">
+        <v>208</v>
       </c>
       <c r="I69" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E70" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+    <row r="70" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="27">
+        <v>45255</v>
+      </c>
+      <c r="C70" s="16">
+        <v>0.94791666666666663</v>
+      </c>
+      <c r="D70" s="12">
+        <v>0.98958333333333337</v>
+      </c>
+      <c r="E70" s="17">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="F70" s="15" t="str">
         <f>IF(E70="","",_xlfn.CONCAT(HOUR(SUM($E$4:E70))," hours ",MINUTE(SUM($E$4:E70))," minutes"))</f>
-        <v/>
+        <v>11 hours 45 minutes</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="H70" s="25" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB86423D-C321-4872-82B9-CBD79C28E2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC64FB-F2C3-4DC4-9315-E4C03FFAA7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -687,10 +687,10 @@
     <t>Next is to make the template buttons their own component, and crank out the new dashboard</t>
   </si>
   <si>
-    <t>I finished the landing page aside from the template buttons for templates that don't exist and template buttons for templates that do exist don't link</t>
-  </si>
-  <si>
     <t>New Dashboard</t>
+  </si>
+  <si>
+    <t>I finished the landing page aside from the template buttons for templates that don't exist and template buttons for templates that do exist don't link. Also made the follower endpoints for the new dashboard</t>
   </si>
 </sst>
 </file>
@@ -1670,7 +1670,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2241,11 +2241,11 @@
       </c>
       <c r="BL4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 42 minutes</v>
+        <v>01 hours 57 minutes</v>
       </c>
       <c r="BM4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>01 hours 00 minutes</v>
+        <v>00 hours 00 minutes</v>
       </c>
       <c r="BN4" s="42" t="str">
         <f t="shared" si="1"/>
@@ -2827,63 +2827,63 @@
       </c>
       <c r="BL6" s="47" t="str" cm="1">
         <f t="array" ref="BL6">INT((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BL$4, 2))), SUM(MID($K$4:BL$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>154 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BM6" s="48" t="str" cm="1">
         <f t="array" ref="BM6">INT((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BM$4, 2))), SUM(MID($K$4:BM$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>155 hours 45 minutes</v>
+        <v>156 hours 0 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4736,29 +4736,29 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="72" x14ac:dyDescent="0.3">
       <c r="B70" s="27">
-        <v>45255</v>
+        <v>45254</v>
       </c>
       <c r="C70" s="16">
-        <v>0.94791666666666663</v>
+        <v>0.9375</v>
       </c>
       <c r="D70" s="12">
         <v>0.98958333333333337</v>
       </c>
       <c r="E70" s="17">
         <f t="shared" si="2"/>
-        <v>4.1666666666666741E-2</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="F70" s="15" t="str">
         <f>IF(E70="","",_xlfn.CONCAT(HOUR(SUM($E$4:E70))," hours ",MINUTE(SUM($E$4:E70))," minutes"))</f>
-        <v>11 hours 45 minutes</v>
+        <v>12 hours 0 minutes</v>
       </c>
       <c r="G70" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="H70" s="25" t="s">
         <v>209</v>
-      </c>
-      <c r="H70" s="25" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC64FB-F2C3-4DC4-9315-E4C03FFAA7D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B8D948-E8A2-41C2-BD35-1869AD566E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="213">
   <si>
     <t>Start Time:</t>
   </si>
@@ -691,6 +691,12 @@
   </si>
   <si>
     <t>I finished the landing page aside from the template buttons for templates that don't exist and template buttons for templates that do exist don't link. Also made the follower endpoints for the new dashboard</t>
+  </si>
+  <si>
+    <t>A ton of dashboard work as well as tweaks all over. Such as the secondary color now being yellow and projects now store their forks</t>
+  </si>
+  <si>
+    <t>Dashboard project context menu, dashboard following list, public profile overhaul, templates</t>
   </si>
 </sst>
 </file>
@@ -1669,25 +1675,25 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="16" customWidth="1"/>
     <col min="4" max="4" width="10" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" style="17" customWidth="1"/>
     <col min="6" max="6" width="20" style="15" customWidth="1"/>
-    <col min="7" max="7" width="37.88671875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="35.88671875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" style="25" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" style="51" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:151" ht="36.6" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:151" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1701,7 +1707,7 @@
       <c r="H1" s="22"/>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:151" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:151" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="5"/>
       <c r="D2"/>
@@ -1749,7 +1755,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:151" s="31" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:151" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="4" t="s">
         <v>5</v>
@@ -2002,7 +2008,7 @@
       <c r="ES3" s="41"/>
       <c r="ET3" s="41"/>
     </row>
-    <row r="4" spans="1:151" s="35" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:151" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="26">
         <v>45201</v>
@@ -2249,7 +2255,7 @@
       </c>
       <c r="BN4" s="42" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>04 hours 05 minutes</v>
       </c>
       <c r="BO4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2321,7 +2327,7 @@
       <c r="ES4" s="40"/>
       <c r="ET4" s="42"/>
     </row>
-    <row r="5" spans="1:151" s="37" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:151" s="37" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5"/>
       <c r="B5" s="27">
         <v>45202</v>
@@ -2586,7 +2592,7 @@
       <c r="ET5" s="45"/>
       <c r="EU5" s="36"/>
     </row>
-    <row r="6" spans="1:151" s="39" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:151" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6"/>
       <c r="B6" s="27">
         <v>45203</v>
@@ -2835,55 +2841,55 @@
       </c>
       <c r="BN6" s="49" t="str" cm="1">
         <f t="array" ref="BN6">INT((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BN$4, 2))), SUM(MID($K$4:BN$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>156 hours 0 minutes</v>
+        <v>160 hours 5 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -2959,7 +2965,7 @@
       <c r="ET6" s="49"/>
       <c r="EU6" s="46"/>
     </row>
-    <row r="7" spans="1:151" s="39" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:151" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="27">
         <v>45204</v>
@@ -3159,7 +3165,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:151" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:151" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
         <v>45205</v>
       </c>
@@ -3187,7 +3193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:151" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:151" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="27">
         <v>45206</v>
       </c>
@@ -3215,7 +3221,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:151" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:151" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="27">
         <v>45206</v>
       </c>
@@ -3243,7 +3249,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:151" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:151" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="27">
         <v>45207</v>
       </c>
@@ -3271,7 +3277,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:151" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:151" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="27">
         <v>45207</v>
       </c>
@@ -3299,7 +3305,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:151" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:151" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="27">
         <v>45208</v>
       </c>
@@ -3327,7 +3333,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:151" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:151" ht="90" x14ac:dyDescent="0.25">
       <c r="B14" s="27">
         <v>45208</v>
       </c>
@@ -3355,7 +3361,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:151" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:151" ht="120" x14ac:dyDescent="0.25">
       <c r="B15" s="27">
         <v>45209</v>
       </c>
@@ -3383,7 +3389,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:151" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:151" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="27">
         <v>45209</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" s="27">
         <v>45210</v>
       </c>
@@ -3430,7 +3436,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B18" s="27">
         <v>45210</v>
       </c>
@@ -3458,7 +3464,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B19" s="27">
         <v>45211</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="27">
         <v>45211</v>
       </c>
@@ -3514,7 +3520,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B21" s="27">
         <v>45212</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="27">
         <v>45212</v>
       </c>
@@ -3564,7 +3570,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B23" s="27">
         <v>45213</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B24" s="27">
         <v>45214</v>
       </c>
@@ -3620,7 +3626,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="27">
         <v>45215</v>
       </c>
@@ -3648,7 +3654,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="27">
         <v>45216</v>
       </c>
@@ -3670,7 +3676,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B27" s="27">
         <v>45216</v>
       </c>
@@ -3698,7 +3704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B28" s="27">
         <v>45217</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="27">
         <v>45218</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B30" s="27">
         <v>45218</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B31" s="27">
         <v>45218</v>
       </c>
@@ -3798,7 +3804,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B32" s="27">
         <v>45219</v>
       </c>
@@ -3823,7 +3829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" s="27">
         <v>45220</v>
       </c>
@@ -3845,7 +3851,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>102</v>
       </c>
@@ -3873,7 +3879,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B35" s="27">
         <v>45220</v>
       </c>
@@ -3898,7 +3904,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B36" s="27">
         <v>45221</v>
       </c>
@@ -3923,7 +3929,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B37" s="27">
         <v>45221</v>
       </c>
@@ -3948,7 +3954,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B38" s="27">
         <v>45223</v>
       </c>
@@ -3973,7 +3979,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B39" s="27">
         <v>45224</v>
       </c>
@@ -3998,7 +4004,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B40" s="27">
         <v>45225</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B41" s="27">
         <v>45226</v>
       </c>
@@ -4045,7 +4051,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B42" s="27">
         <v>45227</v>
       </c>
@@ -4073,7 +4079,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" s="27">
         <v>45227</v>
       </c>
@@ -4095,7 +4101,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B44" s="27">
         <v>45228</v>
       </c>
@@ -4117,7 +4123,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B45" s="27">
         <v>45228</v>
       </c>
@@ -4142,7 +4148,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="27">
         <v>45230</v>
       </c>
@@ -4164,7 +4170,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B47" s="27">
         <v>45230</v>
       </c>
@@ -4189,7 +4195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="27">
         <v>45231</v>
       </c>
@@ -4214,7 +4220,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="105" x14ac:dyDescent="0.25">
       <c r="B49" s="27">
         <v>45232</v>
       </c>
@@ -4239,7 +4245,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B50" s="27">
         <v>45233</v>
       </c>
@@ -4264,7 +4270,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="27">
         <v>45234</v>
       </c>
@@ -4286,7 +4292,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B52" s="27">
         <v>45236</v>
       </c>
@@ -4311,7 +4317,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B53" s="27">
         <v>45237</v>
       </c>
@@ -4339,7 +4345,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B54" s="27">
         <v>45238</v>
       </c>
@@ -4364,7 +4370,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B55" s="27">
         <v>45239</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="27">
         <v>45240</v>
       </c>
@@ -4414,7 +4420,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="27">
         <v>45240</v>
       </c>
@@ -4439,7 +4445,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B58" s="27">
         <v>45241</v>
       </c>
@@ -4464,7 +4470,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="27">
         <v>45243</v>
       </c>
@@ -4486,7 +4492,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="27">
         <v>45245</v>
       </c>
@@ -4511,7 +4517,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="27">
         <v>45245</v>
       </c>
@@ -4536,7 +4542,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" s="27">
         <v>45246</v>
       </c>
@@ -4558,7 +4564,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="27">
         <v>45247</v>
       </c>
@@ -4583,7 +4589,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="64" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B64" s="27">
         <v>45248</v>
       </c>
@@ -4608,7 +4614,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B65" s="27">
         <v>45250</v>
       </c>
@@ -4633,7 +4639,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B66" s="27">
         <v>45251</v>
       </c>
@@ -4658,7 +4664,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="27">
         <v>45252</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="27">
         <v>45253</v>
       </c>
@@ -4708,7 +4714,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B69" s="27">
         <v>45254</v>
       </c>
@@ -4736,7 +4742,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B70" s="27">
         <v>45254</v>
       </c>
@@ -4761,17 +4767,32 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E71" s="17" t="str">
+    <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B71" s="27">
+        <v>45256</v>
+      </c>
+      <c r="C71" s="16">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="D71" s="12">
+        <v>0.87152777777777779</v>
+      </c>
+      <c r="E71" s="17">
         <f t="shared" ref="E71:E125" si="3">IF(OR(C71=0, D71=0),"", D71-C71)</f>
-        <v/>
+        <v>0.17013888888888895</v>
       </c>
       <c r="F71" s="15" t="str">
         <f>IF(E71="","",_xlfn.CONCAT(HOUR(SUM($E$4:E71))," hours ",MINUTE(SUM($E$4:E71))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>16 hours 5 minutes</v>
+      </c>
+      <c r="G71" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="H71" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E72" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4781,7 +4802,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E73" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4791,7 +4812,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E74" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4801,7 +4822,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E75" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4811,7 +4832,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E76" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4821,7 +4842,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E77" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4831,7 +4852,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E78" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4841,7 +4862,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E79" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4851,7 +4872,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E80" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4861,7 +4882,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4871,7 +4892,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4881,7 +4902,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4891,7 +4912,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4901,7 +4922,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4911,7 +4932,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4921,7 +4942,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4931,7 +4952,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4941,7 +4962,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4951,7 +4972,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E90" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4961,7 +4982,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E91" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4971,7 +4992,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E92" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4981,7 +5002,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E93" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4991,7 +5012,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E94" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5001,7 +5022,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E95" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5011,7 +5032,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E96" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5021,7 +5042,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E97" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5031,7 +5052,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E98" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5041,7 +5062,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E99" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5051,7 +5072,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E100" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5061,7 +5082,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E101" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5071,7 +5092,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E102" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5081,7 +5102,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E103" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5091,7 +5112,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E104" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5101,7 +5122,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E105" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5111,121 +5132,121 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E106" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E107" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E108" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E109" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E110" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E111" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E112" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E113" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E116" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E117" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E118" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E119" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E120" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E121" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E122" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E123" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E124" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E125" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B8D948-E8A2-41C2-BD35-1869AD566E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43FE7B3-FBFE-4BEA-9C56-7E5F1145E7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="215">
   <si>
     <t>Start Time:</t>
   </si>
@@ -696,7 +696,13 @@
     <t>A ton of dashboard work as well as tweaks all over. Such as the secondary color now being yellow and projects now store their forks</t>
   </si>
   <si>
-    <t>Dashboard project context menu, dashboard following list, public profile overhaul, templates</t>
+    <t>Dashboard project context menu, dashboard following list, public profile overhaul, templates. ALSO change the edit button on the dashboard to a pencil icon in the corner</t>
+  </si>
+  <si>
+    <t>The following list and the templates</t>
+  </si>
+  <si>
+    <t>Pencil icon and context menus done, started on the following list. Also got the public profile page to be up to date with the dashboard (public profile is just view only dashboard)</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1682,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,7 +2265,7 @@
       </c>
       <c r="BO4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 30 minutes</v>
       </c>
       <c r="BP4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2845,51 +2851,51 @@
       </c>
       <c r="BO6" s="46" t="str" cm="1">
         <f t="array" ref="BO6">INT((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BO$4, 2))), SUM(MID($K$4:BO$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>160 hours 5 minutes</v>
+        <v>162 hours 35 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4767,7 +4773,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B71" s="27">
         <v>45256</v>
       </c>
@@ -4792,14 +4798,29 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E72" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+    <row r="72" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B72" s="27">
+        <v>45257</v>
+      </c>
+      <c r="C72" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D72" s="12">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="E72" s="17">
+        <f t="shared" si="3"/>
+        <v>0.10416666666666663</v>
       </c>
       <c r="F72" s="15" t="str">
         <f>IF(E72="","",_xlfn.CONCAT(HOUR(SUM($E$4:E72))," hours ",MINUTE(SUM($E$4:E72))," minutes"))</f>
-        <v/>
+        <v>18 hours 35 minutes</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="H72" s="25" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43FE7B3-FBFE-4BEA-9C56-7E5F1145E7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD604C3-E223-41F2-A64D-3C99C7BA2C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="224">
   <si>
     <t>Start Time:</t>
   </si>
@@ -703,6 +703,33 @@
   </si>
   <si>
     <t>Pencil icon and context menus done, started on the following list. Also got the public profile page to be up to date with the dashboard (public profile is just view only dashboard)</t>
+  </si>
+  <si>
+    <t>Profile following and following display</t>
+  </si>
+  <si>
+    <t>Get the other templates and their buttons working. Make an endpoint that creates the template files from hard coded values so it's not so difficult</t>
+  </si>
+  <si>
+    <t>162 hours</t>
+  </si>
+  <si>
+    <t>166 hours</t>
+  </si>
+  <si>
+    <t>168 hours</t>
+  </si>
+  <si>
+    <t>170 hours</t>
+  </si>
+  <si>
+    <t>173 hours</t>
+  </si>
+  <si>
+    <t>178 hours</t>
+  </si>
+  <si>
+    <t>180 hours</t>
   </si>
 </sst>
 </file>
@@ -1681,8 +1708,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="BO1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BV7" sqref="BV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,7 +2296,7 @@
       </c>
       <c r="BP4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 45 minutes</v>
       </c>
       <c r="BQ4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2855,47 +2882,47 @@
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>162 hours 35 minutes</v>
+        <v>165 hours 20 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>162 hours 35 minutes</v>
+        <v>165 hours 20 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>162 hours 35 minutes</v>
+        <v>165 hours 20 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>162 hours 35 minutes</v>
+        <v>165 hours 20 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>162 hours 35 minutes</v>
+        <v>165 hours 20 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>162 hours 35 minutes</v>
+        <v>165 hours 20 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>162 hours 35 minutes</v>
+        <v>165 hours 20 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>162 hours 35 minutes</v>
+        <v>165 hours 20 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>162 hours 35 minutes</v>
+        <v>165 hours 20 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>162 hours 35 minutes</v>
+        <v>165 hours 20 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>162 hours 35 minutes</v>
+        <v>165 hours 20 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -3170,6 +3197,27 @@
       <c r="BN7" s="39" t="s">
         <v>188</v>
       </c>
+      <c r="BO7" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="BP7" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="BQ7" s="39" t="s">
+        <v>219</v>
+      </c>
+      <c r="BR7" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="BS7" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="BT7" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="BU7" s="39" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="8" spans="1:151" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
@@ -4823,14 +4871,29 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E73" s="17" t="str">
+    <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B73" s="27">
+        <v>45258</v>
+      </c>
+      <c r="C73" s="16">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="D73" s="12">
+        <v>0.68402777777777779</v>
+      </c>
+      <c r="E73" s="17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.11458333333333337</v>
       </c>
       <c r="F73" s="15" t="str">
         <f>IF(E73="","",_xlfn.CONCAT(HOUR(SUM($E$4:E73))," hours ",MINUTE(SUM($E$4:E73))," minutes"))</f>
-        <v/>
+        <v>21 hours 20 minutes</v>
+      </c>
+      <c r="G73" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="H73" s="25" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD604C3-E223-41F2-A64D-3C99C7BA2C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B9593A-E6A8-4DCF-8C7E-4DF5D381829F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="226">
   <si>
     <t>Start Time:</t>
   </si>
@@ -730,6 +730,12 @@
   </si>
   <si>
     <t>180 hours</t>
+  </si>
+  <si>
+    <t>More Template stuff</t>
+  </si>
+  <si>
+    <t>More Template Stuff, finalize the web trio template</t>
   </si>
 </sst>
 </file>
@@ -1708,8 +1714,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BO1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BV7" sqref="BV7"/>
+    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BQ10" sqref="BQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2296,7 +2302,7 @@
       </c>
       <c r="BP4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>02 hours 45 minutes</v>
+        <v>04 hours 50 minutes</v>
       </c>
       <c r="BQ4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2882,47 +2888,47 @@
       </c>
       <c r="BP6" s="37" t="str" cm="1">
         <f t="array" ref="BP6">INT((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BP$4, 2))), SUM(MID($K$4:BP$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>165 hours 20 minutes</v>
+        <v>167 hours 25 minutes</v>
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>165 hours 20 minutes</v>
+        <v>167 hours 25 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>165 hours 20 minutes</v>
+        <v>167 hours 25 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>165 hours 20 minutes</v>
+        <v>167 hours 25 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>165 hours 20 minutes</v>
+        <v>167 hours 25 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>165 hours 20 minutes</v>
+        <v>167 hours 25 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>165 hours 20 minutes</v>
+        <v>167 hours 25 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>165 hours 20 minutes</v>
+        <v>167 hours 25 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>165 hours 20 minutes</v>
+        <v>167 hours 25 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>165 hours 20 minutes</v>
+        <v>167 hours 25 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>165 hours 20 minutes</v>
+        <v>167 hours 25 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4896,14 +4902,29 @@
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E74" s="17" t="str">
+    <row r="74" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="27">
+        <v>45258</v>
+      </c>
+      <c r="C74" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D74" s="12">
+        <v>0.83680555555555547</v>
+      </c>
+      <c r="E74" s="17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.6805555555555469E-2</v>
       </c>
       <c r="F74" s="15" t="str">
         <f>IF(E74="","",_xlfn.CONCAT(HOUR(SUM($E$4:E74))," hours ",MINUTE(SUM($E$4:E74))," minutes"))</f>
-        <v/>
+        <v>23 hours 25 minutes</v>
+      </c>
+      <c r="G74" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B9593A-E6A8-4DCF-8C7E-4DF5D381829F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFAD6B6-8D0D-462C-8E09-8444B8BF2621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="229">
   <si>
     <t>Start Time:</t>
   </si>
@@ -736,6 +736,15 @@
   </si>
   <si>
     <t>More Template Stuff, finalize the web trio template</t>
+  </si>
+  <si>
+    <t>All the templates are made</t>
+  </si>
+  <si>
+    <t>also start testing everything you can think of and figure out what to show off when</t>
+  </si>
+  <si>
+    <t>Next I need to make a method that will manually insert these templates into the database from hard coded versions so I don't lose the templates. Also connect the templates to the buttons, maybe just allow the ID to be an int? let hard coded IDs be these?</t>
   </si>
 </sst>
 </file>
@@ -1714,8 +1723,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BK1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BQ10" sqref="BQ10"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,7 +2315,7 @@
       </c>
       <c r="BQ4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 15 minutes</v>
       </c>
       <c r="BR4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2892,43 +2901,43 @@
       </c>
       <c r="BQ6" s="37" t="str" cm="1">
         <f t="array" ref="BQ6">INT((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BQ$4, 2))), SUM(MID($K$4:BQ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>167 hours 25 minutes</v>
+        <v>169 hours 40 minutes</v>
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>167 hours 25 minutes</v>
+        <v>169 hours 40 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>167 hours 25 minutes</v>
+        <v>169 hours 40 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>167 hours 25 minutes</v>
+        <v>169 hours 40 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>167 hours 25 minutes</v>
+        <v>169 hours 40 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>167 hours 25 minutes</v>
+        <v>169 hours 40 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>167 hours 25 minutes</v>
+        <v>169 hours 40 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>167 hours 25 minutes</v>
+        <v>169 hours 40 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>167 hours 25 minutes</v>
+        <v>169 hours 40 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>167 hours 25 minutes</v>
+        <v>169 hours 40 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4927,14 +4936,32 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E75" s="17" t="str">
+    <row r="75" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+      <c r="B75" s="27">
+        <v>45259</v>
+      </c>
+      <c r="C75" s="16">
+        <v>0.76736111111111116</v>
+      </c>
+      <c r="D75" s="12">
+        <v>0.86111111111111116</v>
+      </c>
+      <c r="E75" s="17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>9.375E-2</v>
       </c>
       <c r="F75" s="15" t="str">
         <f>IF(E75="","",_xlfn.CONCAT(HOUR(SUM($E$4:E75))," hours ",MINUTE(SUM($E$4:E75))," minutes"))</f>
-        <v/>
+        <v>1 hours 40 minutes</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="H75" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I75" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFAD6B6-8D0D-462C-8E09-8444B8BF2621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C939E09-043E-47FC-A4F8-019E4C0126F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="229">
   <si>
     <t>Start Time:</t>
   </si>
@@ -1723,8 +1723,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="BR4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>01 hours 30 minutes</v>
       </c>
       <c r="BS4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2905,39 +2905,39 @@
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>169 hours 40 minutes</v>
+        <v>171 hours 10 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>169 hours 40 minutes</v>
+        <v>171 hours 10 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>169 hours 40 minutes</v>
+        <v>171 hours 10 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>169 hours 40 minutes</v>
+        <v>171 hours 10 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>169 hours 40 minutes</v>
+        <v>171 hours 10 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>169 hours 40 minutes</v>
+        <v>171 hours 10 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>169 hours 40 minutes</v>
+        <v>171 hours 10 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>169 hours 40 minutes</v>
+        <v>171 hours 10 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>169 hours 40 minutes</v>
+        <v>171 hours 10 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4965,13 +4965,22 @@
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E76" s="17" t="str">
+      <c r="B76" s="27">
+        <v>45260</v>
+      </c>
+      <c r="C76" s="16">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D76" s="12">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E76" s="17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>6.25E-2</v>
       </c>
       <c r="F76" s="15" t="str">
         <f>IF(E76="","",_xlfn.CONCAT(HOUR(SUM($E$4:E76))," hours ",MINUTE(SUM($E$4:E76))," minutes"))</f>
-        <v/>
+        <v>3 hours 10 minutes</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C939E09-043E-47FC-A4F8-019E4C0126F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740135A-DDDB-484A-9A1C-40259E2847BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="233">
   <si>
     <t>Start Time:</t>
   </si>
@@ -745,6 +745,18 @@
   </si>
   <si>
     <t>Next I need to make a method that will manually insert these templates into the database from hard coded versions so I don't lose the templates. Also connect the templates to the buttons, maybe just allow the ID to be an int? let hard coded IDs be these?</t>
+  </si>
+  <si>
+    <t>Did the things I said I need to, templates can be easily initialized, and the buttons point to the templates</t>
+  </si>
+  <si>
+    <t>Write my presentation outline and start on the slides. Also try getting webbie on fly.io</t>
+  </si>
+  <si>
+    <t>https://fly.io/docs/languages-and-frameworks/dockerfile/</t>
+  </si>
+  <si>
+    <t>https://chat.openai.com/g/g-lN1gKFnvL-creative-writing-coach/c/2fa968c8-68f9-4f26-a586-747bc7f4e439</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1395,6 +1407,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1724,7 +1737,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,7 +2332,7 @@
       </c>
       <c r="BR4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>01 hours 30 minutes</v>
+        <v>02 hours 50 minutes</v>
       </c>
       <c r="BS4" s="35" t="str">
         <f t="shared" si="1"/>
@@ -2905,39 +2918,39 @@
       </c>
       <c r="BR6" s="37" t="str" cm="1">
         <f t="array" ref="BR6">INT((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BR$4, 2))), SUM(MID($K$4:BR$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>171 hours 10 minutes</v>
+        <v>172 hours 30 minutes</v>
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>171 hours 10 minutes</v>
+        <v>172 hours 30 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>171 hours 10 minutes</v>
+        <v>172 hours 30 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>171 hours 10 minutes</v>
+        <v>172 hours 30 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>171 hours 10 minutes</v>
+        <v>172 hours 30 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>171 hours 10 minutes</v>
+        <v>172 hours 30 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>171 hours 10 minutes</v>
+        <v>172 hours 30 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>171 hours 10 minutes</v>
+        <v>172 hours 30 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>171 hours 10 minutes</v>
+        <v>172 hours 30 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -4683,7 +4696,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B65" s="27">
         <v>45250</v>
       </c>
@@ -4708,7 +4721,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B66" s="27">
         <v>45251</v>
       </c>
@@ -4733,7 +4746,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="27">
         <v>45252</v>
       </c>
@@ -4758,7 +4771,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B68" s="27">
         <v>45253</v>
       </c>
@@ -4783,7 +4796,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B69" s="27">
         <v>45254</v>
       </c>
@@ -4811,7 +4824,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B70" s="27">
         <v>45254</v>
       </c>
@@ -4836,7 +4849,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B71" s="27">
         <v>45256</v>
       </c>
@@ -4861,7 +4874,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B72" s="27">
         <v>45257</v>
       </c>
@@ -4886,7 +4899,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B73" s="27">
         <v>45258</v>
       </c>
@@ -4911,7 +4924,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B74" s="27">
         <v>45258</v>
       </c>
@@ -4936,7 +4949,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B75" s="27">
         <v>45259</v>
       </c>
@@ -4964,7 +4977,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B76" s="27">
         <v>45260</v>
       </c>
@@ -4972,18 +4985,30 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="D76" s="12">
-        <v>0.61805555555555558</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="E76" s="17">
         <f t="shared" si="3"/>
-        <v>6.25E-2</v>
+        <v>0.11805555555555558</v>
       </c>
       <c r="F76" s="15" t="str">
         <f>IF(E76="","",_xlfn.CONCAT(HOUR(SUM($E$4:E76))," hours ",MINUTE(SUM($E$4:E76))," minutes"))</f>
-        <v>3 hours 10 minutes</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4 hours 30 minutes</v>
+      </c>
+      <c r="G76" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="H76" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="I76" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="L76" s="54" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E77" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -4993,7 +5018,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E78" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5003,7 +5028,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E79" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5013,7 +5038,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="E80" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5398,9 +5423,11 @@
   <hyperlinks>
     <hyperlink ref="H13" r:id="rId1" xr:uid="{40BF5D3F-6F40-4D36-A2D2-A18CA464B327}"/>
     <hyperlink ref="J27" r:id="rId2" xr:uid="{9F3B3340-4F24-4554-BB1A-2EA07283D5A7}"/>
+    <hyperlink ref="I76" r:id="rId3" xr:uid="{195CE167-8226-445C-BA43-7F3E1C527220}"/>
+    <hyperlink ref="L76" r:id="rId4" xr:uid="{067E891A-7FE5-40AC-9173-27376CAA17E9}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9740135A-DDDB-484A-9A1C-40259E2847BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933761FE-7CBD-4D30-AAD4-ED94BCAB01ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="235">
   <si>
     <t>Start Time:</t>
   </si>
@@ -757,6 +757,12 @@
   </si>
   <si>
     <t>https://chat.openai.com/g/g-lN1gKFnvL-creative-writing-coach/c/2fa968c8-68f9-4f26-a586-747bc7f4e439</t>
+  </si>
+  <si>
+    <t>Presentation Outline</t>
+  </si>
+  <si>
+    <t>Test production build of frontend, get hosted on fly.io, practice runs of presentation, backup recording</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1743,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,7 +2342,7 @@
       </c>
       <c r="BS4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>02 hours 00 minutes</v>
       </c>
       <c r="BT4" s="40" t="str">
         <f t="shared" si="1"/>
@@ -2922,35 +2928,35 @@
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>172 hours 30 minutes</v>
+        <v>174 hours 30 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>172 hours 30 minutes</v>
+        <v>174 hours 30 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>172 hours 30 minutes</v>
+        <v>174 hours 30 minutes</v>
       </c>
       <c r="BV6" s="46" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>172 hours 30 minutes</v>
+        <v>174 hours 30 minutes</v>
       </c>
       <c r="BW6" s="37" t="str" cm="1">
         <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>172 hours 30 minutes</v>
+        <v>174 hours 30 minutes</v>
       </c>
       <c r="BX6" s="37" t="str" cm="1">
         <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>172 hours 30 minutes</v>
+        <v>174 hours 30 minutes</v>
       </c>
       <c r="BY6" s="37" t="str" cm="1">
         <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>172 hours 30 minutes</v>
+        <v>174 hours 30 minutes</v>
       </c>
       <c r="BZ6" s="47" t="str" cm="1">
         <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>172 hours 30 minutes</v>
+        <v>174 hours 30 minutes</v>
       </c>
       <c r="CA6" s="48"/>
       <c r="CB6" s="49"/>
@@ -5008,14 +5014,29 @@
         <v>232</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E77" s="17" t="str">
+    <row r="77" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B77" s="27">
+        <v>45261</v>
+      </c>
+      <c r="C77" s="16">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="D77" s="12">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E77" s="17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>8.333333333333337E-2</v>
       </c>
       <c r="F77" s="15" t="str">
         <f>IF(E77="","",_xlfn.CONCAT(HOUR(SUM($E$4:E77))," hours ",MINUTE(SUM($E$4:E77))," minutes"))</f>
-        <v/>
+        <v>6 hours 30 minutes</v>
+      </c>
+      <c r="G77" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933761FE-7CBD-4D30-AAD4-ED94BCAB01ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196320B9-CCB0-4D0A-BBA1-B25E0A0D18AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="239">
   <si>
     <t>Start Time:</t>
   </si>
@@ -763,6 +763,18 @@
   </si>
   <si>
     <t>Test production build of frontend, get hosted on fly.io, practice runs of presentation, backup recording</t>
+  </si>
+  <si>
+    <t>Started fixing ESLint quality issues getting in the way of a production build of next</t>
+  </si>
+  <si>
+    <t>Finish up getting a production build of next.js going, also record a backup presentation</t>
+  </si>
+  <si>
+    <t>Production build is made</t>
+  </si>
+  <si>
+    <t>Test production build and do a rehearsal run</t>
   </si>
 </sst>
 </file>
@@ -819,7 +831,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,8 +892,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1315,12 +1339,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCFF"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.79995117038483843"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFCCCCFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1414,6 +1495,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1742,7 +1838,7 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
@@ -2038,21 +2134,13 @@
       <c r="BU3" s="41">
         <v>45263</v>
       </c>
-      <c r="BV3" s="31">
+      <c r="BV3" s="65">
         <v>45264</v>
       </c>
-      <c r="BW3" s="31">
-        <v>45265</v>
-      </c>
-      <c r="BX3" s="31">
-        <v>45266</v>
-      </c>
-      <c r="BY3" s="31">
-        <v>45267</v>
-      </c>
-      <c r="BZ3" s="31">
-        <v>45268</v>
-      </c>
+      <c r="BW3" s="59"/>
+      <c r="BX3" s="59"/>
+      <c r="BY3" s="59"/>
+      <c r="BZ3" s="59"/>
       <c r="CA3" s="41"/>
       <c r="CB3" s="41"/>
       <c r="CH3" s="41"/>
@@ -2193,7 +2281,7 @@
         <v>04 hours 17 minutes</v>
       </c>
       <c r="AH4" s="35" t="str">
-        <f t="shared" ref="AH4:BZ4" si="1">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AH$3), "hh ""hours ""mm ""minutes""")</f>
+        <f t="shared" ref="AH4:BV4" si="1">TEXT(SUMIFS($E$3:$E$99, $B$3:$B$99, AH$3), "hh ""hours ""mm ""minutes""")</f>
         <v>02 hours 08 minutes</v>
       </c>
       <c r="AI4" s="35" t="str">
@@ -2342,37 +2430,25 @@
       </c>
       <c r="BS4" s="35" t="str">
         <f t="shared" si="1"/>
-        <v>02 hours 00 minutes</v>
+        <v>02 hours 27 minutes</v>
       </c>
       <c r="BT4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>01 hours 55 minutes</v>
       </c>
       <c r="BU4" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BV4" s="35" t="str">
+      <c r="BV4" s="61" t="str">
         <f t="shared" si="1"/>
         <v>00 hours 00 minutes</v>
       </c>
-      <c r="BW4" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
-      </c>
-      <c r="BX4" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
-      </c>
-      <c r="BY4" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
-      </c>
-      <c r="BZ4" s="35" t="str">
-        <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
-      </c>
-      <c r="CA4" s="40"/>
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="60"/>
+      <c r="BY4" s="60"/>
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="55"/>
       <c r="CB4" s="42"/>
       <c r="CH4" s="40"/>
       <c r="CI4" s="42"/>
@@ -2610,22 +2686,14 @@
       <c r="BU5" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="BV5" s="36" t="s">
+      <c r="BV5" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="BW5" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="BX5" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="BY5" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="BZ5" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="CA5" s="44"/>
+      <c r="BW5" s="60"/>
+      <c r="BX5" s="60"/>
+      <c r="BY5" s="60"/>
+      <c r="BZ5" s="60"/>
+      <c r="CA5" s="56"/>
       <c r="CB5" s="45"/>
       <c r="CC5" s="36"/>
       <c r="CH5" s="44"/>
@@ -2928,37 +2996,25 @@
       </c>
       <c r="BS6" s="47" t="str" cm="1">
         <f t="array" ref="BS6">INT((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BS$4, 2))), SUM(MID($K$4:BS$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>174 hours 30 minutes</v>
+        <v>174 hours 57 minutes</v>
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>174 hours 30 minutes</v>
+        <v>176 hours 52 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>174 hours 30 minutes</v>
-      </c>
-      <c r="BV6" s="46" t="str" cm="1">
+        <v>176 hours 52 minutes</v>
+      </c>
+      <c r="BV6" s="63" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>174 hours 30 minutes</v>
-      </c>
-      <c r="BW6" s="37" t="str" cm="1">
-        <f t="array" ref="BW6">INT((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BW$4, 2))), SUM(MID($K$4:BW$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>174 hours 30 minutes</v>
-      </c>
-      <c r="BX6" s="37" t="str" cm="1">
-        <f t="array" ref="BX6">INT((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BX$4, 2))), SUM(MID($K$4:BX$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>174 hours 30 minutes</v>
-      </c>
-      <c r="BY6" s="37" t="str" cm="1">
-        <f t="array" ref="BY6">INT((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BY$4, 2))), SUM(MID($K$4:BY$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>174 hours 30 minutes</v>
-      </c>
-      <c r="BZ6" s="47" t="str" cm="1">
-        <f t="array" ref="BZ6">INT((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BZ$4, 2))), SUM(MID($K$4:BZ$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>174 hours 30 minutes</v>
-      </c>
-      <c r="CA6" s="48"/>
+        <v>176 hours 52 minutes</v>
+      </c>
+      <c r="BW6" s="60"/>
+      <c r="BX6" s="60"/>
+      <c r="BY6" s="60"/>
+      <c r="BZ6" s="60"/>
+      <c r="CA6" s="57"/>
       <c r="CB6" s="49"/>
       <c r="CC6" s="46"/>
       <c r="CD6" s="37"/>
@@ -3252,6 +3308,12 @@
       <c r="BU7" s="39" t="s">
         <v>223</v>
       </c>
+      <c r="BV7" s="64"/>
+      <c r="BW7" s="59"/>
+      <c r="BX7" s="59"/>
+      <c r="BY7" s="59"/>
+      <c r="BZ7" s="59"/>
+      <c r="CA7" s="58"/>
     </row>
     <row r="8" spans="1:151" ht="60" x14ac:dyDescent="0.25">
       <c r="B8" s="27">
@@ -5039,24 +5101,54 @@
         <v>234</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E78" s="17" t="str">
+    <row r="78" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B78" s="27">
+        <v>45261</v>
+      </c>
+      <c r="C78" s="16">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D78" s="12">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="E78" s="17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>1.8749999999999933E-2</v>
       </c>
       <c r="F78" s="15" t="str">
         <f>IF(E78="","",_xlfn.CONCAT(HOUR(SUM($E$4:E78))," hours ",MINUTE(SUM($E$4:E78))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E79" s="17" t="str">
+        <v>6 hours 57 minutes</v>
+      </c>
+      <c r="G78" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="H78" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="27">
+        <v>45262</v>
+      </c>
+      <c r="C79" s="16">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D79" s="12">
+        <v>0.59375</v>
+      </c>
+      <c r="E79" s="17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>7.9861111111111049E-2</v>
       </c>
       <c r="F79" s="15" t="str">
         <f>IF(E79="","",_xlfn.CONCAT(HOUR(SUM($E$4:E79))," hours ",MINUTE(SUM($E$4:E79))," minutes"))</f>
-        <v/>
+        <v>8 hours 52 minutes</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H79" s="25" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196320B9-CCB0-4D0A-BBA1-B25E0A0D18AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64529896-C2A3-4ABA-93B4-B28BBBE5A01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="241">
   <si>
     <t>Start Time:</t>
   </si>
@@ -775,6 +775,12 @@
   </si>
   <si>
     <t>Test production build and do a rehearsal run</t>
+  </si>
+  <si>
+    <t>Dockerized entirely!</t>
+  </si>
+  <si>
+    <t>Practice Practice!</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1845,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2434,7 +2440,7 @@
       </c>
       <c r="BT4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>01 hours 55 minutes</v>
+        <v>02 hours 50 minutes</v>
       </c>
       <c r="BU4" s="42" t="str">
         <f t="shared" si="1"/>
@@ -3000,15 +3006,15 @@
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>176 hours 52 minutes</v>
+        <v>177 hours 47 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>176 hours 52 minutes</v>
+        <v>177 hours 47 minutes</v>
       </c>
       <c r="BV6" s="63" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>176 hours 52 minutes</v>
+        <v>177 hours 47 minutes</v>
       </c>
       <c r="BW6" s="60"/>
       <c r="BX6" s="60"/>
@@ -5152,13 +5158,28 @@
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E80" s="17" t="str">
+      <c r="B80" s="27">
+        <v>45262</v>
+      </c>
+      <c r="C80" s="16">
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="D80" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="E80" s="17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.8194444444444531E-2</v>
       </c>
       <c r="F80" s="15" t="str">
         <f>IF(E80="","",_xlfn.CONCAT(HOUR(SUM($E$4:E80))," hours ",MINUTE(SUM($E$4:E80))," minutes"))</f>
-        <v/>
+        <v>9 hours 47 minutes</v>
+      </c>
+      <c r="G80" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="H80" s="25" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="5:6" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64529896-C2A3-4ABA-93B4-B28BBBE5A01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC5733F-602D-46AF-AFBA-C9DB86C4F71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="242">
   <si>
     <t>Start Time:</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>Practice Practice!</t>
+  </si>
+  <si>
+    <t>Testing and Tweaks because practice runs</t>
   </si>
 </sst>
 </file>
@@ -1845,7 +1848,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,7 +2443,7 @@
       </c>
       <c r="BT4" s="40" t="str">
         <f t="shared" si="1"/>
-        <v>02 hours 50 minutes</v>
+        <v>03 hours 40 minutes</v>
       </c>
       <c r="BU4" s="42" t="str">
         <f t="shared" si="1"/>
@@ -3006,15 +3009,15 @@
       </c>
       <c r="BT6" s="48" t="str" cm="1">
         <f t="array" ref="BT6">INT((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BT$4, 2))), SUM(MID($K$4:BT$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>177 hours 47 minutes</v>
+        <v>178 hours 37 minutes</v>
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>177 hours 47 minutes</v>
+        <v>178 hours 37 minutes</v>
       </c>
       <c r="BV6" s="63" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>177 hours 47 minutes</v>
+        <v>178 hours 37 minutes</v>
       </c>
       <c r="BW6" s="60"/>
       <c r="BX6" s="60"/>
@@ -5182,17 +5185,29 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E81" s="17" t="str">
+    <row r="81" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" s="27">
+        <v>45262</v>
+      </c>
+      <c r="C81" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="D81" s="12">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="E81" s="17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="F81" s="15" t="str">
         <f>IF(E81="","",_xlfn.CONCAT(HOUR(SUM($E$4:E81))," hours ",MINUTE(SUM($E$4:E81))," minutes"))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+        <v>10 hours 37 minutes</v>
+      </c>
+      <c r="G81" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E82" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5202,7 +5217,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E83" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5212,7 +5227,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E84" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5222,7 +5237,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E85" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5232,7 +5247,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E86" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5242,7 +5257,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E87" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5252,7 +5267,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E88" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5262,7 +5277,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E89" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5272,7 +5287,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E90" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5282,7 +5297,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E91" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5292,7 +5307,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E92" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5302,7 +5317,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E93" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5312,7 +5327,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E94" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5322,7 +5337,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E95" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5332,7 +5347,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E96" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC5733F-602D-46AF-AFBA-C9DB86C4F71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD56EF3-8773-4C85-A658-737F7EBFA07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="5232" windowWidth="23256" windowHeight="14016" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
+    <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="243">
   <si>
     <t>Start Time:</t>
   </si>
@@ -784,6 +784,9 @@
   </si>
   <si>
     <t>Testing and Tweaks because practice runs</t>
+  </si>
+  <si>
+    <t>IT'S HOSTED YEAAAAAAAAAAAAHH</t>
   </si>
 </sst>
 </file>
@@ -1847,8 +1850,8 @@
   </sheetPr>
   <dimension ref="A1:EU125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5208,6 +5211,13 @@
       </c>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="27">
+        <v>45263</v>
+      </c>
+      <c r="C82" s="16">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D82" s="12"/>
       <c r="E82" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5215,6 +5225,9 @@
       <c r="F82" s="15" t="str">
         <f>IF(E82="","",_xlfn.CONCAT(HOUR(SUM($E$4:E82))," hours ",MINUTE(SUM($E$4:E82))," minutes"))</f>
         <v/>
+      </c>
+      <c r="G82" s="21" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">

--- a/Documents/Capstone Hour Tracker.xlsx
+++ b/Documents/Capstone Hour Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbates\Documents\School Docs\Capstone\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD56EF3-8773-4C85-A658-737F7EBFA07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7078F58-D6D4-4423-9617-98C0AAC6ACBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="-6495" windowWidth="19440" windowHeight="11640" xr2:uid="{FFC61897-BE93-43E3-B722-FE8F6A604BE5}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="244">
   <si>
     <t>Start Time:</t>
   </si>
@@ -786,7 +786,10 @@
     <t>Testing and Tweaks because practice runs</t>
   </si>
   <si>
-    <t>IT'S HOSTED YEAAAAAAAAAAAAHH</t>
+    <t>IT'S HOSTED YEAAAAAAAAAAAAHH, also recorded the backup vid and fixed some more small issues</t>
+  </si>
+  <si>
+    <t>Present</t>
   </si>
 </sst>
 </file>
@@ -1851,7 +1854,7 @@
   <dimension ref="A1:EU125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,7 +2453,7 @@
       </c>
       <c r="BU4" s="42" t="str">
         <f t="shared" si="1"/>
-        <v>00 hours 00 minutes</v>
+        <v>05 hours 45 minutes</v>
       </c>
       <c r="BV4" s="61" t="str">
         <f t="shared" si="1"/>
@@ -3016,11 +3019,11 @@
       </c>
       <c r="BU6" s="49" t="str" cm="1">
         <f t="array" ref="BU6">INT((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BU$4, 2))), SUM(MID($K$4:BU$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>178 hours 37 minutes</v>
+        <v>184 hours 22 minutes</v>
       </c>
       <c r="BV6" s="63" t="str" cm="1">
         <f t="array" ref="BV6">INT((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60)))) &amp; " hours " &amp; MOD((SUM(SUM(INT(LEFT($K$4:BV$4, 2))), SUM(MID($K$4:BV$4,10,2)/60))) * 60, 60) &amp; " minutes"</f>
-        <v>178 hours 37 minutes</v>
+        <v>184 hours 22 minutes</v>
       </c>
       <c r="BW6" s="60"/>
       <c r="BX6" s="60"/>
@@ -5188,7 +5191,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B81" s="27">
         <v>45262</v>
       </c>
@@ -5210,27 +5213,32 @@
         <v>241</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B82" s="27">
         <v>45263</v>
       </c>
       <c r="C82" s="16">
         <v>0.69791666666666663</v>
       </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="17" t="str">
+      <c r="D82" s="12">
+        <v>0.9375</v>
+      </c>
+      <c r="E82" s="17">
         <f t="shared" si="3"/>
-        <v/>
+        <v>0.23958333333333337</v>
       </c>
       <c r="F82" s="15" t="str">
         <f>IF(E82="","",_xlfn.CONCAT(HOUR(SUM($E$4:E82))," hours ",MINUTE(SUM($E$4:E82))," minutes"))</f>
-        <v/>
+        <v>16 hours 22 minutes</v>
       </c>
       <c r="G82" s="21" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H82" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E83" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5240,7 +5248,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E84" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5250,7 +5258,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E85" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5260,7 +5268,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E86" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5270,7 +5278,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E87" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5280,7 +5288,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E88" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5290,7 +5298,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E89" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5300,7 +5308,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E90" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5310,7 +5318,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E91" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5320,7 +5328,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E92" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5330,7 +5338,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E93" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5340,7 +5348,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E94" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5350,7 +5358,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E95" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -5360,7 +5368,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E96" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
